--- a/data/results/00_inferentialResults.xlsx
+++ b/data/results/00_inferentialResults.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga84kuj\Documents\R\Multilab_Analysis\data\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DC05D2-BA32-414E-ADFB-E837689A261A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A106425D-B156-455A-8EDA-666119B2660D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANOVA_UsabQ" sheetId="2" r:id="rId1"/>
     <sheet name="CLM_UsabQ" sheetId="3" r:id="rId2"/>
     <sheet name="TOST_UsabQ" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TOST_UsabQ!$A$1:$AM$25</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -696,7 +699,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,6 +718,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -728,15 +737,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3623,8 +3643,8 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q24" sqref="Q24"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3634,7 +3654,7 @@
     <col min="3" max="4" width="8.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="11" width="12.7109375" customWidth="1"/>
+    <col min="9" max="11" width="12.7109375" hidden="1" customWidth="1"/>
     <col min="12" max="14" width="13.42578125" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" customWidth="1"/>
@@ -4527,83 +4547,83 @@
         <v>0.38231295667591675</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
-      <c r="A12" t="s">
+    <row r="12" spans="1:26" s="3" customFormat="1">
+      <c r="A12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>0.44173546981448902</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>0.14970960071335301</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>0.17259227417182499</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>0.25009585933650502</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>0.248032174848586</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>0.34843930570681803</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>1.7662646274368401</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <v>0.60358943675249099</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>0.49532952036429201</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <v>7.73514630534924E-2</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="3">
         <v>0.54611663747820804</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="3">
         <v>0.62036753621135499</v>
       </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
+      <c r="R12" s="3">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3">
         <v>0.73826674694419925</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="3">
         <v>7.1094532540249677E-3</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="3">
         <v>0.24535133374431928</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="3">
         <v>0.39021666716514758</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="3">
         <v>0.93280394027316826</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="3">
         <v>0.62036753621135488</v>
       </c>
     </row>
@@ -5329,7 +5349,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="X1:Z1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5339,10 +5359,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" activeCellId="5" sqref="A20:XFD20 A18:XFD18 A16:XFD16 A14:XFD14 A12:XFD12 A10:XFD10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5374,8 +5395,8 @@
     <col min="27" max="27" width="14.7109375" customWidth="1"/>
     <col min="28" max="28" width="15.5703125" customWidth="1"/>
     <col min="29" max="29" width="15.7109375" customWidth="1"/>
-    <col min="30" max="30" width="18.7109375" customWidth="1"/>
-    <col min="31" max="31" width="18.85546875" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="18.85546875" style="1" customWidth="1"/>
     <col min="32" max="32" width="15.5703125" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
     <col min="34" max="34" width="18.140625" customWidth="1"/>
@@ -5474,10 +5495,10 @@
       <c r="AC1" t="s">
         <v>186</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>188</v>
       </c>
       <c r="AF1" t="s">
@@ -5505,7 +5526,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" hidden="1">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -5624,7 +5645,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" hidden="1">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -5743,7 +5764,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" hidden="1">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -5862,7 +5883,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" hidden="1">
       <c r="A5" t="s">
         <v>138</v>
       </c>
@@ -5981,7 +6002,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" hidden="1">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -6100,7 +6121,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" hidden="1">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -6219,7 +6240,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" hidden="1">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -6338,7 +6359,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" hidden="1">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -6457,7 +6478,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" hidden="1">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -6576,7 +6597,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" hidden="1">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -6664,10 +6685,10 @@
       <c r="AC11">
         <v>1201.5</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="1">
         <v>1555</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="1">
         <v>864</v>
       </c>
       <c r="AF11">
@@ -6695,7 +6716,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" hidden="1">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -6814,7 +6835,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" hidden="1">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -6902,10 +6923,10 @@
       <c r="AC13">
         <v>983</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="1">
         <v>1440</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="1">
         <v>521</v>
       </c>
       <c r="AF13">
@@ -6933,7 +6954,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" hidden="1">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -7052,7 +7073,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" hidden="1">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -7140,10 +7161,10 @@
       <c r="AC15">
         <v>1026.5</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="1">
         <v>1396</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="1">
         <v>691</v>
       </c>
       <c r="AF15">
@@ -7171,7 +7192,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" hidden="1">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -7290,7 +7311,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" hidden="1">
       <c r="A17" t="s">
         <v>150</v>
       </c>
@@ -7378,10 +7399,10 @@
       <c r="AC17">
         <v>1160</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="1">
         <v>1628</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" s="1">
         <v>750</v>
       </c>
       <c r="AF17">
@@ -7409,7 +7430,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" hidden="1">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -7528,7 +7549,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" hidden="1">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -7616,10 +7637,10 @@
       <c r="AC19">
         <v>1048.5</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="1">
         <v>1414</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="1">
         <v>667</v>
       </c>
       <c r="AF19">
@@ -7647,7 +7668,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" hidden="1">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -7766,7 +7787,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" hidden="1">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -7854,10 +7875,10 @@
       <c r="AC21">
         <v>1090</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="1">
         <v>1424</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="1">
         <v>805</v>
       </c>
       <c r="AF21">
@@ -8123,7 +8144,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" hidden="1">
       <c r="A24" t="s">
         <v>157</v>
       </c>
@@ -8242,7 +8263,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" hidden="1">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -8362,8 +8383,16 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1048576 D1:D1048576 R1:R1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <autoFilter ref="A1:AM25" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Uebel_12"/>
+        <filter val="Uebel_23"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="F1:F1048576 D1:D1048576 R1:R1048576 AF1:AH1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/results/00_inferentialResults.xlsx
+++ b/data/results/00_inferentialResults.xlsx
@@ -25,7 +25,669 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="645">
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>SUS 12</t>
+  </si>
+  <si>
+    <t>UMUX 12</t>
+  </si>
+  <si>
+    <t>Trust 12</t>
+  </si>
+  <si>
+    <t>Acceptance 12</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness 12</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity 12</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency 12</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability 12</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty 12</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation 12</t>
+  </si>
+  <si>
+    <t>SUS 23</t>
+  </si>
+  <si>
+    <t>UMUX 23</t>
+  </si>
+  <si>
+    <t>Trust 23</t>
+  </si>
+  <si>
+    <t>Acceptance 23</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness 23</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity 23</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency 23</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability 23</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty 23</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation 23</t>
+  </si>
+  <si>
+    <t>eta_sq_Exp</t>
+  </si>
+  <si>
+    <t>eta_sq_HMI</t>
+  </si>
+  <si>
+    <t>eta_sq_Interaction</t>
+  </si>
+  <si>
+    <t>eta_sq_Residuals</t>
+  </si>
+  <si>
+    <t>eta_sq_part_Exp</t>
+  </si>
+  <si>
+    <t>eta_sq_part_HMI</t>
+  </si>
+  <si>
+    <t>eta_sq_part_Interaction</t>
+  </si>
+  <si>
+    <t>eta_sq_part_Residuals</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>SumSq_Exp</t>
+  </si>
+  <si>
+    <t>SumSq_HMI</t>
+  </si>
+  <si>
+    <t>SumSq_Interaction</t>
+  </si>
+  <si>
+    <t>SumSq_Residuals</t>
+  </si>
+  <si>
+    <t>Df_Exp</t>
+  </si>
+  <si>
+    <t>Df_HMI</t>
+  </si>
+  <si>
+    <t>Df_Interaction</t>
+  </si>
+  <si>
+    <t>Df_Residuals</t>
+  </si>
+  <si>
+    <t>MeanSq_Exp</t>
+  </si>
+  <si>
+    <t>MeanSq_HMI</t>
+  </si>
+  <si>
+    <t>MeanSq_Interaction</t>
+  </si>
+  <si>
+    <t>MeanSq_Residuals</t>
+  </si>
+  <si>
+    <t>F_Exp</t>
+  </si>
+  <si>
+    <t>F_HMI</t>
+  </si>
+  <si>
+    <t>F_Interaction</t>
+  </si>
+  <si>
+    <t>F_Residuals</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>p_Exp</t>
+  </si>
+  <si>
+    <t>p_HMI</t>
+  </si>
+  <si>
+    <t>p_Interaction</t>
+  </si>
+  <si>
+    <t>p_Residuals</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>lev_Df_group</t>
+  </si>
+  <si>
+    <t>lev_Df</t>
+  </si>
+  <si>
+    <t>lev_F</t>
+  </si>
+  <si>
+    <t>lev_x1</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>lev_p</t>
+  </si>
+  <si>
+    <t>lev_x2</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>shap_W</t>
+  </si>
+  <si>
+    <t>shap_p</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>Shapiro-Wilk normality test</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>anova_SUS_res</t>
+  </si>
+  <si>
+    <t>anova_UMUX_res</t>
+  </si>
+  <si>
+    <t>anova_Trust_res</t>
+  </si>
+  <si>
+    <t>anova_Acceptance_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Attractiveness_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Perspicuity_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Efficiency_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Dependability_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Novelty_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Stimulation_res</t>
+  </si>
+  <si>
+    <t>anova_SUS_res</t>
+  </si>
+  <si>
+    <t>anova_UMUX_res</t>
+  </si>
+  <si>
+    <t>anova_Trust_res</t>
+  </si>
+  <si>
+    <t>anova_Acceptance_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Attractiveness_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Perspicuity_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Efficiency_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Dependability_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Novelty_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Stimulation_res</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>SUS_score</t>
+  </si>
+  <si>
+    <t>UMUX_score</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Acceptance</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation</t>
+  </si>
+  <si>
+    <t>SUS_score</t>
+  </si>
+  <si>
+    <t>UMUX_score</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Acceptance</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>factor_1</t>
+  </si>
+  <si>
+    <t>Exp.L</t>
+  </si>
+  <si>
+    <t>factor_2</t>
+  </si>
+  <si>
+    <t>HMI.L</t>
+  </si>
+  <si>
+    <t>factor_3</t>
+  </si>
+  <si>
+    <t>Exp.L:HMI.L</t>
+  </si>
+  <si>
+    <t>est_1</t>
+  </si>
+  <si>
+    <t>est_2</t>
+  </si>
+  <si>
+    <t>est_3</t>
+  </si>
+  <si>
+    <t>sterr_1</t>
+  </si>
+  <si>
+    <t>sterr_2</t>
+  </si>
+  <si>
+    <t>sterr_3</t>
+  </si>
+  <si>
+    <t>z_1</t>
+  </si>
+  <si>
+    <t>z_2</t>
+  </si>
+  <si>
+    <t>z_3</t>
+  </si>
+  <si>
+    <t>p_1</t>
+  </si>
+  <si>
+    <t>p_2</t>
+  </si>
+  <si>
+    <t>p_3</t>
+  </si>
+  <si>
+    <t>aov_df_1</t>
+  </si>
+  <si>
+    <t>aov_df_2</t>
+  </si>
+  <si>
+    <t>aov_df_3</t>
+  </si>
+  <si>
+    <t>aov_ChiSq_1</t>
+  </si>
+  <si>
+    <t>aov_ChiSq_2</t>
+  </si>
+  <si>
+    <t>aov_ChiSq_3</t>
+  </si>
+  <si>
+    <t>aov_p_1</t>
+  </si>
+  <si>
+    <t>aov_p_2</t>
+  </si>
+  <si>
+    <t>aov_p_3</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>SUS_12</t>
+  </si>
+  <si>
+    <t>SUS_23</t>
+  </si>
+  <si>
+    <t>UMUX_12</t>
+  </si>
+  <si>
+    <t>UMUX_23</t>
+  </si>
+  <si>
+    <t>Trust_12</t>
+  </si>
+  <si>
+    <t>Trust_23</t>
+  </si>
+  <si>
+    <t>Acceptance_12</t>
+  </si>
+  <si>
+    <t>Acceptance_23</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_12</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_23</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_12</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_23</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_12</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_23</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_12</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_23</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_12</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_23</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_12</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_23</t>
+  </si>
+  <si>
+    <t>Uebel_12</t>
+  </si>
+  <si>
+    <t>Uebel_23</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_12</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_23</t>
+  </si>
+  <si>
+    <t>diff_means</t>
+  </si>
+  <si>
+    <t>TOST_t1</t>
+  </si>
+  <si>
+    <t>TOST_p1</t>
+  </si>
+  <si>
+    <t>TOST_t2</t>
+  </si>
+  <si>
+    <t>TOST_p2</t>
+  </si>
+  <si>
+    <t>TOST_df</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>low_eqbound</t>
+  </si>
+  <si>
+    <t>high_eqbound</t>
+  </si>
+  <si>
+    <t>low_eqbound_d</t>
+  </si>
+  <si>
+    <t>high_eqbound_d</t>
+  </si>
+  <si>
+    <t>LL_CI_TOST</t>
+  </si>
+  <si>
+    <t>UL_CI_TOST</t>
+  </si>
+  <si>
+    <t>LL_CI_TTest</t>
+  </si>
+  <si>
+    <t>UL_CI_TTest</t>
+  </si>
+  <si>
+    <t>NHST_t</t>
+  </si>
+  <si>
+    <t>NHST_p</t>
+  </si>
+  <si>
+    <t>lev_Df_group</t>
+  </si>
+  <si>
+    <t>lev_Df</t>
+  </si>
+  <si>
+    <t>lev_F</t>
+  </si>
+  <si>
+    <t>lev_p</t>
+  </si>
+  <si>
+    <t>shap_Exp1</t>
+  </si>
+  <si>
+    <t>shap_Exp2</t>
+  </si>
+  <si>
+    <t>shap_W1</t>
+  </si>
+  <si>
+    <t>shap_W2</t>
+  </si>
+  <si>
+    <t>shap_p1</t>
+  </si>
+  <si>
+    <t>shap_p2</t>
+  </si>
+  <si>
+    <t>wTOST_W_NHST</t>
+  </si>
+  <si>
+    <t>wTOST_W_TOSTlow</t>
+  </si>
+  <si>
+    <t>wTOST_W_TOSTupp</t>
+  </si>
+  <si>
+    <t>wTOST_p_NHST</t>
+  </si>
+  <si>
+    <t>wTOST_p_TOSTlow</t>
+  </si>
+  <si>
+    <t>wTOST_p_TOSTupp</t>
+  </si>
+  <si>
+    <t>wTOST_low_eqbound</t>
+  </si>
+  <si>
+    <t>wTOST_high_eqbound</t>
+  </si>
+  <si>
+    <t>wTOST_alpha</t>
+  </si>
+  <si>
+    <t>wTOST_test</t>
+  </si>
+  <si>
+    <t>Wilcoxon rank sum test with continuity correction</t>
+  </si>
+  <si>
+    <t>wTOST_decision_combined</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
   <si>
     <t>Test</t>
   </si>
@@ -1387,7 +2049,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1398,11 +2060,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -1410,6 +2075,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1806,126 +2474,126 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>215</v>
+        <v>430</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>236</v>
+        <v>451</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>237</v>
+        <v>452</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>238</v>
+        <v>453</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>239</v>
+        <v>454</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>240</v>
+        <v>455</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>241</v>
+        <v>456</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>242</v>
+        <v>457</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>243</v>
+        <v>458</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>245</v>
+        <v>460</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>246</v>
+        <v>461</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>247</v>
+        <v>462</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>248</v>
+        <v>463</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>249</v>
+        <v>464</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>250</v>
+        <v>465</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>251</v>
+        <v>466</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>252</v>
+        <v>467</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>253</v>
+        <v>468</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>254</v>
+        <v>469</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>255</v>
+        <v>470</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>256</v>
+        <v>471</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>257</v>
+        <v>472</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>258</v>
+        <v>473</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>259</v>
+        <v>474</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>260</v>
+        <v>475</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>262</v>
+        <v>477</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>263</v>
+        <v>478</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>264</v>
+        <v>479</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>265</v>
+        <v>480</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>267</v>
+        <v>482</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>268</v>
+        <v>483</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>269</v>
+        <v>484</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>270</v>
+        <v>485</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>272</v>
+        <v>487</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>273</v>
+        <v>488</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>275</v>
+        <v>490</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>276</v>
+        <v>491</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>277</v>
+        <v>492</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>279</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
       <c r="B2" s="0">
         <v>0.00011157034591140212</v>
@@ -1949,7 +2617,7 @@
         <v>0.0048554135592594541</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J2" s="0">
         <v>2.6946953745136852</v>
@@ -1997,7 +2665,7 @@
         <v>0.53182229514223056</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z2" s="0">
         <v>0.91192116634329889</v>
@@ -2009,7 +2677,7 @@
         <v>0.46740588489031609</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD2" s="0">
         <v>3</v>
@@ -2021,13 +2689,13 @@
         <v>0.5796264091078871</v>
       </c>
       <c r="AG2" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH2" s="0">
         <v>0.62961609168530352</v>
       </c>
       <c r="AI2" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ2" s="0">
         <v>0.946535282167002</v>
@@ -2036,15 +2704,15 @@
         <v>0.0001965462730739</v>
       </c>
       <c r="AL2" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM2" s="0" t="s">
-        <v>280</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>217</v>
+        <v>432</v>
       </c>
       <c r="B3" s="0">
         <v>0.01481831485328826</v>
@@ -2068,7 +2736,7 @@
         <v>0.038811156064839557</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J3" s="0">
         <v>410.94141280239637</v>
@@ -2116,7 +2784,7 @@
         <v>4.4012329499663707</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z3" s="0">
         <v>0.17481826441074078</v>
@@ -2128,7 +2796,7 @@
         <v>0.038224229967684265</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD3" s="0">
         <v>3</v>
@@ -2140,13 +2808,13 @@
         <v>2.5587922157241612</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH3" s="0">
         <v>0.058809086203984742</v>
       </c>
       <c r="AI3" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ3" s="0">
         <v>0.96382179475058305</v>
@@ -2155,15 +2823,15 @@
         <v>0.0037646415396773302</v>
       </c>
       <c r="AL3" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM3" s="0" t="s">
-        <v>281</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>218</v>
+        <v>433</v>
       </c>
       <c r="B4" s="0">
         <v>9.8470155370701215e-07</v>
@@ -2187,7 +2855,7 @@
         <v>0.0077334412165641223</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J4" s="0">
         <v>0.00012611151225883077</v>
@@ -2235,7 +2903,7 @@
         <v>0.84951476510402457</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z4" s="0">
         <v>0.99169021624493137</v>
@@ -2247,7 +2915,7 @@
         <v>0.35872521012487424</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD4" s="0">
         <v>3</v>
@@ -2259,13 +2927,13 @@
         <v>1.7657021562186146</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH4" s="0">
         <v>0.15799763458190394</v>
       </c>
       <c r="AI4" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ4" s="0">
         <v>0.92443689212344304</v>
@@ -2274,15 +2942,15 @@
         <v>7.8997982048989908e-06</v>
       </c>
       <c r="AL4" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM4" s="0" t="s">
-        <v>282</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>219</v>
+        <v>434</v>
       </c>
       <c r="B5" s="0">
         <v>0.015244634920445414</v>
@@ -2306,7 +2974,7 @@
         <v>0.011298282614401965</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J5" s="0">
         <v>1.9464565719662517</v>
@@ -2354,7 +3022,7 @@
         <v>1.2455857851913883</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z5" s="0">
         <v>0.19409716996762993</v>
@@ -2366,7 +3034,7 @@
         <v>0.26685159185217477</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD5" s="0">
         <v>3</v>
@@ -2378,13 +3046,13 @@
         <v>0.55787113550382261</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH5" s="0">
         <v>0.64396511377323185</v>
       </c>
       <c r="AI5" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ5" s="0">
         <v>0.90194490715173004</v>
@@ -2393,15 +3061,15 @@
         <v>4.8135229979707e-07</v>
       </c>
       <c r="AL5" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM5" s="0" t="s">
-        <v>283</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>220</v>
+        <v>435</v>
       </c>
       <c r="B6" s="0">
         <v>0.028834442492891719</v>
@@ -2425,7 +3093,7 @@
         <v>0.026315988947830857</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J6" s="0">
         <v>3.1465549929804553</v>
@@ -2473,7 +3141,7 @@
         <v>2.9459688797948997</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z6" s="0">
         <v>0.070695158907469802</v>
@@ -2485,7 +3153,7 @@
         <v>0.088932699710174923</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD6" s="0">
         <v>3</v>
@@ -2497,13 +3165,13 @@
         <v>0.17824227591268782</v>
       </c>
       <c r="AG6" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH6" s="0">
         <v>0.91094625838472976</v>
       </c>
       <c r="AI6" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ6" s="0">
         <v>0.95680550539285802</v>
@@ -2512,15 +3180,15 @@
         <v>0.0010763180340127099</v>
       </c>
       <c r="AL6" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM6" s="0" t="s">
-        <v>284</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>221</v>
+        <v>436</v>
       </c>
       <c r="B7" s="0">
         <v>7.2055838167065824e-05</v>
@@ -2544,7 +3212,7 @@
         <v>0.0057769479083202924</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J7" s="0">
         <v>0.011182763193943401</v>
@@ -2592,7 +3260,7 @@
         <v>0.63334612960557957</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z7" s="0">
         <v>0.92914477232156467</v>
@@ -2604,7 +3272,7 @@
         <v>0.42786033636048815</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD7" s="0">
         <v>3</v>
@@ -2616,13 +3284,13 @@
         <v>1.4889271729678959</v>
       </c>
       <c r="AG7" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH7" s="0">
         <v>0.22160603565599871</v>
       </c>
       <c r="AI7" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ7" s="0">
         <v>0.93218747700904903</v>
@@ -2631,15 +3299,15 @@
         <v>2.2952027811535101e-05</v>
       </c>
       <c r="AL7" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM7" s="0" t="s">
-        <v>285</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>222</v>
+        <v>437</v>
       </c>
       <c r="B8" s="0">
         <v>0.013136001409787244</v>
@@ -2663,7 +3331,7 @@
         <v>0.0019208029667671413</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J8" s="0">
         <v>1.1742626215999081</v>
@@ -2711,7 +3379,7 @@
         <v>0.20977045108239756</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z8" s="0">
         <v>0.2303764348006625</v>
@@ -2723,7 +3391,7 @@
         <v>0.64785913697023134</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD8" s="0">
         <v>3</v>
@@ -2735,13 +3403,13 @@
         <v>0.25143387402080414</v>
       </c>
       <c r="AG8" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH8" s="0">
         <v>0.86016482554587215</v>
       </c>
       <c r="AI8" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ8" s="0">
         <v>0.95983211697258097</v>
@@ -2750,15 +3418,15 @@
         <v>0.0018298575214289799</v>
       </c>
       <c r="AL8" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM8" s="0" t="s">
-        <v>286</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>223</v>
+        <v>438</v>
       </c>
       <c r="B9" s="0">
         <v>1.5761936772121344e-05</v>
@@ -2782,7 +3450,7 @@
         <v>0.008320904521314159</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J9" s="0">
         <v>0.0019588739739759831</v>
@@ -2830,7 +3498,7 @@
         <v>0.91458879889511291</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z9" s="0">
         <v>0.9661858460007452</v>
@@ -2842,7 +3510,7 @@
         <v>0.34101608094699587</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD9" s="0">
         <v>3</v>
@@ -2854,13 +3522,13 @@
         <v>2.5097590276622457</v>
       </c>
       <c r="AG9" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH9" s="0">
         <v>0.062543479460110102</v>
       </c>
       <c r="AI9" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ9" s="0">
         <v>0.96310447988330605</v>
@@ -2869,15 +3537,15 @@
         <v>0.0033005585636656999</v>
       </c>
       <c r="AL9" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM9" s="0" t="s">
-        <v>287</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>224</v>
+        <v>439</v>
       </c>
       <c r="B10" s="0">
         <v>0.0012904014080928493</v>
@@ -2901,7 +3569,7 @@
         <v>0.0076942703551856929</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J10" s="0">
         <v>0.19287789719504644</v>
@@ -2949,7 +3617,7 @@
         <v>0.8451785005972261</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z10" s="0">
         <v>0.70700983619457136</v>
@@ -2961,7 +3629,7 @@
         <v>0.35994991325924885</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD10" s="0">
         <v>3</v>
@@ -2973,13 +3641,13 @@
         <v>0.84895739377956414</v>
       </c>
       <c r="AG10" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH10" s="0">
         <v>0.47006303849660869</v>
       </c>
       <c r="AI10" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ10" s="0">
         <v>0.980959776048559</v>
@@ -2988,15 +3656,15 @@
         <v>0.107672459503161</v>
       </c>
       <c r="AL10" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM10" s="0" t="s">
-        <v>288</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>225</v>
+        <v>440</v>
       </c>
       <c r="B11" s="0">
         <v>0.014698359567136835</v>
@@ -3020,7 +3688,7 @@
         <v>0.013139457018312758</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J11" s="0">
         <v>1.7008310832295166</v>
@@ -3068,7 +3736,7 @@
         <v>1.4512697109855648</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z11" s="0">
         <v>0.20088557401493301</v>
@@ -3080,7 +3748,7 @@
         <v>0.23093351248537952</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD11" s="0">
         <v>3</v>
@@ -3092,13 +3760,13 @@
         <v>0.2108932750992665</v>
       </c>
       <c r="AG11" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH11" s="0">
         <v>0.88866858735106269</v>
       </c>
       <c r="AI11" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ11" s="0">
         <v>0.97062006072241303</v>
@@ -3107,15 +3775,15 @@
         <v>0.013634077767710201</v>
       </c>
       <c r="AL11" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM11" s="0" t="s">
-        <v>289</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>226</v>
+        <v>441</v>
       </c>
       <c r="B12" s="0">
         <v>0.02466139397581112</v>
@@ -3139,7 +3807,7 @@
         <v>0.0056161373052029092</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J12" s="0">
         <v>578.57306284319202</v>
@@ -3187,7 +3855,7 @@
         <v>0.5591377878039222</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z12" s="0">
         <v>0.11482634185733764</v>
@@ -3199,7 +3867,7 @@
         <v>0.4563803821511746</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD12" s="0">
         <v>3</v>
@@ -3211,13 +3879,13 @@
         <v>1.9838068190703537</v>
       </c>
       <c r="AG12" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH12" s="0">
         <v>0.12131753810192968</v>
       </c>
       <c r="AI12" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ12" s="0">
         <v>0.92085422793843796</v>
@@ -3226,15 +3894,15 @@
         <v>1.19078727639087e-05</v>
       </c>
       <c r="AL12" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM12" s="0" t="s">
-        <v>290</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>227</v>
+        <v>442</v>
       </c>
       <c r="B13" s="0">
         <v>0.026368864333099869</v>
@@ -3258,7 +3926,7 @@
         <v>3.9679530285853861e-05</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J13" s="0">
         <v>546.08901111627711</v>
@@ -3306,7 +3974,7 @@
         <v>0.0039284293765319538</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z13" s="0">
         <v>0.10190170708908974</v>
@@ -3318,7 +3986,7 @@
         <v>0.95014993718728036</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD13" s="0">
         <v>3</v>
@@ -3330,13 +3998,13 @@
         <v>1.1353923740464031</v>
       </c>
       <c r="AG13" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH13" s="0">
         <v>0.33860446921620152</v>
       </c>
       <c r="AI13" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ13" s="0">
         <v>0.93641683939292097</v>
@@ -3345,15 +4013,15 @@
         <v>9.2282355125486996e-05</v>
       </c>
       <c r="AL13" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM13" s="0" t="s">
-        <v>291</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>228</v>
+        <v>443</v>
       </c>
       <c r="B14" s="0">
         <v>0.0075461885742364463</v>
@@ -3377,7 +4045,7 @@
         <v>0.0025463957527162438</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J14" s="0">
         <v>0.96767047270402884</v>
@@ -3425,7 +4093,7 @@
         <v>0.25273674729878509</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z14" s="0">
         <v>0.38659521432298238</v>
@@ -3437,7 +4105,7 @@
         <v>0.61627114055762422</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD14" s="0">
         <v>3</v>
@@ -3449,13 +4117,13 @@
         <v>2.0949528029783795</v>
       </c>
       <c r="AG14" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH14" s="0">
         <v>0.1057346953769269</v>
       </c>
       <c r="AI14" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ14" s="0">
         <v>0.91327771740573904</v>
@@ -3464,15 +4132,15 @@
         <v>4.7364062385547897e-06</v>
       </c>
       <c r="AL14" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM14" s="0" t="s">
-        <v>292</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>229</v>
+        <v>444</v>
       </c>
       <c r="B15" s="0">
         <v>0.00050125837197984155</v>
@@ -3496,7 +4164,7 @@
         <v>0.012547194561361684</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J15" s="0">
         <v>0.056248002556728238</v>
@@ -3544,7 +4212,7 @@
         <v>1.2579560812762276</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z15" s="0">
         <v>0.82297273171237695</v>
@@ -3556,7 +4224,7 @@
         <v>0.26475141617963727</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD15" s="0">
         <v>3</v>
@@ -3568,13 +4236,13 @@
         <v>0.91636498272173628</v>
       </c>
       <c r="AG15" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH15" s="0">
         <v>0.43595769740858703</v>
       </c>
       <c r="AI15" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ15" s="0">
         <v>0.86379505831866699</v>
@@ -3583,15 +4251,15 @@
         <v>2.7867072083884899e-08</v>
       </c>
       <c r="AL15" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM15" s="0" t="s">
-        <v>293</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>230</v>
+        <v>445</v>
       </c>
       <c r="B16" s="0">
         <v>0.0029292335809264561</v>
@@ -3615,7 +4283,7 @@
         <v>0.0075765748550400995</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J16" s="0">
         <v>0.25626369963620732</v>
@@ -3663,7 +4331,7 @@
         <v>0.75580734154819862</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z16" s="0">
         <v>0.58930042587843678</v>
@@ -3675,7 +4343,7 @@
         <v>0.38674667821293973</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD16" s="0">
         <v>3</v>
@@ -3687,13 +4355,13 @@
         <v>1.6670146345597945</v>
       </c>
       <c r="AG16" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH16" s="0">
         <v>0.17901925010835734</v>
       </c>
       <c r="AI16" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ16" s="0">
         <v>0.94684705912974199</v>
@@ -3702,15 +4370,15 @@
         <v>0.00041718016738610298</v>
       </c>
       <c r="AL16" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM16" s="0" t="s">
-        <v>294</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>231</v>
+        <v>446</v>
       </c>
       <c r="B17" s="0">
         <v>0.040170790295040809</v>
@@ -3734,7 +4402,7 @@
         <v>0.00034998504154533957</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J17" s="0">
         <v>5.5960738436619408</v>
@@ -3782,7 +4450,7 @@
         <v>0.034660649821956546</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z17" s="0">
         <v>0.044389540366926328</v>
@@ -3794,7 +4462,7 @@
         <v>0.85268948875938466</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD17" s="0">
         <v>3</v>
@@ -3806,13 +4474,13 @@
         <v>1.4429034561401652</v>
       </c>
       <c r="AG17" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH17" s="0">
         <v>0.23492088236274361</v>
       </c>
       <c r="AI17" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ17" s="0">
         <v>0.90181488648866304</v>
@@ -3821,15 +4489,15 @@
         <v>1.27111992208693e-06</v>
       </c>
       <c r="AL17" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM17" s="0" t="s">
-        <v>295</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>232</v>
+        <v>447</v>
       </c>
       <c r="B18" s="0">
         <v>0.034518365614793628</v>
@@ -3853,7 +4521,7 @@
         <v>0.0024953161518220051</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J18" s="0">
         <v>2.2798458881722254</v>
@@ -3901,7 +4569,7 @@
         <v>0.2476542747422105</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z18" s="0">
         <v>0.062086879916259718</v>
@@ -3913,7 +4581,7 @@
         <v>0.61983521291487542</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD18" s="0">
         <v>3</v>
@@ -3925,13 +4593,13 @@
         <v>1.3187308293257824</v>
       </c>
       <c r="AG18" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH18" s="0">
         <v>0.27261976448213177</v>
       </c>
       <c r="AI18" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ18" s="0">
         <v>0.952605431758899</v>
@@ -3940,15 +4608,15 @@
         <v>0.0010131367573992999</v>
       </c>
       <c r="AL18" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM18" s="0" t="s">
-        <v>296</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>233</v>
+        <v>448</v>
       </c>
       <c r="B19" s="0">
         <v>0.0096965752656145415</v>
@@ -3972,7 +4640,7 @@
         <v>0.00059404381442219542</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J19" s="0">
         <v>1.1476673494291134</v>
@@ -4020,7 +4688,7 @@
         <v>0.058845294310890577</v>
       </c>
       <c r="Y19" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z19" s="0">
         <v>0.32508295294888967</v>
@@ -4032,7 +4700,7 @@
         <v>0.80883224802289511</v>
       </c>
       <c r="AC19" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD19" s="0">
         <v>3</v>
@@ -4044,13 +4712,13 @@
         <v>1.1120575245156139</v>
       </c>
       <c r="AG19" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH19" s="0">
         <v>0.34797006339604752</v>
       </c>
       <c r="AI19" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ19" s="0">
         <v>0.95218458806022499</v>
@@ -4059,15 +4727,15 @@
         <v>0.00094819287738191098</v>
       </c>
       <c r="AL19" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM19" s="0" t="s">
-        <v>297</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>234</v>
+        <v>449</v>
       </c>
       <c r="B20" s="0">
         <v>0.026027351997389848</v>
@@ -4091,7 +4759,7 @@
         <v>0.0080853976684984348</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J20" s="0">
         <v>3.6460403410906679</v>
@@ -4139,7 +4807,7 @@
         <v>0.80697911624637042</v>
       </c>
       <c r="Y20" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z20" s="0">
         <v>0.10542598292179972</v>
@@ -4151,7 +4819,7 @@
         <v>0.37119449563352769</v>
       </c>
       <c r="AC20" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD20" s="0">
         <v>3</v>
@@ -4163,13 +4831,13 @@
         <v>0.81108729381363576</v>
       </c>
       <c r="AG20" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH20" s="0">
         <v>0.49068071322699824</v>
       </c>
       <c r="AI20" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ20" s="0">
         <v>0.97985841417018504</v>
@@ -4178,15 +4846,15 @@
         <v>0.11801353053818101</v>
       </c>
       <c r="AL20" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM20" s="0" t="s">
-        <v>298</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>235</v>
+        <v>450</v>
       </c>
       <c r="B21" s="0">
         <v>0.020413429902798458</v>
@@ -4210,7 +4878,7 @@
         <v>0.015460490560942973</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="J21" s="0">
         <v>1.8725853634620506</v>
@@ -4258,7 +4926,7 @@
         <v>1.5546238123093807</v>
       </c>
       <c r="Y21" s="0" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Z21" s="0">
         <v>0.14988570596378259</v>
@@ -4270,7 +4938,7 @@
         <v>0.21539601348702508</v>
       </c>
       <c r="AC21" s="0" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AD21" s="0">
         <v>3</v>
@@ -4282,13 +4950,13 @@
         <v>1.0329291219748102</v>
       </c>
       <c r="AG21" s="0" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AH21" s="0">
         <v>0.38147254937427111</v>
       </c>
       <c r="AI21" s="0" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="AJ21" s="0">
         <v>0.97088544445383995</v>
@@ -4297,10 +4965,10 @@
         <v>0.022553210064618599</v>
       </c>
       <c r="AL21" s="0" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="AM21" s="0" t="s">
-        <v>299</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -4349,99 +5017,99 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>300</v>
+        <v>515</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>321</v>
+        <v>536</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>322</v>
+        <v>537</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>324</v>
+        <v>539</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>326</v>
+        <v>541</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>328</v>
+        <v>543</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>329</v>
+        <v>544</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>330</v>
+        <v>545</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>331</v>
+        <v>546</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>332</v>
+        <v>547</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>333</v>
+        <v>548</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>334</v>
+        <v>549</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>335</v>
+        <v>550</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>336</v>
+        <v>551</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>337</v>
+        <v>552</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>338</v>
+        <v>553</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>339</v>
+        <v>554</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>340</v>
+        <v>555</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>341</v>
+        <v>556</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>342</v>
+        <v>557</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>343</v>
+        <v>558</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>344</v>
+        <v>559</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>345</v>
+        <v>560</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>346</v>
+        <v>561</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>347</v>
+        <v>562</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>348</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>301</v>
+        <v>516</v>
       </c>
       <c r="B2" s="0">
         <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F2" s="0">
         <v>-0.034804080945982502</v>
@@ -4509,19 +5177,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>302</v>
+        <v>517</v>
       </c>
       <c r="B3" s="0">
         <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F3" s="0">
         <v>0.32499176882639302</v>
@@ -4589,19 +5257,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>303</v>
+        <v>518</v>
       </c>
       <c r="B4" s="0">
         <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F4" s="0">
         <v>0.099081146654304897</v>
@@ -4669,19 +5337,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>304</v>
+        <v>519</v>
       </c>
       <c r="B5" s="0">
         <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F5" s="0">
         <v>0.39344089323775899</v>
@@ -4749,19 +5417,19 @@
     </row>
     <row r="6" s="1" customFormat="true">
       <c r="A6" s="1" t="s">
-        <v>305</v>
+        <v>520</v>
       </c>
       <c r="B6" s="1">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F6" s="1">
         <v>0.44554644895824003</v>
@@ -4829,19 +5497,19 @@
     </row>
     <row r="7" s="1" customFormat="true">
       <c r="A7" s="1" t="s">
-        <v>306</v>
+        <v>521</v>
       </c>
       <c r="B7" s="1">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F7" s="1">
         <v>0.093410516872588806</v>
@@ -4909,19 +5577,19 @@
     </row>
     <row r="8" s="1" customFormat="true">
       <c r="A8" s="1" t="s">
-        <v>307</v>
+        <v>522</v>
       </c>
       <c r="B8" s="1">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F8" s="1">
         <v>0.32048281106209803</v>
@@ -4989,19 +5657,19 @@
     </row>
     <row r="9" s="2" customFormat="true">
       <c r="A9" s="2" t="s">
-        <v>308</v>
+        <v>523</v>
       </c>
       <c r="B9" s="2">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F9" s="2">
         <v>0.092134604786548599</v>
@@ -5069,19 +5737,19 @@
     </row>
     <row r="10" s="1" customFormat="true">
       <c r="A10" s="1" t="s">
-        <v>309</v>
+        <v>524</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F10" s="1">
         <v>-0.0469639577081934</v>
@@ -5149,19 +5817,19 @@
     </row>
     <row r="11" s="1" customFormat="true">
       <c r="A11" s="1" t="s">
-        <v>310</v>
+        <v>525</v>
       </c>
       <c r="B11" s="1">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F11" s="1">
         <v>0.34032888453993398</v>
@@ -5229,19 +5897,19 @@
     </row>
     <row r="12" s="3" customFormat="true">
       <c r="A12" s="3" t="s">
-        <v>311</v>
+        <v>526</v>
       </c>
       <c r="B12" s="3">
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F12" s="3">
         <v>0.44173546981448902</v>
@@ -5309,19 +5977,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>312</v>
+        <v>527</v>
       </c>
       <c r="B13" s="0">
         <v>23</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F13" s="0">
         <v>0.40955113183026298</v>
@@ -5389,19 +6057,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>313</v>
+        <v>528</v>
       </c>
       <c r="B14" s="0">
         <v>23</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F14" s="0">
         <v>0.17800098241609499</v>
@@ -5469,19 +6137,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>314</v>
+        <v>529</v>
       </c>
       <c r="B15" s="0">
         <v>23</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F15" s="0">
         <v>0.037127358330545701</v>
@@ -5549,19 +6217,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>315</v>
+        <v>530</v>
       </c>
       <c r="B16" s="0">
         <v>23</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F16" s="0">
         <v>0.118987901368421</v>
@@ -5629,19 +6297,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>316</v>
+        <v>531</v>
       </c>
       <c r="B17" s="0">
         <v>23</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F17" s="0">
         <v>0.51716615709190905</v>
@@ -5709,19 +6377,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>317</v>
+        <v>532</v>
       </c>
       <c r="B18" s="0">
         <v>23</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F18" s="0">
         <v>0.42541170958839802</v>
@@ -5789,19 +6457,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>318</v>
+        <v>533</v>
       </c>
       <c r="B19" s="0">
         <v>23</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F19" s="0">
         <v>0.22118011424075901</v>
@@ -5869,19 +6537,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>319</v>
+        <v>534</v>
       </c>
       <c r="B20" s="0">
         <v>23</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F20" s="0">
         <v>0.37415513521029897</v>
@@ -5949,19 +6617,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>320</v>
+        <v>535</v>
       </c>
       <c r="B21" s="0">
         <v>23</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>323</v>
+        <v>538</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="F21" s="0">
         <v>0.28346201271342097</v>
@@ -6091,126 +6759,126 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>349</v>
+        <v>564</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>377</v>
+        <v>592</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>378</v>
+        <v>593</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>379</v>
+        <v>594</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>380</v>
+        <v>595</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>381</v>
+        <v>596</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>382</v>
+        <v>597</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>383</v>
+        <v>598</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>384</v>
+        <v>599</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>385</v>
+        <v>600</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>386</v>
+        <v>601</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>387</v>
+        <v>602</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>388</v>
+        <v>603</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>389</v>
+        <v>604</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>390</v>
+        <v>605</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>391</v>
+        <v>606</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>392</v>
+        <v>607</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>393</v>
+        <v>608</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>394</v>
+        <v>609</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>395</v>
+        <v>610</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>396</v>
+        <v>611</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>397</v>
+        <v>612</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>398</v>
+        <v>613</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>399</v>
+        <v>614</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>400</v>
+        <v>615</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>401</v>
+        <v>616</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>402</v>
+        <v>617</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>403</v>
+        <v>618</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>404</v>
+        <v>619</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>405</v>
+        <v>620</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>406</v>
+        <v>621</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>407</v>
+        <v>622</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>408</v>
+        <v>623</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>409</v>
+        <v>624</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>410</v>
+        <v>625</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>412</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" s="0" t="s">
-        <v>350</v>
+        <v>565</v>
       </c>
       <c r="B2" s="0">
         <v>0.29634300126103597</v>
@@ -6321,15 +6989,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL2" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM2" s="0" t="s">
-        <v>413</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" s="0" t="s">
-        <v>351</v>
+        <v>566</v>
       </c>
       <c r="B3" s="0">
         <v>-4.8155737704918096</v>
@@ -6440,15 +7108,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL3" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM3" s="0" t="s">
-        <v>414</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" s="0" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="B4" s="0">
         <v>-3.9801387137452764</v>
@@ -6559,15 +7227,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL4" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM4" s="0" t="s">
-        <v>414</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" s="0" t="s">
-        <v>353</v>
+        <v>568</v>
       </c>
       <c r="B5" s="0">
         <v>-4.5439760603695021</v>
@@ -6678,15 +7346,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL5" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM5" s="0" t="s">
-        <v>414</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" s="0" t="s">
-        <v>354</v>
+        <v>569</v>
       </c>
       <c r="B6" s="0">
         <v>-0.0025220680958386588</v>
@@ -6797,15 +7465,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL6" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM6" s="0" t="s">
-        <v>415</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" s="0" t="s">
-        <v>355</v>
+        <v>570</v>
       </c>
       <c r="B7" s="0">
         <v>-0.19711163153786115</v>
@@ -6916,15 +7584,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL7" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM7" s="0" t="s">
-        <v>416</v>
+        <v>631</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" s="0" t="s">
-        <v>356</v>
+        <v>571</v>
       </c>
       <c r="B8" s="0">
         <v>-0.25788146279949586</v>
@@ -7035,15 +7703,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL8" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM8" s="0" t="s">
-        <v>416</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" s="0" t="s">
-        <v>357</v>
+        <v>572</v>
       </c>
       <c r="B9" s="0">
         <v>-0.053473848555815273</v>
@@ -7154,15 +7822,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL9" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM9" s="0" t="s">
-        <v>417</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" s="0" t="s">
-        <v>358</v>
+        <v>573</v>
       </c>
       <c r="B10" s="0">
         <v>-0.32813156788566622</v>
@@ -7273,15 +7941,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL10" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM10" s="0" t="s">
-        <v>418</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" s="0" t="s">
-        <v>359</v>
+        <v>574</v>
       </c>
       <c r="B11" s="0">
         <v>-0.10883424408014575</v>
@@ -7392,15 +8060,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL11" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM11" s="0" t="s">
-        <v>419</v>
+        <v>634</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" s="0" t="s">
-        <v>360</v>
+        <v>575</v>
       </c>
       <c r="B12" s="0">
         <v>-0.02033417402269877</v>
@@ -7511,15 +8179,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL12" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM12" s="0" t="s">
-        <v>419</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" s="0" t="s">
-        <v>361</v>
+        <v>576</v>
       </c>
       <c r="B13" s="0">
         <v>-0.47462919594067121</v>
@@ -7630,15 +8298,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL13" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM13" s="0" t="s">
-        <v>420</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" s="0" t="s">
-        <v>362</v>
+        <v>577</v>
       </c>
       <c r="B14" s="0">
         <v>-0.20610025220680939</v>
@@ -7749,15 +8417,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL14" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM14" s="0" t="s">
-        <v>421</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" s="0" t="s">
-        <v>363</v>
+        <v>578</v>
       </c>
       <c r="B15" s="0">
         <v>-0.3019125683060111</v>
@@ -7868,15 +8536,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL15" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM15" s="0" t="s">
-        <v>421</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" s="0" t="s">
-        <v>364</v>
+        <v>579</v>
       </c>
       <c r="B16" s="0">
         <v>-0.0018127364438840221</v>
@@ -7987,15 +8655,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL16" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM16" s="0" t="s">
-        <v>422</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" s="0" t="s">
-        <v>365</v>
+        <v>580</v>
       </c>
       <c r="B17" s="0">
         <v>-0.20491803278688514</v>
@@ -8106,15 +8774,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL17" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM17" s="0" t="s">
-        <v>422</v>
+        <v>637</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" s="0" t="s">
-        <v>366</v>
+        <v>581</v>
       </c>
       <c r="B18" s="0">
         <v>0.088587641866330391</v>
@@ -8225,15 +8893,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL18" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM18" s="0" t="s">
-        <v>422</v>
+        <v>637</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" s="0" t="s">
-        <v>367</v>
+        <v>582</v>
       </c>
       <c r="B19" s="0">
         <v>-0.38895394223263069</v>
@@ -8344,15 +9012,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL19" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM19" s="0" t="s">
-        <v>423</v>
+        <v>638</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" s="0" t="s">
-        <v>368</v>
+        <v>583</v>
       </c>
       <c r="B20" s="0">
         <v>-0.24377364438839844</v>
@@ -8463,15 +9131,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL20" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM20" s="0" t="s">
-        <v>424</v>
+        <v>639</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" s="0" t="s">
-        <v>369</v>
+        <v>584</v>
       </c>
       <c r="B21" s="0">
         <v>-0.2775175644028105</v>
@@ -8582,15 +9250,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL21" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM21" s="0" t="s">
-        <v>425</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>370</v>
+        <v>585</v>
       </c>
       <c r="B22" s="0">
         <v>1.0412988650693566</v>
@@ -8701,15 +9369,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL22" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM22" s="0" t="s">
-        <v>426</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>371</v>
+        <v>586</v>
       </c>
       <c r="B23" s="0">
         <v>-0.055035128805620559</v>
@@ -8820,15 +9488,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL23" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM23" s="0" t="s">
-        <v>427</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" s="0" t="s">
-        <v>372</v>
+        <v>587</v>
       </c>
       <c r="B24" s="0">
         <v>0.89092055485498101</v>
@@ -8939,15 +9607,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL24" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM24" s="0" t="s">
-        <v>428</v>
+        <v>643</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" s="0" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
       <c r="B25" s="0">
         <v>-0.18579234972677594</v>
@@ -9058,10 +9726,10 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL25" s="0" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="AM25" s="0" t="s">
-        <v>429</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/data/results/00_inferentialResults.xlsx
+++ b/data/results/00_inferentialResults.xlsx
@@ -25,7 +25,669 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="860">
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>SUS 12</t>
+  </si>
+  <si>
+    <t>UMUX 12</t>
+  </si>
+  <si>
+    <t>Trust 12</t>
+  </si>
+  <si>
+    <t>Acceptance 12</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness 12</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity 12</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency 12</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability 12</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty 12</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation 12</t>
+  </si>
+  <si>
+    <t>SUS 23</t>
+  </si>
+  <si>
+    <t>UMUX 23</t>
+  </si>
+  <si>
+    <t>Trust 23</t>
+  </si>
+  <si>
+    <t>Acceptance 23</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness 23</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity 23</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency 23</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability 23</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty 23</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation 23</t>
+  </si>
+  <si>
+    <t>eta_sq_Exp</t>
+  </si>
+  <si>
+    <t>eta_sq_HMI</t>
+  </si>
+  <si>
+    <t>eta_sq_Interaction</t>
+  </si>
+  <si>
+    <t>eta_sq_Residuals</t>
+  </si>
+  <si>
+    <t>eta_sq_part_Exp</t>
+  </si>
+  <si>
+    <t>eta_sq_part_HMI</t>
+  </si>
+  <si>
+    <t>eta_sq_part_Interaction</t>
+  </si>
+  <si>
+    <t>eta_sq_part_Residuals</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>SumSq_Exp</t>
+  </si>
+  <si>
+    <t>SumSq_HMI</t>
+  </si>
+  <si>
+    <t>SumSq_Interaction</t>
+  </si>
+  <si>
+    <t>SumSq_Residuals</t>
+  </si>
+  <si>
+    <t>Df_Exp</t>
+  </si>
+  <si>
+    <t>Df_HMI</t>
+  </si>
+  <si>
+    <t>Df_Interaction</t>
+  </si>
+  <si>
+    <t>Df_Residuals</t>
+  </si>
+  <si>
+    <t>MeanSq_Exp</t>
+  </si>
+  <si>
+    <t>MeanSq_HMI</t>
+  </si>
+  <si>
+    <t>MeanSq_Interaction</t>
+  </si>
+  <si>
+    <t>MeanSq_Residuals</t>
+  </si>
+  <si>
+    <t>F_Exp</t>
+  </si>
+  <si>
+    <t>F_HMI</t>
+  </si>
+  <si>
+    <t>F_Interaction</t>
+  </si>
+  <si>
+    <t>F_Residuals</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>p_Exp</t>
+  </si>
+  <si>
+    <t>p_HMI</t>
+  </si>
+  <si>
+    <t>p_Interaction</t>
+  </si>
+  <si>
+    <t>p_Residuals</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>lev_Df_group</t>
+  </si>
+  <si>
+    <t>lev_Df</t>
+  </si>
+  <si>
+    <t>lev_F</t>
+  </si>
+  <si>
+    <t>lev_x1</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>lev_p</t>
+  </si>
+  <si>
+    <t>lev_x2</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>shap_W</t>
+  </si>
+  <si>
+    <t>shap_p</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>Shapiro-Wilk normality test</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>anova_SUS_res</t>
+  </si>
+  <si>
+    <t>anova_UMUX_res</t>
+  </si>
+  <si>
+    <t>anova_Trust_res</t>
+  </si>
+  <si>
+    <t>anova_Acceptance_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Attractiveness_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Perspicuity_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Efficiency_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Dependability_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Novelty_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Stimulation_res</t>
+  </si>
+  <si>
+    <t>anova_SUS_res</t>
+  </si>
+  <si>
+    <t>anova_UMUX_res</t>
+  </si>
+  <si>
+    <t>anova_Trust_res</t>
+  </si>
+  <si>
+    <t>anova_Acceptance_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Attractiveness_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Perspicuity_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Efficiency_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Dependability_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Novelty_res</t>
+  </si>
+  <si>
+    <t>anova_UEQ_Stimulation_res</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>SUS_score</t>
+  </si>
+  <si>
+    <t>UMUX_score</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Acceptance</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation</t>
+  </si>
+  <si>
+    <t>SUS_score</t>
+  </si>
+  <si>
+    <t>UMUX_score</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Acceptance</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>factor_1</t>
+  </si>
+  <si>
+    <t>Exp.L</t>
+  </si>
+  <si>
+    <t>factor_2</t>
+  </si>
+  <si>
+    <t>HMI.L</t>
+  </si>
+  <si>
+    <t>factor_3</t>
+  </si>
+  <si>
+    <t>Exp.L:HMI.L</t>
+  </si>
+  <si>
+    <t>est_1</t>
+  </si>
+  <si>
+    <t>est_2</t>
+  </si>
+  <si>
+    <t>est_3</t>
+  </si>
+  <si>
+    <t>sterr_1</t>
+  </si>
+  <si>
+    <t>sterr_2</t>
+  </si>
+  <si>
+    <t>sterr_3</t>
+  </si>
+  <si>
+    <t>z_1</t>
+  </si>
+  <si>
+    <t>z_2</t>
+  </si>
+  <si>
+    <t>z_3</t>
+  </si>
+  <si>
+    <t>p_1</t>
+  </si>
+  <si>
+    <t>p_2</t>
+  </si>
+  <si>
+    <t>p_3</t>
+  </si>
+  <si>
+    <t>aov_df_1</t>
+  </si>
+  <si>
+    <t>aov_df_2</t>
+  </si>
+  <si>
+    <t>aov_df_3</t>
+  </si>
+  <si>
+    <t>aov_ChiSq_1</t>
+  </si>
+  <si>
+    <t>aov_ChiSq_2</t>
+  </si>
+  <si>
+    <t>aov_ChiSq_3</t>
+  </si>
+  <si>
+    <t>aov_p_1</t>
+  </si>
+  <si>
+    <t>aov_p_2</t>
+  </si>
+  <si>
+    <t>aov_p_3</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>SUS_12</t>
+  </si>
+  <si>
+    <t>SUS_23</t>
+  </si>
+  <si>
+    <t>UMUX_12</t>
+  </si>
+  <si>
+    <t>UMUX_23</t>
+  </si>
+  <si>
+    <t>Trust_12</t>
+  </si>
+  <si>
+    <t>Trust_23</t>
+  </si>
+  <si>
+    <t>Acceptance_12</t>
+  </si>
+  <si>
+    <t>Acceptance_23</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_12</t>
+  </si>
+  <si>
+    <t>UEQ_Attractiveness_23</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_12</t>
+  </si>
+  <si>
+    <t>UEQ_Perspicuity_23</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_12</t>
+  </si>
+  <si>
+    <t>UEQ_Efficiency_23</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_12</t>
+  </si>
+  <si>
+    <t>UEQ_Dependability_23</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_12</t>
+  </si>
+  <si>
+    <t>UEQ_Novelty_23</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_12</t>
+  </si>
+  <si>
+    <t>UEQ_Stimulation_23</t>
+  </si>
+  <si>
+    <t>Uebel_12</t>
+  </si>
+  <si>
+    <t>Uebel_23</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_12</t>
+  </si>
+  <si>
+    <t>AnstrengendWenden_23</t>
+  </si>
+  <si>
+    <t>diff_means</t>
+  </si>
+  <si>
+    <t>TOST_t1</t>
+  </si>
+  <si>
+    <t>TOST_p1</t>
+  </si>
+  <si>
+    <t>TOST_t2</t>
+  </si>
+  <si>
+    <t>TOST_p2</t>
+  </si>
+  <si>
+    <t>TOST_df</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>low_eqbound</t>
+  </si>
+  <si>
+    <t>high_eqbound</t>
+  </si>
+  <si>
+    <t>low_eqbound_d</t>
+  </si>
+  <si>
+    <t>high_eqbound_d</t>
+  </si>
+  <si>
+    <t>LL_CI_TOST</t>
+  </si>
+  <si>
+    <t>UL_CI_TOST</t>
+  </si>
+  <si>
+    <t>LL_CI_TTest</t>
+  </si>
+  <si>
+    <t>UL_CI_TTest</t>
+  </si>
+  <si>
+    <t>NHST_t</t>
+  </si>
+  <si>
+    <t>NHST_p</t>
+  </si>
+  <si>
+    <t>lev_Df_group</t>
+  </si>
+  <si>
+    <t>lev_Df</t>
+  </si>
+  <si>
+    <t>lev_F</t>
+  </si>
+  <si>
+    <t>lev_p</t>
+  </si>
+  <si>
+    <t>shap_Exp1</t>
+  </si>
+  <si>
+    <t>shap_Exp2</t>
+  </si>
+  <si>
+    <t>shap_W1</t>
+  </si>
+  <si>
+    <t>shap_W2</t>
+  </si>
+  <si>
+    <t>shap_p1</t>
+  </si>
+  <si>
+    <t>shap_p2</t>
+  </si>
+  <si>
+    <t>wTOST_W_NHST</t>
+  </si>
+  <si>
+    <t>wTOST_W_TOSTlow</t>
+  </si>
+  <si>
+    <t>wTOST_W_TOSTupp</t>
+  </si>
+  <si>
+    <t>wTOST_p_NHST</t>
+  </si>
+  <si>
+    <t>wTOST_p_TOSTlow</t>
+  </si>
+  <si>
+    <t>wTOST_p_TOSTupp</t>
+  </si>
+  <si>
+    <t>wTOST_low_eqbound</t>
+  </si>
+  <si>
+    <t>wTOST_high_eqbound</t>
+  </si>
+  <si>
+    <t>wTOST_alpha</t>
+  </si>
+  <si>
+    <t>wTOST_test</t>
+  </si>
+  <si>
+    <t>Wilcoxon rank sum test with continuity correction</t>
+  </si>
+  <si>
+    <t>wTOST_decision_combined</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
   <si>
     <t>Test</t>
   </si>
@@ -2049,7 +2711,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2063,11 +2725,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -2078,6 +2743,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2474,126 +3142,126 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>430</v>
+        <v>645</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>451</v>
+        <v>666</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>452</v>
+        <v>667</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>453</v>
+        <v>668</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>454</v>
+        <v>669</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>455</v>
+        <v>670</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>456</v>
+        <v>671</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>457</v>
+        <v>672</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>458</v>
+        <v>673</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>460</v>
+        <v>675</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>461</v>
+        <v>676</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>462</v>
+        <v>677</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>463</v>
+        <v>678</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>464</v>
+        <v>679</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>465</v>
+        <v>680</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>466</v>
+        <v>681</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>467</v>
+        <v>682</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>468</v>
+        <v>683</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>469</v>
+        <v>684</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>470</v>
+        <v>685</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>471</v>
+        <v>686</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>472</v>
+        <v>687</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>473</v>
+        <v>688</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>474</v>
+        <v>689</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>475</v>
+        <v>690</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>477</v>
+        <v>692</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>478</v>
+        <v>693</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>479</v>
+        <v>694</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>480</v>
+        <v>695</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>482</v>
+        <v>697</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>483</v>
+        <v>698</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>484</v>
+        <v>699</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>485</v>
+        <v>700</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>487</v>
+        <v>702</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>488</v>
+        <v>703</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>490</v>
+        <v>705</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>491</v>
+        <v>706</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>492</v>
+        <v>707</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>494</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>431</v>
+        <v>646</v>
       </c>
       <c r="B2" s="0">
         <v>0.00011157034591140212</v>
@@ -2617,7 +3285,7 @@
         <v>0.0048554135592594541</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J2" s="0">
         <v>2.6946953745136852</v>
@@ -2665,7 +3333,7 @@
         <v>0.53182229514223056</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z2" s="0">
         <v>0.91192116634329889</v>
@@ -2677,7 +3345,7 @@
         <v>0.46740588489031609</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD2" s="0">
         <v>3</v>
@@ -2689,13 +3357,13 @@
         <v>0.5796264091078871</v>
       </c>
       <c r="AG2" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH2" s="0">
         <v>0.62961609168530352</v>
       </c>
       <c r="AI2" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ2" s="0">
         <v>0.946535282167002</v>
@@ -2704,15 +3372,15 @@
         <v>0.0001965462730739</v>
       </c>
       <c r="AL2" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM2" s="0" t="s">
-        <v>495</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>432</v>
+        <v>647</v>
       </c>
       <c r="B3" s="0">
         <v>0.01481831485328826</v>
@@ -2736,7 +3404,7 @@
         <v>0.038811156064839557</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J3" s="0">
         <v>410.94141280239637</v>
@@ -2784,7 +3452,7 @@
         <v>4.4012329499663707</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z3" s="0">
         <v>0.17481826441074078</v>
@@ -2796,7 +3464,7 @@
         <v>0.038224229967684265</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD3" s="0">
         <v>3</v>
@@ -2808,13 +3476,13 @@
         <v>2.5587922157241612</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH3" s="0">
         <v>0.058809086203984742</v>
       </c>
       <c r="AI3" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ3" s="0">
         <v>0.96382179475058305</v>
@@ -2823,15 +3491,15 @@
         <v>0.0037646415396773302</v>
       </c>
       <c r="AL3" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM3" s="0" t="s">
-        <v>496</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>433</v>
+        <v>648</v>
       </c>
       <c r="B4" s="0">
         <v>9.8470155370701215e-07</v>
@@ -2855,7 +3523,7 @@
         <v>0.0077334412165641223</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J4" s="0">
         <v>0.00012611151225883077</v>
@@ -2903,7 +3571,7 @@
         <v>0.84951476510402457</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z4" s="0">
         <v>0.99169021624493137</v>
@@ -2915,7 +3583,7 @@
         <v>0.35872521012487424</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD4" s="0">
         <v>3</v>
@@ -2927,13 +3595,13 @@
         <v>1.7657021562186146</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH4" s="0">
         <v>0.15799763458190394</v>
       </c>
       <c r="AI4" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ4" s="0">
         <v>0.92443689212344304</v>
@@ -2942,15 +3610,15 @@
         <v>7.8997982048989908e-06</v>
       </c>
       <c r="AL4" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM4" s="0" t="s">
-        <v>497</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>434</v>
+        <v>649</v>
       </c>
       <c r="B5" s="0">
         <v>0.015244634920445414</v>
@@ -2974,7 +3642,7 @@
         <v>0.011298282614401965</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J5" s="0">
         <v>1.9464565719662517</v>
@@ -3022,7 +3690,7 @@
         <v>1.2455857851913883</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z5" s="0">
         <v>0.19409716996762993</v>
@@ -3034,7 +3702,7 @@
         <v>0.26685159185217477</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD5" s="0">
         <v>3</v>
@@ -3046,13 +3714,13 @@
         <v>0.55787113550382261</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH5" s="0">
         <v>0.64396511377323185</v>
       </c>
       <c r="AI5" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ5" s="0">
         <v>0.90194490715173004</v>
@@ -3061,15 +3729,15 @@
         <v>4.8135229979707e-07</v>
       </c>
       <c r="AL5" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM5" s="0" t="s">
-        <v>498</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>435</v>
+        <v>650</v>
       </c>
       <c r="B6" s="0">
         <v>0.028834442492891719</v>
@@ -3093,7 +3761,7 @@
         <v>0.026315988947830857</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J6" s="0">
         <v>3.1465549929804553</v>
@@ -3141,7 +3809,7 @@
         <v>2.9459688797948997</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z6" s="0">
         <v>0.070695158907469802</v>
@@ -3153,7 +3821,7 @@
         <v>0.088932699710174923</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD6" s="0">
         <v>3</v>
@@ -3165,13 +3833,13 @@
         <v>0.17824227591268782</v>
       </c>
       <c r="AG6" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH6" s="0">
         <v>0.91094625838472976</v>
       </c>
       <c r="AI6" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ6" s="0">
         <v>0.95680550539285802</v>
@@ -3180,15 +3848,15 @@
         <v>0.0010763180340127099</v>
       </c>
       <c r="AL6" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM6" s="0" t="s">
-        <v>499</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>436</v>
+        <v>651</v>
       </c>
       <c r="B7" s="0">
         <v>7.2055838167065824e-05</v>
@@ -3212,7 +3880,7 @@
         <v>0.0057769479083202924</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J7" s="0">
         <v>0.011182763193943401</v>
@@ -3260,7 +3928,7 @@
         <v>0.63334612960557957</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z7" s="0">
         <v>0.92914477232156467</v>
@@ -3272,7 +3940,7 @@
         <v>0.42786033636048815</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD7" s="0">
         <v>3</v>
@@ -3284,13 +3952,13 @@
         <v>1.4889271729678959</v>
       </c>
       <c r="AG7" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH7" s="0">
         <v>0.22160603565599871</v>
       </c>
       <c r="AI7" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ7" s="0">
         <v>0.93218747700904903</v>
@@ -3299,15 +3967,15 @@
         <v>2.2952027811535101e-05</v>
       </c>
       <c r="AL7" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM7" s="0" t="s">
-        <v>500</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>437</v>
+        <v>652</v>
       </c>
       <c r="B8" s="0">
         <v>0.013136001409787244</v>
@@ -3331,7 +3999,7 @@
         <v>0.0019208029667671413</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J8" s="0">
         <v>1.1742626215999081</v>
@@ -3379,7 +4047,7 @@
         <v>0.20977045108239756</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z8" s="0">
         <v>0.2303764348006625</v>
@@ -3391,7 +4059,7 @@
         <v>0.64785913697023134</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD8" s="0">
         <v>3</v>
@@ -3403,13 +4071,13 @@
         <v>0.25143387402080414</v>
       </c>
       <c r="AG8" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH8" s="0">
         <v>0.86016482554587215</v>
       </c>
       <c r="AI8" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ8" s="0">
         <v>0.95983211697258097</v>
@@ -3418,15 +4086,15 @@
         <v>0.0018298575214289799</v>
       </c>
       <c r="AL8" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM8" s="0" t="s">
-        <v>501</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>438</v>
+        <v>653</v>
       </c>
       <c r="B9" s="0">
         <v>1.5761936772121344e-05</v>
@@ -3450,7 +4118,7 @@
         <v>0.008320904521314159</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J9" s="0">
         <v>0.0019588739739759831</v>
@@ -3498,7 +4166,7 @@
         <v>0.91458879889511291</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z9" s="0">
         <v>0.9661858460007452</v>
@@ -3510,7 +4178,7 @@
         <v>0.34101608094699587</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD9" s="0">
         <v>3</v>
@@ -3522,13 +4190,13 @@
         <v>2.5097590276622457</v>
       </c>
       <c r="AG9" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH9" s="0">
         <v>0.062543479460110102</v>
       </c>
       <c r="AI9" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ9" s="0">
         <v>0.96310447988330605</v>
@@ -3537,15 +4205,15 @@
         <v>0.0033005585636656999</v>
       </c>
       <c r="AL9" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM9" s="0" t="s">
-        <v>502</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>439</v>
+        <v>654</v>
       </c>
       <c r="B10" s="0">
         <v>0.0012904014080928493</v>
@@ -3569,7 +4237,7 @@
         <v>0.0076942703551856929</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J10" s="0">
         <v>0.19287789719504644</v>
@@ -3617,7 +4285,7 @@
         <v>0.8451785005972261</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z10" s="0">
         <v>0.70700983619457136</v>
@@ -3629,7 +4297,7 @@
         <v>0.35994991325924885</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD10" s="0">
         <v>3</v>
@@ -3641,13 +4309,13 @@
         <v>0.84895739377956414</v>
       </c>
       <c r="AG10" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH10" s="0">
         <v>0.47006303849660869</v>
       </c>
       <c r="AI10" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ10" s="0">
         <v>0.980959776048559</v>
@@ -3656,15 +4324,15 @@
         <v>0.107672459503161</v>
       </c>
       <c r="AL10" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM10" s="0" t="s">
-        <v>503</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>440</v>
+        <v>655</v>
       </c>
       <c r="B11" s="0">
         <v>0.014698359567136835</v>
@@ -3688,7 +4356,7 @@
         <v>0.013139457018312758</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J11" s="0">
         <v>1.7008310832295166</v>
@@ -3736,7 +4404,7 @@
         <v>1.4512697109855648</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z11" s="0">
         <v>0.20088557401493301</v>
@@ -3748,7 +4416,7 @@
         <v>0.23093351248537952</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD11" s="0">
         <v>3</v>
@@ -3760,13 +4428,13 @@
         <v>0.2108932750992665</v>
       </c>
       <c r="AG11" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH11" s="0">
         <v>0.88866858735106269</v>
       </c>
       <c r="AI11" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ11" s="0">
         <v>0.97062006072241303</v>
@@ -3775,15 +4443,15 @@
         <v>0.013634077767710201</v>
       </c>
       <c r="AL11" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM11" s="0" t="s">
-        <v>504</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>441</v>
+        <v>656</v>
       </c>
       <c r="B12" s="0">
         <v>0.02466139397581112</v>
@@ -3807,7 +4475,7 @@
         <v>0.0056161373052029092</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J12" s="0">
         <v>578.57306284319202</v>
@@ -3855,7 +4523,7 @@
         <v>0.5591377878039222</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z12" s="0">
         <v>0.11482634185733764</v>
@@ -3867,7 +4535,7 @@
         <v>0.4563803821511746</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD12" s="0">
         <v>3</v>
@@ -3879,13 +4547,13 @@
         <v>1.9838068190703537</v>
       </c>
       <c r="AG12" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH12" s="0">
         <v>0.12131753810192968</v>
       </c>
       <c r="AI12" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ12" s="0">
         <v>0.92085422793843796</v>
@@ -3894,15 +4562,15 @@
         <v>1.19078727639087e-05</v>
       </c>
       <c r="AL12" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM12" s="0" t="s">
-        <v>505</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>442</v>
+        <v>657</v>
       </c>
       <c r="B13" s="0">
         <v>0.026368864333099869</v>
@@ -3926,7 +4594,7 @@
         <v>3.9679530285853861e-05</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J13" s="0">
         <v>546.08901111627711</v>
@@ -3974,7 +4642,7 @@
         <v>0.0039284293765319538</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z13" s="0">
         <v>0.10190170708908974</v>
@@ -3986,7 +4654,7 @@
         <v>0.95014993718728036</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD13" s="0">
         <v>3</v>
@@ -3998,13 +4666,13 @@
         <v>1.1353923740464031</v>
       </c>
       <c r="AG13" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH13" s="0">
         <v>0.33860446921620152</v>
       </c>
       <c r="AI13" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ13" s="0">
         <v>0.93641683939292097</v>
@@ -4013,15 +4681,15 @@
         <v>9.2282355125486996e-05</v>
       </c>
       <c r="AL13" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM13" s="0" t="s">
-        <v>506</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>443</v>
+        <v>658</v>
       </c>
       <c r="B14" s="0">
         <v>0.0075461885742364463</v>
@@ -4045,7 +4713,7 @@
         <v>0.0025463957527162438</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J14" s="0">
         <v>0.96767047270402884</v>
@@ -4093,7 +4761,7 @@
         <v>0.25273674729878509</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z14" s="0">
         <v>0.38659521432298238</v>
@@ -4105,7 +4773,7 @@
         <v>0.61627114055762422</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD14" s="0">
         <v>3</v>
@@ -4117,13 +4785,13 @@
         <v>2.0949528029783795</v>
       </c>
       <c r="AG14" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH14" s="0">
         <v>0.1057346953769269</v>
       </c>
       <c r="AI14" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ14" s="0">
         <v>0.91327771740573904</v>
@@ -4132,15 +4800,15 @@
         <v>4.7364062385547897e-06</v>
       </c>
       <c r="AL14" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM14" s="0" t="s">
-        <v>507</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>444</v>
+        <v>659</v>
       </c>
       <c r="B15" s="0">
         <v>0.00050125837197984155</v>
@@ -4164,7 +4832,7 @@
         <v>0.012547194561361684</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J15" s="0">
         <v>0.056248002556728238</v>
@@ -4212,7 +4880,7 @@
         <v>1.2579560812762276</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z15" s="0">
         <v>0.82297273171237695</v>
@@ -4224,7 +4892,7 @@
         <v>0.26475141617963727</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD15" s="0">
         <v>3</v>
@@ -4236,13 +4904,13 @@
         <v>0.91636498272173628</v>
       </c>
       <c r="AG15" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH15" s="0">
         <v>0.43595769740858703</v>
       </c>
       <c r="AI15" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ15" s="0">
         <v>0.86379505831866699</v>
@@ -4251,15 +4919,15 @@
         <v>2.7867072083884899e-08</v>
       </c>
       <c r="AL15" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM15" s="0" t="s">
-        <v>508</v>
+        <v>723</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>445</v>
+        <v>660</v>
       </c>
       <c r="B16" s="0">
         <v>0.0029292335809264561</v>
@@ -4283,7 +4951,7 @@
         <v>0.0075765748550400995</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J16" s="0">
         <v>0.25626369963620732</v>
@@ -4331,7 +4999,7 @@
         <v>0.75580734154819862</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z16" s="0">
         <v>0.58930042587843678</v>
@@ -4343,7 +5011,7 @@
         <v>0.38674667821293973</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD16" s="0">
         <v>3</v>
@@ -4355,13 +5023,13 @@
         <v>1.6670146345597945</v>
       </c>
       <c r="AG16" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH16" s="0">
         <v>0.17901925010835734</v>
       </c>
       <c r="AI16" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ16" s="0">
         <v>0.94684705912974199</v>
@@ -4370,15 +5038,15 @@
         <v>0.00041718016738610298</v>
       </c>
       <c r="AL16" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM16" s="0" t="s">
-        <v>509</v>
+        <v>724</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>446</v>
+        <v>661</v>
       </c>
       <c r="B17" s="0">
         <v>0.040170790295040809</v>
@@ -4402,7 +5070,7 @@
         <v>0.00034998504154533957</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J17" s="0">
         <v>5.5960738436619408</v>
@@ -4450,7 +5118,7 @@
         <v>0.034660649821956546</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z17" s="0">
         <v>0.044389540366926328</v>
@@ -4462,7 +5130,7 @@
         <v>0.85268948875938466</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD17" s="0">
         <v>3</v>
@@ -4474,13 +5142,13 @@
         <v>1.4429034561401652</v>
       </c>
       <c r="AG17" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH17" s="0">
         <v>0.23492088236274361</v>
       </c>
       <c r="AI17" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ17" s="0">
         <v>0.90181488648866304</v>
@@ -4489,15 +5157,15 @@
         <v>1.27111992208693e-06</v>
       </c>
       <c r="AL17" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM17" s="0" t="s">
-        <v>510</v>
+        <v>725</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>447</v>
+        <v>662</v>
       </c>
       <c r="B18" s="0">
         <v>0.034518365614793628</v>
@@ -4521,7 +5189,7 @@
         <v>0.0024953161518220051</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J18" s="0">
         <v>2.2798458881722254</v>
@@ -4569,7 +5237,7 @@
         <v>0.2476542747422105</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z18" s="0">
         <v>0.062086879916259718</v>
@@ -4581,7 +5249,7 @@
         <v>0.61983521291487542</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD18" s="0">
         <v>3</v>
@@ -4593,13 +5261,13 @@
         <v>1.3187308293257824</v>
       </c>
       <c r="AG18" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH18" s="0">
         <v>0.27261976448213177</v>
       </c>
       <c r="AI18" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ18" s="0">
         <v>0.952605431758899</v>
@@ -4608,15 +5276,15 @@
         <v>0.0010131367573992999</v>
       </c>
       <c r="AL18" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM18" s="0" t="s">
-        <v>511</v>
+        <v>726</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>448</v>
+        <v>663</v>
       </c>
       <c r="B19" s="0">
         <v>0.0096965752656145415</v>
@@ -4640,7 +5308,7 @@
         <v>0.00059404381442219542</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J19" s="0">
         <v>1.1476673494291134</v>
@@ -4688,7 +5356,7 @@
         <v>0.058845294310890577</v>
       </c>
       <c r="Y19" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z19" s="0">
         <v>0.32508295294888967</v>
@@ -4700,7 +5368,7 @@
         <v>0.80883224802289511</v>
       </c>
       <c r="AC19" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD19" s="0">
         <v>3</v>
@@ -4712,13 +5380,13 @@
         <v>1.1120575245156139</v>
       </c>
       <c r="AG19" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH19" s="0">
         <v>0.34797006339604752</v>
       </c>
       <c r="AI19" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ19" s="0">
         <v>0.95218458806022499</v>
@@ -4727,15 +5395,15 @@
         <v>0.00094819287738191098</v>
       </c>
       <c r="AL19" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM19" s="0" t="s">
-        <v>512</v>
+        <v>727</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>449</v>
+        <v>664</v>
       </c>
       <c r="B20" s="0">
         <v>0.026027351997389848</v>
@@ -4759,7 +5427,7 @@
         <v>0.0080853976684984348</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J20" s="0">
         <v>3.6460403410906679</v>
@@ -4807,7 +5475,7 @@
         <v>0.80697911624637042</v>
       </c>
       <c r="Y20" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z20" s="0">
         <v>0.10542598292179972</v>
@@ -4819,7 +5487,7 @@
         <v>0.37119449563352769</v>
       </c>
       <c r="AC20" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD20" s="0">
         <v>3</v>
@@ -4831,13 +5499,13 @@
         <v>0.81108729381363576</v>
       </c>
       <c r="AG20" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH20" s="0">
         <v>0.49068071322699824</v>
       </c>
       <c r="AI20" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ20" s="0">
         <v>0.97985841417018504</v>
@@ -4846,15 +5514,15 @@
         <v>0.11801353053818101</v>
       </c>
       <c r="AL20" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM20" s="0" t="s">
-        <v>513</v>
+        <v>728</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>450</v>
+        <v>665</v>
       </c>
       <c r="B21" s="0">
         <v>0.020413429902798458</v>
@@ -4878,7 +5546,7 @@
         <v>0.015460490560942973</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>459</v>
+        <v>674</v>
       </c>
       <c r="J21" s="0">
         <v>1.8725853634620506</v>
@@ -4926,7 +5594,7 @@
         <v>1.5546238123093807</v>
       </c>
       <c r="Y21" s="0" t="s">
-        <v>476</v>
+        <v>691</v>
       </c>
       <c r="Z21" s="0">
         <v>0.14988570596378259</v>
@@ -4938,7 +5606,7 @@
         <v>0.21539601348702508</v>
       </c>
       <c r="AC21" s="0" t="s">
-        <v>481</v>
+        <v>696</v>
       </c>
       <c r="AD21" s="0">
         <v>3</v>
@@ -4950,13 +5618,13 @@
         <v>1.0329291219748102</v>
       </c>
       <c r="AG21" s="0" t="s">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="AH21" s="0">
         <v>0.38147254937427111</v>
       </c>
       <c r="AI21" s="0" t="s">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="AJ21" s="0">
         <v>0.97088544445383995</v>
@@ -4965,10 +5633,10 @@
         <v>0.022553210064618599</v>
       </c>
       <c r="AL21" s="0" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
       <c r="AM21" s="0" t="s">
-        <v>514</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -5017,99 +5685,99 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>515</v>
+        <v>730</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>536</v>
+        <v>751</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>537</v>
+        <v>752</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>539</v>
+        <v>754</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>541</v>
+        <v>756</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>543</v>
+        <v>758</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>544</v>
+        <v>759</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>545</v>
+        <v>760</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>546</v>
+        <v>761</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>547</v>
+        <v>762</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>548</v>
+        <v>763</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>549</v>
+        <v>764</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>550</v>
+        <v>765</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>551</v>
+        <v>766</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>552</v>
+        <v>767</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>553</v>
+        <v>768</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>554</v>
+        <v>769</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>555</v>
+        <v>770</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>556</v>
+        <v>771</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>557</v>
+        <v>772</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>558</v>
+        <v>773</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>559</v>
+        <v>774</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>560</v>
+        <v>775</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>561</v>
+        <v>776</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>562</v>
+        <v>777</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>563</v>
+        <v>778</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>516</v>
+        <v>731</v>
       </c>
       <c r="B2" s="0">
         <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F2" s="0">
         <v>-0.034804080945982502</v>
@@ -5177,19 +5845,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>517</v>
+        <v>732</v>
       </c>
       <c r="B3" s="0">
         <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F3" s="0">
         <v>0.32499176882639302</v>
@@ -5257,19 +5925,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>518</v>
+        <v>733</v>
       </c>
       <c r="B4" s="0">
         <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F4" s="0">
         <v>0.099081146654304897</v>
@@ -5337,19 +6005,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>519</v>
+        <v>734</v>
       </c>
       <c r="B5" s="0">
         <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F5" s="0">
         <v>0.39344089323775899</v>
@@ -5417,19 +6085,19 @@
     </row>
     <row r="6" s="1" customFormat="true">
       <c r="A6" s="1" t="s">
-        <v>520</v>
+        <v>735</v>
       </c>
       <c r="B6" s="1">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F6" s="1">
         <v>0.44554644895824003</v>
@@ -5497,19 +6165,19 @@
     </row>
     <row r="7" s="1" customFormat="true">
       <c r="A7" s="1" t="s">
-        <v>521</v>
+        <v>736</v>
       </c>
       <c r="B7" s="1">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F7" s="1">
         <v>0.093410516872588806</v>
@@ -5577,19 +6245,19 @@
     </row>
     <row r="8" s="1" customFormat="true">
       <c r="A8" s="1" t="s">
-        <v>522</v>
+        <v>737</v>
       </c>
       <c r="B8" s="1">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F8" s="1">
         <v>0.32048281106209803</v>
@@ -5657,19 +6325,19 @@
     </row>
     <row r="9" s="2" customFormat="true">
       <c r="A9" s="2" t="s">
-        <v>523</v>
+        <v>738</v>
       </c>
       <c r="B9" s="2">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F9" s="2">
         <v>0.092134604786548599</v>
@@ -5737,19 +6405,19 @@
     </row>
     <row r="10" s="1" customFormat="true">
       <c r="A10" s="1" t="s">
-        <v>524</v>
+        <v>739</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F10" s="1">
         <v>-0.0469639577081934</v>
@@ -5817,19 +6485,19 @@
     </row>
     <row r="11" s="1" customFormat="true">
       <c r="A11" s="1" t="s">
-        <v>525</v>
+        <v>740</v>
       </c>
       <c r="B11" s="1">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F11" s="1">
         <v>0.34032888453993398</v>
@@ -5897,19 +6565,19 @@
     </row>
     <row r="12" s="3" customFormat="true">
       <c r="A12" s="3" t="s">
-        <v>526</v>
+        <v>741</v>
       </c>
       <c r="B12" s="3">
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F12" s="3">
         <v>0.44173546981448902</v>
@@ -5977,19 +6645,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>527</v>
+        <v>742</v>
       </c>
       <c r="B13" s="0">
         <v>23</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F13" s="0">
         <v>0.40955113183026298</v>
@@ -6057,19 +6725,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>528</v>
+        <v>743</v>
       </c>
       <c r="B14" s="0">
         <v>23</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F14" s="0">
         <v>0.17800098241609499</v>
@@ -6137,19 +6805,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>529</v>
+        <v>744</v>
       </c>
       <c r="B15" s="0">
         <v>23</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F15" s="0">
         <v>0.037127358330545701</v>
@@ -6217,19 +6885,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>530</v>
+        <v>745</v>
       </c>
       <c r="B16" s="0">
         <v>23</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F16" s="0">
         <v>0.118987901368421</v>
@@ -6297,19 +6965,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>531</v>
+        <v>746</v>
       </c>
       <c r="B17" s="0">
         <v>23</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F17" s="0">
         <v>0.51716615709190905</v>
@@ -6377,19 +7045,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>532</v>
+        <v>747</v>
       </c>
       <c r="B18" s="0">
         <v>23</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F18" s="0">
         <v>0.42541170958839802</v>
@@ -6457,19 +7125,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>533</v>
+        <v>748</v>
       </c>
       <c r="B19" s="0">
         <v>23</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F19" s="0">
         <v>0.22118011424075901</v>
@@ -6537,19 +7205,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>534</v>
+        <v>749</v>
       </c>
       <c r="B20" s="0">
         <v>23</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F20" s="0">
         <v>0.37415513521029897</v>
@@ -6617,19 +7285,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>535</v>
+        <v>750</v>
       </c>
       <c r="B21" s="0">
         <v>23</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>538</v>
+        <v>753</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F21" s="0">
         <v>0.28346201271342097</v>
@@ -6759,126 +7427,126 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>564</v>
+        <v>779</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>589</v>
+        <v>804</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>590</v>
+        <v>805</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>591</v>
+        <v>806</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>592</v>
+        <v>807</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>593</v>
+        <v>808</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>594</v>
+        <v>809</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>595</v>
+        <v>810</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>596</v>
+        <v>811</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>597</v>
+        <v>812</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>598</v>
+        <v>813</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>599</v>
+        <v>814</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>600</v>
+        <v>815</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>601</v>
+        <v>816</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>602</v>
+        <v>817</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>603</v>
+        <v>818</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>604</v>
+        <v>819</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>605</v>
+        <v>820</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>606</v>
+        <v>821</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>607</v>
+        <v>822</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>608</v>
+        <v>823</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>609</v>
+        <v>824</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>610</v>
+        <v>825</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>611</v>
+        <v>826</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>612</v>
+        <v>827</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>613</v>
+        <v>828</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>614</v>
+        <v>829</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>615</v>
+        <v>830</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>616</v>
+        <v>831</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>617</v>
+        <v>832</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>618</v>
+        <v>833</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>619</v>
+        <v>834</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>620</v>
+        <v>835</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>621</v>
+        <v>836</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>622</v>
+        <v>837</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>623</v>
+        <v>838</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>624</v>
+        <v>839</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>625</v>
+        <v>840</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>627</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" s="0" t="s">
-        <v>565</v>
+        <v>780</v>
       </c>
       <c r="B2" s="0">
         <v>0.29634300126103597</v>
@@ -6989,15 +7657,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL2" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM2" s="0" t="s">
-        <v>628</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" s="0" t="s">
-        <v>566</v>
+        <v>781</v>
       </c>
       <c r="B3" s="0">
         <v>-4.8155737704918096</v>
@@ -7108,15 +7776,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL3" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM3" s="0" t="s">
-        <v>629</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" s="0" t="s">
-        <v>567</v>
+        <v>782</v>
       </c>
       <c r="B4" s="0">
         <v>-3.9801387137452764</v>
@@ -7227,15 +7895,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL4" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM4" s="0" t="s">
-        <v>629</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" s="0" t="s">
-        <v>568</v>
+        <v>783</v>
       </c>
       <c r="B5" s="0">
         <v>-4.5439760603695021</v>
@@ -7346,15 +8014,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL5" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM5" s="0" t="s">
-        <v>629</v>
+        <v>844</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" s="0" t="s">
-        <v>569</v>
+        <v>784</v>
       </c>
       <c r="B6" s="0">
         <v>-0.0025220680958386588</v>
@@ -7465,15 +8133,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL6" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM6" s="0" t="s">
-        <v>630</v>
+        <v>845</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" s="0" t="s">
-        <v>570</v>
+        <v>785</v>
       </c>
       <c r="B7" s="0">
         <v>-0.19711163153786115</v>
@@ -7584,15 +8252,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL7" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM7" s="0" t="s">
-        <v>631</v>
+        <v>846</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" s="0" t="s">
-        <v>571</v>
+        <v>786</v>
       </c>
       <c r="B8" s="0">
         <v>-0.25788146279949586</v>
@@ -7703,15 +8371,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL8" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM8" s="0" t="s">
-        <v>631</v>
+        <v>846</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" s="0" t="s">
-        <v>572</v>
+        <v>787</v>
       </c>
       <c r="B9" s="0">
         <v>-0.053473848555815273</v>
@@ -7822,15 +8490,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL9" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM9" s="0" t="s">
-        <v>632</v>
+        <v>847</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" s="0" t="s">
-        <v>573</v>
+        <v>788</v>
       </c>
       <c r="B10" s="0">
         <v>-0.32813156788566622</v>
@@ -7941,15 +8609,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL10" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM10" s="0" t="s">
-        <v>633</v>
+        <v>848</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" s="0" t="s">
-        <v>574</v>
+        <v>789</v>
       </c>
       <c r="B11" s="0">
         <v>-0.10883424408014575</v>
@@ -8060,15 +8728,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL11" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM11" s="0" t="s">
-        <v>634</v>
+        <v>849</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" s="0" t="s">
-        <v>575</v>
+        <v>790</v>
       </c>
       <c r="B12" s="0">
         <v>-0.02033417402269877</v>
@@ -8179,15 +8847,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL12" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM12" s="0" t="s">
-        <v>634</v>
+        <v>849</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" s="0" t="s">
-        <v>576</v>
+        <v>791</v>
       </c>
       <c r="B13" s="0">
         <v>-0.47462919594067121</v>
@@ -8298,15 +8966,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL13" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM13" s="0" t="s">
-        <v>635</v>
+        <v>850</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" s="0" t="s">
-        <v>577</v>
+        <v>792</v>
       </c>
       <c r="B14" s="0">
         <v>-0.20610025220680939</v>
@@ -8417,15 +9085,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL14" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM14" s="0" t="s">
-        <v>636</v>
+        <v>851</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" s="0" t="s">
-        <v>578</v>
+        <v>793</v>
       </c>
       <c r="B15" s="0">
         <v>-0.3019125683060111</v>
@@ -8536,15 +9204,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL15" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM15" s="0" t="s">
-        <v>636</v>
+        <v>851</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" s="0" t="s">
-        <v>579</v>
+        <v>794</v>
       </c>
       <c r="B16" s="0">
         <v>-0.0018127364438840221</v>
@@ -8655,15 +9323,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL16" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM16" s="0" t="s">
-        <v>637</v>
+        <v>852</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" s="0" t="s">
-        <v>580</v>
+        <v>795</v>
       </c>
       <c r="B17" s="0">
         <v>-0.20491803278688514</v>
@@ -8774,15 +9442,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL17" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM17" s="0" t="s">
-        <v>637</v>
+        <v>852</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" s="0" t="s">
-        <v>581</v>
+        <v>796</v>
       </c>
       <c r="B18" s="0">
         <v>0.088587641866330391</v>
@@ -8893,15 +9561,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL18" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM18" s="0" t="s">
-        <v>637</v>
+        <v>852</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" s="0" t="s">
-        <v>582</v>
+        <v>797</v>
       </c>
       <c r="B19" s="0">
         <v>-0.38895394223263069</v>
@@ -9012,15 +9680,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL19" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM19" s="0" t="s">
-        <v>638</v>
+        <v>853</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" s="0" t="s">
-        <v>583</v>
+        <v>798</v>
       </c>
       <c r="B20" s="0">
         <v>-0.24377364438839844</v>
@@ -9131,15 +9799,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL20" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM20" s="0" t="s">
-        <v>639</v>
+        <v>854</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" s="0" t="s">
-        <v>584</v>
+        <v>799</v>
       </c>
       <c r="B21" s="0">
         <v>-0.2775175644028105</v>
@@ -9250,15 +9918,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL21" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM21" s="0" t="s">
-        <v>640</v>
+        <v>855</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>585</v>
+        <v>800</v>
       </c>
       <c r="B22" s="0">
         <v>1.0412988650693566</v>
@@ -9369,15 +10037,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL22" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM22" s="0" t="s">
-        <v>641</v>
+        <v>856</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>586</v>
+        <v>801</v>
       </c>
       <c r="B23" s="0">
         <v>-0.055035128805620559</v>
@@ -9488,15 +10156,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL23" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM23" s="0" t="s">
-        <v>642</v>
+        <v>857</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" s="0" t="s">
-        <v>587</v>
+        <v>802</v>
       </c>
       <c r="B24" s="0">
         <v>0.89092055485498101</v>
@@ -9607,15 +10275,15 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL24" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM24" s="0" t="s">
-        <v>643</v>
+        <v>858</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" s="0" t="s">
-        <v>588</v>
+        <v>803</v>
       </c>
       <c r="B25" s="0">
         <v>-0.18579234972677594</v>
@@ -9726,10 +10394,10 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="AL25" s="0" t="s">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="AM25" s="0" t="s">
-        <v>644</v>
+        <v>859</v>
       </c>
     </row>
   </sheetData>

--- a/data/results/00_inferentialResults.xlsx
+++ b/data/results/00_inferentialResults.xlsx
@@ -8,25 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga84kuj\Documents\R\Multilab_Analysis\data\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222661C3-C9AA-4D5C-81BA-EC39C4CE4A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9E369E-4619-4D9E-90BB-88AE2AEA7F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANOVA_UsabQ" sheetId="2" r:id="rId1"/>
     <sheet name="CLM_UsabQ" sheetId="3" r:id="rId2"/>
     <sheet name="TOST_UsabQ" sheetId="4" r:id="rId3"/>
+    <sheet name="MM_SI_ER_ET_DB" sheetId="5" r:id="rId4"/>
+    <sheet name="TOST_ER_SI_ET_DB" sheetId="6" r:id="rId5"/>
+    <sheet name="MM_PB" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CLM_UsabQ!$A$1:$Z$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MM_SI_ER_ET_DB!$A$1:$AE$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TOST_ER_SI_ET_DB!$A$1:$AM$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TOST_UsabQ!$A$1:$AM$25</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="392">
   <si>
     <t>Test</t>
   </si>
@@ -688,6 +704,555 @@
   <si>
     <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
 TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>comparison</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect</t>
+  </si>
+  <si>
+    <t>TransProblems</t>
+  </si>
+  <si>
+    <t>ER_score</t>
+  </si>
+  <si>
+    <t>AttentionRatio_surt</t>
+  </si>
+  <si>
+    <t>GlanceAllocationTime_ic</t>
+  </si>
+  <si>
+    <t>FirstGlanceDuration_ic</t>
+  </si>
+  <si>
+    <t>TimeToL0_max25</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect</t>
+  </si>
+  <si>
+    <t>TransProblems</t>
+  </si>
+  <si>
+    <t>ER_score</t>
+  </si>
+  <si>
+    <t>AttentionRatio_surt</t>
+  </si>
+  <si>
+    <t>GlanceAllocationTime_ic</t>
+  </si>
+  <si>
+    <t>FirstGlanceDuration_ic</t>
+  </si>
+  <si>
+    <t>TimeToL0_max25</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>afex::mixed, AV ~ Exp * HMI + (1 | TC) + (1 | VP), data_23, LRT, binomial</t>
+  </si>
+  <si>
+    <t>afex::mixed, AV ~ Exp * HMI + (1 | VP), data_23, LRT, binomial</t>
+  </si>
+  <si>
+    <t>afex::mixed, AV ~ Exp * HMI + (1 | TC) + (1 | VP), data_23, LRT, gaussian(link = log)</t>
+  </si>
+  <si>
+    <t>afex::mixed, AV ~ Exp * HMI + (1 | TC) + (1 | VP), data_23, LRT, gaussian(link = identity)</t>
+  </si>
+  <si>
+    <t>afex::mixed, AV ~ Exp * HMI + (1 | TC) + (1 | VP), data_23, LRT, binomial</t>
+  </si>
+  <si>
+    <t>afex::mixed, AV ~ Exp * HMI + (1 | VP), data_23, LRT, binomial</t>
+  </si>
+  <si>
+    <t>afex::mixed, AV ~ Exp * HMI + (1 | TC) + (1 | VP), data_23, LRT, gaussian(link = log)</t>
+  </si>
+  <si>
+    <t>afex::mixed, AV ~ Exp * HMI + (1 | TC) + (1 | VP), data_23, LRT, gaussian(link = identity)</t>
+  </si>
+  <si>
+    <t>est_intercept</t>
+  </si>
+  <si>
+    <t>est_Exp</t>
+  </si>
+  <si>
+    <t>est_HMI</t>
+  </si>
+  <si>
+    <t>est_Exp_HMI</t>
+  </si>
+  <si>
+    <t>stdErr_intercept</t>
+  </si>
+  <si>
+    <t>stdErr_Exp</t>
+  </si>
+  <si>
+    <t>stdErr_HMI</t>
+  </si>
+  <si>
+    <t>stdErr_Exp_HMI</t>
+  </si>
+  <si>
+    <t>z_intercept</t>
+  </si>
+  <si>
+    <t>z_Exp</t>
+  </si>
+  <si>
+    <t>z_HMI</t>
+  </si>
+  <si>
+    <t>z_Exp_HMI</t>
+  </si>
+  <si>
+    <t>p_intercept</t>
+  </si>
+  <si>
+    <t>p_Exp</t>
+  </si>
+  <si>
+    <t>p_HMI</t>
+  </si>
+  <si>
+    <t>p_Exp_HMI</t>
+  </si>
+  <si>
+    <t>Df_Exp</t>
+  </si>
+  <si>
+    <t>Df_HMI</t>
+  </si>
+  <si>
+    <t>Df_Exp_HMI</t>
+  </si>
+  <si>
+    <t>ChiSq_Exp</t>
+  </si>
+  <si>
+    <t>ChiSq_HMI</t>
+  </si>
+  <si>
+    <t>ChiSq_Exp_HMI</t>
+  </si>
+  <si>
+    <t>Df_ChiSq_Exp</t>
+  </si>
+  <si>
+    <t>Df_ChiSq_HMI</t>
+  </si>
+  <si>
+    <t>Df_ChiSq_Exp_HMI</t>
+  </si>
+  <si>
+    <t>p_ChiSq_Exp</t>
+  </si>
+  <si>
+    <t>p_ChiSq_HMI</t>
+  </si>
+  <si>
+    <t>p_ChiSq_Exp_HMI</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>ER_12</t>
+  </si>
+  <si>
+    <t>ER_23</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep_score_12</t>
+  </si>
+  <si>
+    <t>LevelObserved_Rep_score_23</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed_score_12</t>
+  </si>
+  <si>
+    <t>EmailsAllow_Observed_score_23</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed_score_12</t>
+  </si>
+  <si>
+    <t>HandsOffAllow_Observed_score_23</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr_score_12</t>
+  </si>
+  <si>
+    <t>LevelObserved_Instr_score_23</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep_score_12</t>
+  </si>
+  <si>
+    <t>AvailImplem_Rep_score_23</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect_score_12</t>
+  </si>
+  <si>
+    <t>AvailReasonCorrect_score_23</t>
+  </si>
+  <si>
+    <t>TransProblems_score_12</t>
+  </si>
+  <si>
+    <t>TransProblems_score_23</t>
+  </si>
+  <si>
+    <t>allLvl_AR_surt_12</t>
+  </si>
+  <si>
+    <t>allLvl_AR_surt_23</t>
+  </si>
+  <si>
+    <t>GlanceAllocationTime_ic_12</t>
+  </si>
+  <si>
+    <t>GlanceAllocationTime_ic_23</t>
+  </si>
+  <si>
+    <t>FirstGlanceDuration_ic_12</t>
+  </si>
+  <si>
+    <t>FirstGlanceDuration_ic_23</t>
+  </si>
+  <si>
+    <t>TimeToL0_max25_12</t>
+  </si>
+  <si>
+    <t>TimeToL0_max25_23</t>
+  </si>
+  <si>
+    <t>diff_means</t>
+  </si>
+  <si>
+    <t>TOST_t1</t>
+  </si>
+  <si>
+    <t>TOST_p1</t>
+  </si>
+  <si>
+    <t>TOST_t2</t>
+  </si>
+  <si>
+    <t>TOST_p2</t>
+  </si>
+  <si>
+    <t>TOST_df</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>low_eqbound</t>
+  </si>
+  <si>
+    <t>high_eqbound</t>
+  </si>
+  <si>
+    <t>low_eqbound_d</t>
+  </si>
+  <si>
+    <t>high_eqbound_d</t>
+  </si>
+  <si>
+    <t>LL_CI_TOST</t>
+  </si>
+  <si>
+    <t>UL_CI_TOST</t>
+  </si>
+  <si>
+    <t>LL_CI_TTest</t>
+  </si>
+  <si>
+    <t>UL_CI_TTest</t>
+  </si>
+  <si>
+    <t>NHST_t</t>
+  </si>
+  <si>
+    <t>NHST_p</t>
+  </si>
+  <si>
+    <t>lev_Df_group</t>
+  </si>
+  <si>
+    <t>lev_Df</t>
+  </si>
+  <si>
+    <t>lev_F</t>
+  </si>
+  <si>
+    <t>lev_p</t>
+  </si>
+  <si>
+    <t>shap_Exp1</t>
+  </si>
+  <si>
+    <t>shap_Exp2</t>
+  </si>
+  <si>
+    <t>shap_W1</t>
+  </si>
+  <si>
+    <t>shap_W2</t>
+  </si>
+  <si>
+    <t>shap_p1</t>
+  </si>
+  <si>
+    <t>shap_p2</t>
+  </si>
+  <si>
+    <t>wTOST_W_NHST</t>
+  </si>
+  <si>
+    <t>wTOST_W_TOSTlow</t>
+  </si>
+  <si>
+    <t>wTOST_W_TOSTupp</t>
+  </si>
+  <si>
+    <t>wTOST_p_NHST</t>
+  </si>
+  <si>
+    <t>wTOST_p_TOSTlow</t>
+  </si>
+  <si>
+    <t>wTOST_p_TOSTupp</t>
+  </si>
+  <si>
+    <t>wTOST_low_eqbound</t>
+  </si>
+  <si>
+    <t>wTOST_high_eqbound</t>
+  </si>
+  <si>
+    <t>wTOST_alpha</t>
+  </si>
+  <si>
+    <t>wTOST_test</t>
+  </si>
+  <si>
+    <t>Wilcoxon rank sum test with continuity correction</t>
+  </si>
+  <si>
+    <t>wTOST_decision_combined</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>NHST: don't reject null significance hypothesis that the effect is equal to zero 
+TOST: don't reject null equivalence hypothesis</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>TransProblems</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>afex::mixed, AV ~ Exp * HMI + (1 | VP), data_23, LRT, binomial</t>
+  </si>
+  <si>
+    <t>est_intercept</t>
+  </si>
+  <si>
+    <t>est_Exp</t>
+  </si>
+  <si>
+    <t>est_HMI</t>
+  </si>
+  <si>
+    <t>est_Exp_HMI</t>
+  </si>
+  <si>
+    <t>stdErr_intercept</t>
+  </si>
+  <si>
+    <t>stdErr_Exp</t>
+  </si>
+  <si>
+    <t>stdErr_HMI</t>
+  </si>
+  <si>
+    <t>stdErr_Exp_HMI</t>
+  </si>
+  <si>
+    <t>z_intercept</t>
+  </si>
+  <si>
+    <t>z_Exp</t>
+  </si>
+  <si>
+    <t>z_HMI</t>
+  </si>
+  <si>
+    <t>z_Exp_HMI</t>
+  </si>
+  <si>
+    <t>p_intercept</t>
+  </si>
+  <si>
+    <t>p_Exp</t>
+  </si>
+  <si>
+    <t>p_HMI</t>
+  </si>
+  <si>
+    <t>p_Exp_HMI</t>
+  </si>
+  <si>
+    <t>Df_Exp</t>
+  </si>
+  <si>
+    <t>Df_HMI</t>
+  </si>
+  <si>
+    <t>Df_Exp_HMI</t>
+  </si>
+  <si>
+    <t>ChiSq_Exp</t>
+  </si>
+  <si>
+    <t>ChiSq_HMI</t>
+  </si>
+  <si>
+    <t>ChiSq_Exp_HMI</t>
+  </si>
+  <si>
+    <t>Df_ChiSq_Exp</t>
+  </si>
+  <si>
+    <t>Df_ChiSq_HMI</t>
+  </si>
+  <si>
+    <t>Df_ChiSq_Exp_HMI</t>
+  </si>
+  <si>
+    <t>p_ChiSq_Exp</t>
+  </si>
+  <si>
+    <t>p_ChiSq_HMI</t>
+  </si>
+  <si>
+    <t>p_ChiSq_Exp_HMI</t>
   </si>
 </sst>
 </file>
@@ -703,12 +1268,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -723,16 +1294,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -755,6 +1360,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1065,7 +1675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3620,7 +4230,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3629,18 +4239,13 @@
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
     <col min="3" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="11" width="12.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="13.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="5.85546875" style="1" customWidth="1"/>
+    <col min="9" max="11" width="7.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="5.42578125" style="1" customWidth="1"/>
+    <col min="15" max="17" width="5.7109375" style="1" customWidth="1"/>
     <col min="18" max="20" width="9.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" customWidth="1"/>
-    <col min="23" max="24" width="13.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="1" customWidth="1"/>
+    <col min="21" max="23" width="12.28515625" style="1" customWidth="1"/>
+    <col min="24" max="26" width="8.42578125" style="1" customWidth="1"/>
     <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -5327,7 +5932,7 @@
   </sheetData>
   <autoFilter ref="A1:Z21" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <conditionalFormatting sqref="X1:Z1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5339,8 +5944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5368,13 +5973,12 @@
     <col min="21" max="21" width="15.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="15.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="23" max="24" width="10.42578125" style="1" customWidth="1"/>
-    <col min="25" max="26" width="12.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.5703125" style="1" customWidth="1"/>
+    <col min="25" max="26" width="9.140625" style="1" customWidth="1"/>
+    <col min="27" max="28" width="8.42578125" style="1" customWidth="1"/>
     <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
     <col min="30" max="30" width="18.7109375" style="1" customWidth="1"/>
     <col min="31" max="31" width="18.85546875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15" style="1" customWidth="1"/>
     <col min="33" max="33" width="18" style="1" customWidth="1"/>
     <col min="34" max="34" width="18.140625" style="1" customWidth="1"/>
     <col min="35" max="35" width="20.42578125" style="1" customWidth="1"/>
@@ -5816,16 +6420,16 @@
         <v>2</v>
       </c>
       <c r="Y4" s="2">
-        <v>0.92424618855595797</v>
+        <v>0.92199795675570195</v>
       </c>
       <c r="Z4" s="2">
-        <v>0.950109312658455</v>
+        <v>0.91739662158942403</v>
       </c>
       <c r="AA4" s="2">
-        <v>2.7019056676303899E-3</v>
+        <v>2.2244985370001801E-3</v>
       </c>
       <c r="AB4" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>5.3979669766339704E-4</v>
       </c>
       <c r="AC4" s="1">
         <v>1366.5</v>
@@ -5935,16 +6539,16 @@
         <v>3</v>
       </c>
       <c r="Y5" s="2">
-        <v>0.950109312658455</v>
+        <v>0.91739662158942403</v>
       </c>
       <c r="Z5" s="2">
-        <v>0.779249778195097</v>
+        <v>0.88610930994279902</v>
       </c>
       <c r="AA5" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>5.3979669766339704E-4</v>
       </c>
       <c r="AB5" s="2">
-        <v>1.6462091383260801E-6</v>
+        <v>5.6719141014681005E-4</v>
       </c>
       <c r="AC5" s="1">
         <v>1050.5</v>
@@ -6054,16 +6658,16 @@
         <v>2</v>
       </c>
       <c r="Y6" s="2">
-        <v>0.92424618855595797</v>
+        <v>0.87703692258674604</v>
       </c>
       <c r="Z6" s="2">
-        <v>0.950109312658455</v>
+        <v>0.86132266897343501</v>
       </c>
       <c r="AA6" s="2">
-        <v>2.7019056676303899E-3</v>
+        <v>6.7447690521611102E-5</v>
       </c>
       <c r="AB6" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>5.7533326337708598E-6</v>
       </c>
       <c r="AC6" s="1">
         <v>1535</v>
@@ -6173,16 +6777,16 @@
         <v>3</v>
       </c>
       <c r="Y7" s="2">
-        <v>0.950109312658455</v>
+        <v>0.86132266897343501</v>
       </c>
       <c r="Z7" s="2">
-        <v>0.779249778195097</v>
+        <v>0.881243919595878</v>
       </c>
       <c r="AA7" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>5.7533326337708598E-6</v>
       </c>
       <c r="AB7" s="2">
-        <v>1.6462091383260801E-6</v>
+        <v>4.1412423548357397E-4</v>
       </c>
       <c r="AC7" s="1">
         <v>1172.5</v>
@@ -6292,16 +6896,16 @@
         <v>2</v>
       </c>
       <c r="Y8" s="2">
-        <v>0.92424618855595797</v>
+        <v>0.84338548203145902</v>
       </c>
       <c r="Z8" s="2">
-        <v>0.950109312658455</v>
+        <v>0.81322491771062899</v>
       </c>
       <c r="AA8" s="2">
-        <v>2.7019056676303899E-3</v>
+        <v>7.3069836873329198E-6</v>
       </c>
       <c r="AB8" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>2.46334083193543E-7</v>
       </c>
       <c r="AC8" s="1">
         <v>1357</v>
@@ -6411,16 +7015,16 @@
         <v>3</v>
       </c>
       <c r="Y9" s="2">
-        <v>0.950109312658455</v>
+        <v>0.81322491771062899</v>
       </c>
       <c r="Z9" s="2">
-        <v>0.779249778195097</v>
+        <v>0.79219406362011502</v>
       </c>
       <c r="AA9" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>2.46334083193543E-7</v>
       </c>
       <c r="AB9" s="2">
-        <v>1.6462091383260801E-6</v>
+        <v>3.0320659605843002E-6</v>
       </c>
       <c r="AC9" s="1">
         <v>1235</v>
@@ -6530,16 +7134,16 @@
         <v>2</v>
       </c>
       <c r="Y10" s="2">
-        <v>0.92424618855595797</v>
+        <v>0.94930922476478796</v>
       </c>
       <c r="Z10" s="2">
-        <v>0.950109312658455</v>
+        <v>0.94190483377579304</v>
       </c>
       <c r="AA10" s="2">
-        <v>2.7019056676303899E-3</v>
+        <v>2.7229464245569199E-2</v>
       </c>
       <c r="AB10" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>6.0444583213410397E-3</v>
       </c>
       <c r="AC10" s="1">
         <v>1267.5</v>
@@ -6649,16 +7253,16 @@
         <v>3</v>
       </c>
       <c r="Y11" s="2">
-        <v>0.950109312658455</v>
+        <v>0.94190483377579304</v>
       </c>
       <c r="Z11" s="2">
-        <v>0.779249778195097</v>
+        <v>0.91996932448958602</v>
       </c>
       <c r="AA11" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>6.0444583213410397E-3</v>
       </c>
       <c r="AB11" s="2">
-        <v>1.6462091383260801E-6</v>
+        <v>6.0332123742488E-3</v>
       </c>
       <c r="AC11" s="1">
         <v>1201.5</v>
@@ -6768,16 +7372,16 @@
         <v>2</v>
       </c>
       <c r="Y12" s="2">
-        <v>0.92424618855595797</v>
+        <v>0.92006934770005599</v>
       </c>
       <c r="Z12" s="2">
-        <v>0.950109312658455</v>
+        <v>0.90996576903154702</v>
       </c>
       <c r="AA12" s="2">
-        <v>2.7019056676303899E-3</v>
+        <v>1.8858774777579001E-3</v>
       </c>
       <c r="AB12" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>2.7538470485379701E-4</v>
       </c>
       <c r="AC12" s="1">
         <v>1523</v>
@@ -6887,16 +7491,16 @@
         <v>3</v>
       </c>
       <c r="Y13" s="2">
-        <v>0.950109312658455</v>
+        <v>0.90996576903154702</v>
       </c>
       <c r="Z13" s="2">
-        <v>0.779249778195097</v>
+        <v>0.79979613529280802</v>
       </c>
       <c r="AA13" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>2.7538470485379701E-4</v>
       </c>
       <c r="AB13" s="2">
-        <v>1.6462091383260801E-6</v>
+        <v>4.3847676224182797E-6</v>
       </c>
       <c r="AC13" s="1">
         <v>983</v>
@@ -7006,16 +7610,16 @@
         <v>2</v>
       </c>
       <c r="Y14" s="2">
-        <v>0.92424618855595797</v>
+        <v>0.96673856987414897</v>
       </c>
       <c r="Z14" s="2">
-        <v>0.950109312658455</v>
+        <v>0.92804955979989801</v>
       </c>
       <c r="AA14" s="2">
-        <v>2.7019056676303899E-3</v>
+        <v>0.15326804776856301</v>
       </c>
       <c r="AB14" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>1.4840505122766E-3</v>
       </c>
       <c r="AC14" s="1">
         <v>1348</v>
@@ -7125,16 +7729,16 @@
         <v>3</v>
       </c>
       <c r="Y15" s="2">
-        <v>0.950109312658455</v>
+        <v>0.92804955979989801</v>
       </c>
       <c r="Z15" s="2">
-        <v>0.779249778195097</v>
+        <v>0.95524210149730004</v>
       </c>
       <c r="AA15" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>1.4840505122766E-3</v>
       </c>
       <c r="AB15" s="2">
-        <v>1.6462091383260801E-6</v>
+        <v>9.9636781965257507E-2</v>
       </c>
       <c r="AC15" s="1">
         <v>1026.5</v>
@@ -7244,16 +7848,16 @@
         <v>2</v>
       </c>
       <c r="Y16" s="2">
-        <v>0.92424618855595797</v>
+        <v>0.95477137796409595</v>
       </c>
       <c r="Z16" s="2">
-        <v>0.950109312658455</v>
+        <v>0.93168491130494002</v>
       </c>
       <c r="AA16" s="2">
-        <v>2.7019056676303899E-3</v>
+        <v>4.6531514458556397E-2</v>
       </c>
       <c r="AB16" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>2.1238131033536798E-3</v>
       </c>
       <c r="AC16" s="1">
         <v>1511.5</v>
@@ -7363,16 +7967,16 @@
         <v>3</v>
       </c>
       <c r="Y17" s="2">
-        <v>0.950109312658455</v>
+        <v>0.93168491130494002</v>
       </c>
       <c r="Z17" s="2">
-        <v>0.779249778195097</v>
+        <v>0.94428681052450503</v>
       </c>
       <c r="AA17" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>2.1238131033536798E-3</v>
       </c>
       <c r="AB17" s="2">
-        <v>1.6462091383260801E-6</v>
+        <v>4.0427835378969303E-2</v>
       </c>
       <c r="AC17" s="1">
         <v>1160</v>
@@ -7482,16 +8086,16 @@
         <v>2</v>
       </c>
       <c r="Y18" s="2">
-        <v>0.92424618855595797</v>
+        <v>0.97718604778019802</v>
       </c>
       <c r="Z18" s="2">
-        <v>0.950109312658455</v>
+        <v>0.97513574049338203</v>
       </c>
       <c r="AA18" s="2">
-        <v>2.7019056676303899E-3</v>
+        <v>0.41425940508096498</v>
       </c>
       <c r="AB18" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>0.24871118633118899</v>
       </c>
       <c r="AC18" s="1">
         <v>1628.5</v>
@@ -7601,16 +8205,16 @@
         <v>3</v>
       </c>
       <c r="Y19" s="2">
-        <v>0.950109312658455</v>
+        <v>0.97513574049338203</v>
       </c>
       <c r="Z19" s="2">
-        <v>0.779249778195097</v>
+        <v>0.94977091052225204</v>
       </c>
       <c r="AA19" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>0.24871118633118899</v>
       </c>
       <c r="AB19" s="2">
-        <v>1.6462091383260801E-6</v>
+        <v>6.3376216259825299E-2</v>
       </c>
       <c r="AC19" s="1">
         <v>1048.5</v>
@@ -7720,16 +8324,16 @@
         <v>2</v>
       </c>
       <c r="Y20" s="2">
-        <v>0.92424618855595797</v>
+        <v>0.97416935014861505</v>
       </c>
       <c r="Z20" s="2">
-        <v>0.950109312658455</v>
+        <v>0.94473180062224205</v>
       </c>
       <c r="AA20" s="2">
-        <v>2.7019056676303899E-3</v>
+        <v>0.314880248661214</v>
       </c>
       <c r="AB20" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>8.15485141518274E-3</v>
       </c>
       <c r="AC20" s="1">
         <v>1340</v>
@@ -7839,16 +8443,16 @@
         <v>3</v>
       </c>
       <c r="Y21" s="2">
-        <v>0.950109312658455</v>
+        <v>0.94473180062224205</v>
       </c>
       <c r="Z21" s="2">
-        <v>0.779249778195097</v>
+        <v>0.96032032145560398</v>
       </c>
       <c r="AA21" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>8.15485141518274E-3</v>
       </c>
       <c r="AB21" s="2">
-        <v>1.6462091383260801E-6</v>
+        <v>0.151635478383158</v>
       </c>
       <c r="AC21" s="1">
         <v>1090</v>
@@ -7958,16 +8562,16 @@
         <v>2</v>
       </c>
       <c r="Y22" s="2">
-        <v>0.92424618855595797</v>
+        <v>0.79818071461599704</v>
       </c>
       <c r="Z22" s="2">
-        <v>0.950109312658455</v>
+        <v>0.108594405737812</v>
       </c>
       <c r="AA22" s="2">
-        <v>2.7019056676303899E-3</v>
+        <v>5.3997485732775503E-7</v>
       </c>
       <c r="AB22" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>2.2109674319437599E-17</v>
       </c>
       <c r="AC22" s="1">
         <v>2392</v>
@@ -8077,16 +8681,16 @@
         <v>3</v>
       </c>
       <c r="Y23" s="2">
-        <v>0.950109312658455</v>
+        <v>0.108594405737812</v>
       </c>
       <c r="Z23" s="2">
-        <v>0.779249778195097</v>
+        <v>0.21870912398251</v>
       </c>
       <c r="AA23" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>2.2109674319437599E-17</v>
       </c>
       <c r="AB23" s="2">
-        <v>1.6462091383260801E-6</v>
+        <v>1.2460659927824199E-13</v>
       </c>
       <c r="AC23" s="1">
         <v>1240.5</v>
@@ -8196,16 +8800,16 @@
         <v>2</v>
       </c>
       <c r="Y24" s="2">
-        <v>0.92424618855595797</v>
+        <v>0.71674239566061404</v>
       </c>
       <c r="Z24" s="2">
-        <v>0.950109312658455</v>
+        <v>0.34408556757963799</v>
       </c>
       <c r="AA24" s="2">
-        <v>2.7019056676303899E-3</v>
+        <v>1.0651038467587E-8</v>
       </c>
       <c r="AB24" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>4.9994718048351104E-15</v>
       </c>
       <c r="AC24" s="1">
         <v>2117.5</v>
@@ -8315,16 +8919,16 @@
         <v>3</v>
       </c>
       <c r="Y25" s="2">
-        <v>0.950109312658455</v>
+        <v>0.34408556757963799</v>
       </c>
       <c r="Z25" s="2">
-        <v>0.779249778195097</v>
+        <v>0.53091301226242504</v>
       </c>
       <c r="AA25" s="2">
-        <v>1.45895333804424E-2</v>
+        <v>4.9994718048351104E-15</v>
       </c>
       <c r="AB25" s="2">
-        <v>1.6462091383260801E-6</v>
+        <v>2.15212000461328E-10</v>
       </c>
       <c r="AC25" s="1">
         <v>1145.5</v>
@@ -8363,10 +8967,5790 @@
   </sheetData>
   <autoFilter ref="A1:AM25" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <conditionalFormatting sqref="F1:F1048576 D1:D1048576 R1:R1048576 AF1:AH1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AE25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="76.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="6" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="6" customWidth="1"/>
+    <col min="13" max="14" width="13.7109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="6" customWidth="1"/>
+    <col min="16" max="18" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" style="6" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="6" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="6" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" customWidth="1"/>
+    <col min="27" max="27" width="13.7109375" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" customWidth="1"/>
+    <col min="31" max="31" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="P1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>263</v>
+      </c>
+      <c r="R1" t="s">
+        <v>264</v>
+      </c>
+      <c r="S1" t="s">
+        <v>265</v>
+      </c>
+      <c r="T1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V1" t="s">
+        <v>268</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3.8971391611403772</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.39971310519773329</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.47758350014945294</v>
+      </c>
+      <c r="G2" s="7">
+        <v>-0.2801311305916302</v>
+      </c>
+      <c r="H2">
+        <v>0.40691450504613691</v>
+      </c>
+      <c r="I2">
+        <v>0.22602331909381898</v>
+      </c>
+      <c r="J2">
+        <v>0.2282301322086914</v>
+      </c>
+      <c r="K2">
+        <v>0.22649572090996012</v>
+      </c>
+      <c r="L2" s="7">
+        <v>9.5772923127881882</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1.7684595854988672</v>
+      </c>
+      <c r="N2" s="7">
+        <v>2.0925523528714223</v>
+      </c>
+      <c r="O2" s="7">
+        <v>-1.2368053995289032</v>
+      </c>
+      <c r="P2">
+        <v>9.9622390190123087E-22</v>
+      </c>
+      <c r="Q2">
+        <v>7.698410283621554E-2</v>
+      </c>
+      <c r="R2">
+        <v>3.6389133697881638E-2</v>
+      </c>
+      <c r="S2">
+        <v>0.21615933701812498</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>5</v>
+      </c>
+      <c r="V2">
+        <v>5</v>
+      </c>
+      <c r="W2" s="5">
+        <v>3.0007694014191202</v>
+      </c>
+      <c r="X2" s="5">
+        <v>4.4241139548108777</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>1.5261972036820453</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>8.3224984614688288E-2</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>3.5434506063498461E-2</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>0.21668407509347146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-1.2211923494721153</v>
+      </c>
+      <c r="E3" s="7">
+        <v>-0.28843055797545392</v>
+      </c>
+      <c r="F3" s="7">
+        <v>-4.9793865056895967E-2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.13563144300587823</v>
+      </c>
+      <c r="H3">
+        <v>0.72194771226279331</v>
+      </c>
+      <c r="I3">
+        <v>0.11271442400950146</v>
+      </c>
+      <c r="J3">
+        <v>0.11150509467227085</v>
+      </c>
+      <c r="K3">
+        <v>0.1116926450885509</v>
+      </c>
+      <c r="L3" s="7">
+        <v>-1.6915246474631032</v>
+      </c>
+      <c r="M3" s="7">
+        <v>-2.5589498461274145</v>
+      </c>
+      <c r="N3" s="7">
+        <v>-0.4465613450510682</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1.2143274330941707</v>
+      </c>
+      <c r="P3">
+        <v>9.0736644436840555E-2</v>
+      </c>
+      <c r="Q3">
+        <v>1.0498888704943674E-2</v>
+      </c>
+      <c r="R3">
+        <v>0.65519181066939525</v>
+      </c>
+      <c r="S3">
+        <v>0.22462271391919852</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3" s="5">
+        <v>6.0176276581622687</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0.18651143707154461</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>1.3714683677004587</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>1.4163673405641947E-2</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>0.66583611852236557</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>0.24155975797928708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="7">
+        <v>-0.94680241187376679</v>
+      </c>
+      <c r="E4" s="7">
+        <v>-0.48276829729539283</v>
+      </c>
+      <c r="F4" s="7">
+        <v>-5.6203123279706897E-2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>7.6941548898772957E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.71139385863005433</v>
+      </c>
+      <c r="I4">
+        <v>0.11214145113123596</v>
+      </c>
+      <c r="J4">
+        <v>0.10909206874278617</v>
+      </c>
+      <c r="K4">
+        <v>0.10912459120751788</v>
+      </c>
+      <c r="L4" s="7">
+        <v>-1.3309117029728701</v>
+      </c>
+      <c r="M4" s="7">
+        <v>-4.3049942053132773</v>
+      </c>
+      <c r="N4" s="7">
+        <v>-0.51518982018959458</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0.70507983624384241</v>
+      </c>
+      <c r="P4">
+        <v>0.18321806601164112</v>
+      </c>
+      <c r="Q4">
+        <v>1.6699010658287147E-5</v>
+      </c>
+      <c r="R4">
+        <v>0.60642038188441449</v>
+      </c>
+      <c r="S4">
+        <v>0.48076055401932333</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4" s="7">
+        <v>16.826595026854079</v>
+      </c>
+      <c r="X4" s="7">
+        <v>0.25071753367740257</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0.46945574975177351</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>4.0955304650733565E-5</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0.6165702925341785</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0.49323765569352096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3.2084566253339664</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.32955236138463673</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.54499098467518947</v>
+      </c>
+      <c r="G5" s="7">
+        <v>-0.26934640762149087</v>
+      </c>
+      <c r="H5">
+        <v>0.39408434176903417</v>
+      </c>
+      <c r="I5">
+        <v>0.16663357446961247</v>
+      </c>
+      <c r="J5">
+        <v>0.16832013739493898</v>
+      </c>
+      <c r="K5">
+        <v>0.16663423549020648</v>
+      </c>
+      <c r="L5" s="7">
+        <v>8.1415481034625472</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1.9777068482962559</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3.2378240245636598</v>
+      </c>
+      <c r="O5" s="7">
+        <v>-1.61639297488373</v>
+      </c>
+      <c r="P5">
+        <v>3.9025543096666921E-16</v>
+      </c>
+      <c r="Q5">
+        <v>4.7961787252224948E-2</v>
+      </c>
+      <c r="R5">
+        <v>1.2044507797023399E-3</v>
+      </c>
+      <c r="S5">
+        <v>0.10600937627957623</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5" s="5">
+        <v>3.8127073275098837</v>
+      </c>
+      <c r="X5" s="5">
+        <v>10.506438302367087</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>2.6030120938766004</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>5.0865171998469419E-2</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>1.1895932723534753E-3</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0.10666082698473171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2.2137268088539641</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.28280568535125861</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.1408413434763337</v>
+      </c>
+      <c r="G6" s="7">
+        <v>-0.14051474445154166</v>
+      </c>
+      <c r="H6">
+        <v>0.44495726181059453</v>
+      </c>
+      <c r="I6">
+        <v>0.10619662794744565</v>
+      </c>
+      <c r="J6">
+        <v>0.10598715050702183</v>
+      </c>
+      <c r="K6">
+        <v>0.10598161273988176</v>
+      </c>
+      <c r="L6" s="7">
+        <v>4.975144803449199</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2.6630382792494394</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1.3288530053178731</v>
+      </c>
+      <c r="O6" s="7">
+        <v>-1.3258407833103751</v>
+      </c>
+      <c r="P6">
+        <v>6.5198883401435701E-7</v>
+      </c>
+      <c r="Q6">
+        <v>7.7438604314912013E-3</v>
+      </c>
+      <c r="R6">
+        <v>0.18389647077145876</v>
+      </c>
+      <c r="S6">
+        <v>0.18489244097431967</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6" s="5">
+        <v>6.7693915943309548</v>
+      </c>
+      <c r="X6" s="5">
+        <v>1.710002814372956</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>1.7014509612802158</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>9.2734442949820913E-3</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>0.19098500534963683</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0.19209833230031767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.95658582152305394</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.32735222334203273</v>
+      </c>
+      <c r="F7" s="7">
+        <v>-0.10920919705349068</v>
+      </c>
+      <c r="G7" s="7">
+        <v>-0.32257013286690839</v>
+      </c>
+      <c r="H7">
+        <v>0.24884314815345074</v>
+      </c>
+      <c r="I7">
+        <v>0.23129733112854453</v>
+      </c>
+      <c r="J7">
+        <v>0.23017837350824139</v>
+      </c>
+      <c r="K7">
+        <v>0.23135680513505941</v>
+      </c>
+      <c r="L7" s="7">
+        <v>3.844131649279606</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.4152875078359866</v>
+      </c>
+      <c r="N7" s="7">
+        <v>-0.47445463876118887</v>
+      </c>
+      <c r="O7" s="7">
+        <v>-1.3942539216799839</v>
+      </c>
+      <c r="P7">
+        <v>1.2098005078390257E-4</v>
+      </c>
+      <c r="Q7">
+        <v>0.15698421618114636</v>
+      </c>
+      <c r="R7">
+        <v>0.63517573788384518</v>
+      </c>
+      <c r="S7">
+        <v>0.1632409400857473</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7" s="5">
+        <v>2.0142583115191428</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0.22516122445574638</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>1.9556010396316879</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0.15582740139370105</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0.63513515355756389</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>0.16198456173614206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="7">
+        <v>-2.3785806158855234</v>
+      </c>
+      <c r="E8" s="7">
+        <v>-0.29508286953796514</v>
+      </c>
+      <c r="F8" s="7">
+        <v>6.7427165795956534E-2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>-0.19296771632792517</v>
+      </c>
+      <c r="H8">
+        <v>0.19948338482349337</v>
+      </c>
+      <c r="I8">
+        <v>0.15415485473465337</v>
+      </c>
+      <c r="J8">
+        <v>0.154337454571668</v>
+      </c>
+      <c r="K8">
+        <v>0.15399897242007185</v>
+      </c>
+      <c r="L8" s="7">
+        <v>-11.923702908841937</v>
+      </c>
+      <c r="M8" s="7">
+        <v>-1.9141977075317611</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0.43688141665344177</v>
+      </c>
+      <c r="O8" s="7">
+        <v>-1.2530454800799322</v>
+      </c>
+      <c r="P8">
+        <v>8.9060330376520404E-33</v>
+      </c>
+      <c r="Q8">
+        <v>5.5594898576328121E-2</v>
+      </c>
+      <c r="R8">
+        <v>0.66219734965701726</v>
+      </c>
+      <c r="S8">
+        <v>0.21018915563783622</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8" s="5">
+        <v>3.6984119830412965</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0.19158024283206032</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>1.5742611707754577</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>5.4464280973746976E-2</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>0.66160463675983749</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>0.20958926597094416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.51430644608230369</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3.1865040949890643E-2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-9.2977548644353883E-2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>6.1500671883727598E-2</v>
+      </c>
+      <c r="H9">
+        <v>9.0429584021886403E-2</v>
+      </c>
+      <c r="I9">
+        <v>2.6948262875283145E-2</v>
+      </c>
+      <c r="J9">
+        <v>2.6946149883568506E-2</v>
+      </c>
+      <c r="K9">
+        <v>2.6934048548053844E-2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>5.6873693675050818</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1.1824525052825261</v>
+      </c>
+      <c r="N9" s="7">
+        <v>-3.4504947477135004</v>
+      </c>
+      <c r="O9" s="7">
+        <v>2.2833801525976463</v>
+      </c>
+      <c r="P9">
+        <v>1.2901121939418548E-8</v>
+      </c>
+      <c r="Q9">
+        <v>0.23702620024361595</v>
+      </c>
+      <c r="R9">
+        <v>5.5956005538393785E-4</v>
+      </c>
+      <c r="S9">
+        <v>2.2407985333435236E-2</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9" s="5">
+        <v>1.3834796614855804</v>
+      </c>
+      <c r="X9" s="5">
+        <v>11.264810516578564</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>5.0592256065237962</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0.23950932254504734</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>7.8990242930598181E-4</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>2.4495180892109825E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="7">
+        <v>89.975535657523778</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1.1109278462319458</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1.4555282916396644</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.13767819382666271</v>
+      </c>
+      <c r="H10">
+        <v>7.1178858700174636</v>
+      </c>
+      <c r="I10">
+        <v>0.97583956127128535</v>
+      </c>
+      <c r="J10">
+        <v>0.97584013319144436</v>
+      </c>
+      <c r="K10">
+        <v>0.9758430397831579</v>
+      </c>
+      <c r="L10" s="7">
+        <v>12.640766837316967</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1.1384328841768547</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1.4915642861289378</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0.141086412685032</v>
+      </c>
+      <c r="P10">
+        <v>1.2582081288323103E-36</v>
+      </c>
+      <c r="Q10">
+        <v>0.2549397692665285</v>
+      </c>
+      <c r="R10">
+        <v>0.13581340658231938</v>
+      </c>
+      <c r="S10">
+        <v>0.88780167738746751</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10" s="5">
+        <v>1.2878872129658703</v>
+      </c>
+      <c r="X10" s="5">
+        <v>2.2008344890773515</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>1.9904091435364535E-2</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0.2564376757521612</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>0.13793604735928988</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>0.88780527333172976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2.1182426707084332</v>
+      </c>
+      <c r="E11" s="7">
+        <v>-0.16492105625619585</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.9580895324289516E-2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.11027927778357136</v>
+      </c>
+      <c r="H11">
+        <v>0.96391484303229524</v>
+      </c>
+      <c r="I11">
+        <v>0.23731086173964841</v>
+      </c>
+      <c r="J11">
+        <v>0.23765381638908978</v>
+      </c>
+      <c r="K11">
+        <v>0.23744608655638497</v>
+      </c>
+      <c r="L11" s="7">
+        <v>2.1975412932171885</v>
+      </c>
+      <c r="M11" s="7">
+        <v>-0.69495789213866344</v>
+      </c>
+      <c r="N11" s="7">
+        <v>8.2392513706707873E-2</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0.46443923074463461</v>
+      </c>
+      <c r="P11">
+        <v>2.7981810741710352E-2</v>
+      </c>
+      <c r="Q11">
+        <v>0.48708169050627753</v>
+      </c>
+      <c r="R11">
+        <v>0.93433458900707234</v>
+      </c>
+      <c r="S11">
+        <v>0.64233308849044257</v>
+      </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="U11">
+        <v>6</v>
+      </c>
+      <c r="V11">
+        <v>6</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0.48134757441403053</v>
+      </c>
+      <c r="X11" s="5">
+        <v>6.7897438323143433E-3</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0.21520261617706637</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>0.48781255404796875</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>0.93432871406244289</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>0.64271985140528221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2.8482621270278043</v>
+      </c>
+      <c r="E12" s="7">
+        <v>-8.3071034433747415E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-0.19295755395813052</v>
+      </c>
+      <c r="G12" s="7">
+        <v>-7.0410978564846127E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.80988710196383928</v>
+      </c>
+      <c r="I12">
+        <v>0.15256323356482554</v>
+      </c>
+      <c r="J12">
+        <v>0.1525723797779768</v>
+      </c>
+      <c r="K12">
+        <v>0.15256897812283024</v>
+      </c>
+      <c r="L12" s="7">
+        <v>3.5168631777457011</v>
+      </c>
+      <c r="M12" s="7">
+        <v>-0.54450231876115651</v>
+      </c>
+      <c r="N12" s="7">
+        <v>-1.26469518427203</v>
+      </c>
+      <c r="O12" s="7">
+        <v>-0.46150259004920158</v>
+      </c>
+      <c r="P12">
+        <v>4.3667881392756513E-4</v>
+      </c>
+      <c r="Q12">
+        <v>0.586095853202795</v>
+      </c>
+      <c r="R12">
+        <v>0.20598061693562567</v>
+      </c>
+      <c r="S12">
+        <v>0.6444380635956739</v>
+      </c>
+      <c r="T12">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <v>6</v>
+      </c>
+      <c r="V12">
+        <v>6</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0.29598002235218246</v>
+      </c>
+      <c r="X12" s="5">
+        <v>1.5838982309833227</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0.21273664294983519</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0.58641363076019704</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>0.20820007718063355</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>0.64463085510661433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="7">
+        <v>10.479743047440287</v>
+      </c>
+      <c r="E13" s="7">
+        <v>-0.14556088410201878</v>
+      </c>
+      <c r="F13" s="7">
+        <v>-1.6971748526642632</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1.0816307112751884</v>
+      </c>
+      <c r="H13">
+        <v>3.281533199636455</v>
+      </c>
+      <c r="I13">
+        <v>0.39582230486271142</v>
+      </c>
+      <c r="J13">
+        <v>0.39582452000403678</v>
+      </c>
+      <c r="K13">
+        <v>0.3958249434031616</v>
+      </c>
+      <c r="L13" s="7">
+        <v>3.1935508220978193</v>
+      </c>
+      <c r="M13" s="7">
+        <v>-0.36774300567146084</v>
+      </c>
+      <c r="N13" s="7">
+        <v>-4.2876950943992922</v>
+      </c>
+      <c r="O13" s="7">
+        <v>2.7325986633780923</v>
+      </c>
+      <c r="P13">
+        <v>1.4053459793351853E-3</v>
+      </c>
+      <c r="Q13">
+        <v>0.71306487022835807</v>
+      </c>
+      <c r="R13">
+        <v>1.805366732485785E-5</v>
+      </c>
+      <c r="S13">
+        <v>6.2836848188723695E-3</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>6</v>
+      </c>
+      <c r="V13">
+        <v>6</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0.13515686799519244</v>
+      </c>
+      <c r="X13" s="5">
+        <v>16.983403657628287</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>7.2222569015593763</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>0.71314401916160597</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>3.7707992459113918E-5</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>7.2005119358129858E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3.7611411438944193</v>
+      </c>
+      <c r="E14" s="7">
+        <v>-0.1129752115875321</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.70450027572894158</v>
+      </c>
+      <c r="G14" s="7">
+        <v>7.3767388180422527E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.40665219928702517</v>
+      </c>
+      <c r="I14">
+        <v>0.27285223701919437</v>
+      </c>
+      <c r="J14">
+        <v>0.27643875385929439</v>
+      </c>
+      <c r="K14">
+        <v>0.27299502815887811</v>
+      </c>
+      <c r="L14" s="7">
+        <v>9.2490367702148166</v>
+      </c>
+      <c r="M14" s="7">
+        <v>-0.41405272253488845</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2.5484859336601113</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0.27021513423860327</v>
+      </c>
+      <c r="P14">
+        <v>2.2652477280584467E-20</v>
+      </c>
+      <c r="Q14">
+        <v>0.67883549562095236</v>
+      </c>
+      <c r="R14">
+        <v>1.0819164990374545E-2</v>
+      </c>
+      <c r="S14">
+        <v>0.78699475019446474</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0.17026890746319623</v>
+      </c>
+      <c r="X14" s="5">
+        <v>6.4946267209514872</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>7.2823462994847432E-2</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>0.67987293163597773</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>1.082010120031226E-2</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>0.7872693248006617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-0.99673675781661852</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4.9309464074002631E-3</v>
+      </c>
+      <c r="F15" s="7">
+        <v>-0.17141237519340741</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2.3590119286712792E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.65008881550824249</v>
+      </c>
+      <c r="I15">
+        <v>0.13736928182524424</v>
+      </c>
+      <c r="J15">
+        <v>0.1375471956940463</v>
+      </c>
+      <c r="K15">
+        <v>0.13735521195955111</v>
+      </c>
+      <c r="L15" s="7">
+        <v>-1.53323166625681</v>
+      </c>
+      <c r="M15" s="7">
+        <v>3.5895553517366549E-2</v>
+      </c>
+      <c r="N15" s="7">
+        <v>-1.2462077058603889</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0.17174535243453085</v>
+      </c>
+      <c r="P15">
+        <v>0.12521878458045718</v>
+      </c>
+      <c r="Q15">
+        <v>0.97136564136345982</v>
+      </c>
+      <c r="R15">
+        <v>0.21268815076667191</v>
+      </c>
+      <c r="S15">
+        <v>0.86363772943126271</v>
+      </c>
+      <c r="T15">
+        <v>5</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15" s="5">
+        <v>1.2232125598075072E-3</v>
+      </c>
+      <c r="X15" s="5">
+        <v>1.4713143662703487</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>2.8338589848772244E-2</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>0.97210010971181171</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>0.22513843077481621</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>0.86631526007503556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="7">
+        <v>-0.65828438436390802</v>
+      </c>
+      <c r="E16" s="7">
+        <v>7.256835499888975E-2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>-6.1098889835294753E-2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>-5.1750016776591801E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.61473534107077998</v>
+      </c>
+      <c r="I16">
+        <v>0.12972535173218688</v>
+      </c>
+      <c r="J16">
+        <v>0.12970099010615527</v>
+      </c>
+      <c r="K16">
+        <v>0.12971231084512114</v>
+      </c>
+      <c r="L16" s="7">
+        <v>-1.0708419386093402</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.55939994788917125</v>
+      </c>
+      <c r="N16" s="7">
+        <v>-0.47107496855103159</v>
+      </c>
+      <c r="O16" s="7">
+        <v>-0.39895994789871769</v>
+      </c>
+      <c r="P16">
+        <v>0.28424050611116203</v>
+      </c>
+      <c r="Q16">
+        <v>0.57588879693867767</v>
+      </c>
+      <c r="R16">
+        <v>0.63758719971315025</v>
+      </c>
+      <c r="S16">
+        <v>0.68992271627418411</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <v>5</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
+      </c>
+      <c r="W16" s="5">
+        <v>0.3030343709006047</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0.21449379804198543</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>0.15410081246977825</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>0.58198636650397362</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>0.64326778192974221</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>0.69464687887223098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2.9599977494189513</v>
+      </c>
+      <c r="E17" s="7">
+        <v>6.2480808566639859E-2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.62760474952841339</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.20010604853815356</v>
+      </c>
+      <c r="H17">
+        <v>0.40248478850252212</v>
+      </c>
+      <c r="I17">
+        <v>0.20446593231214055</v>
+      </c>
+      <c r="J17">
+        <v>0.20600379087231127</v>
+      </c>
+      <c r="K17">
+        <v>0.20560294165889156</v>
+      </c>
+      <c r="L17" s="7">
+        <v>7.354309613617616</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0.30558053295282356</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3.0465689338572703</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0.97326452104047367</v>
+      </c>
+      <c r="P17">
+        <v>1.9191642820273124E-13</v>
+      </c>
+      <c r="Q17">
+        <v>0.75992404435021943</v>
+      </c>
+      <c r="R17">
+        <v>2.3146939707331332E-3</v>
+      </c>
+      <c r="S17">
+        <v>0.33042185082448627</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <v>5</v>
+      </c>
+      <c r="V17">
+        <v>5</v>
+      </c>
+      <c r="W17" s="5">
+        <v>9.309399608878266E-2</v>
+      </c>
+      <c r="X17" s="5">
+        <v>8.9590410575000305</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>0.95824866901148198</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>0.76028002387988503</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>2.760997790858353E-3</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>0.32762851913978663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1.8125766734489019</v>
+      </c>
+      <c r="E18" s="7">
+        <v>-2.0906643129859015E-2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.39168391024995453</v>
+      </c>
+      <c r="G18" s="7">
+        <v>-0.13195342644931671</v>
+      </c>
+      <c r="H18">
+        <v>0.38473826412204959</v>
+      </c>
+      <c r="I18">
+        <v>0.10834499493440281</v>
+      </c>
+      <c r="J18">
+        <v>0.10883439066049881</v>
+      </c>
+      <c r="K18">
+        <v>0.10841386389513182</v>
+      </c>
+      <c r="L18" s="7">
+        <v>4.7111941870016407</v>
+      </c>
+      <c r="M18" s="7">
+        <v>-0.19296362644639825</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3.5988983617483998</v>
+      </c>
+      <c r="O18" s="7">
+        <v>-1.2171268665136277</v>
+      </c>
+      <c r="P18">
+        <v>2.4626943538420667E-6</v>
+      </c>
+      <c r="Q18">
+        <v>0.84698745456983271</v>
+      </c>
+      <c r="R18">
+        <v>3.195680461141984E-4</v>
+      </c>
+      <c r="S18">
+        <v>0.22355595009885421</v>
+      </c>
+      <c r="T18">
+        <v>5</v>
+      </c>
+      <c r="U18">
+        <v>5</v>
+      </c>
+      <c r="V18">
+        <v>5</v>
+      </c>
+      <c r="W18" s="5">
+        <v>3.6786696975013911E-2</v>
+      </c>
+      <c r="X18" s="5">
+        <v>12.141210391529967</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>1.4476666623850178</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>0.84789997986978005</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>4.9319756487160166E-4</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>0.22890272557044761</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="7">
+        <v>-0.25264853090355222</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.79915184376489568</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.39321771189726823</v>
+      </c>
+      <c r="G19" s="7">
+        <v>-0.20107407062109678</v>
+      </c>
+      <c r="H19">
+        <v>0.20550733111084848</v>
+      </c>
+      <c r="I19">
+        <v>0.21888145692002969</v>
+      </c>
+      <c r="J19">
+        <v>0.20900498664182679</v>
+      </c>
+      <c r="K19">
+        <v>0.20632005958340016</v>
+      </c>
+      <c r="L19" s="7">
+        <v>-1.2293893825484807</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3.6510714749896471</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1.8813795700058009</v>
+      </c>
+      <c r="O19" s="7">
+        <v>-0.97457353893316989</v>
+      </c>
+      <c r="P19">
+        <v>0.21892584915446126</v>
+      </c>
+      <c r="Q19">
+        <v>2.6114854441727016E-4</v>
+      </c>
+      <c r="R19">
+        <v>5.9920303951993603E-2</v>
+      </c>
+      <c r="S19">
+        <v>0.32977184459934</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>4</v>
+      </c>
+      <c r="V19">
+        <v>4</v>
+      </c>
+      <c r="W19" s="5">
+        <v>15.294740581977976</v>
+      </c>
+      <c r="X19" s="5">
+        <v>3.7127281422364149</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>0.96950269749754625</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>9.1972227191175601E-5</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>5.3999063107217478E-2</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>0.32480423601749847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="7">
+        <v>-2.3774128245933941</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.35472245454961659</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.3406479356675719</v>
+      </c>
+      <c r="G20" s="7">
+        <v>-8.9077783096677687E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.20593040932848128</v>
+      </c>
+      <c r="I20">
+        <v>0.16529666582738872</v>
+      </c>
+      <c r="J20">
+        <v>0.16589950795763542</v>
+      </c>
+      <c r="K20">
+        <v>0.16521358793493982</v>
+      </c>
+      <c r="L20" s="7">
+        <v>-11.544738984134993</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2.1459746497248529</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2.053339035547717</v>
+      </c>
+      <c r="O20" s="7">
+        <v>-0.53916741479978036</v>
+      </c>
+      <c r="P20">
+        <v>7.8479349479493783E-31</v>
+      </c>
+      <c r="Q20">
+        <v>3.1875001262564213E-2</v>
+      </c>
+      <c r="R20">
+        <v>4.0039707484069542E-2</v>
+      </c>
+      <c r="S20">
+        <v>0.58977134218860028</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>4</v>
+      </c>
+      <c r="W20" s="5">
+        <v>4.7714993663947212</v>
+      </c>
+      <c r="X20" s="5">
+        <v>4.4072015578105379</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0.29327477173512762</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>2.8934615892927548E-2</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>3.5787503627399894E-2</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>0.58812958175891217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.52830292320013439</v>
+      </c>
+      <c r="E21" s="7">
+        <v>-2.1479678499321503E-2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>-0.12807707438936969</v>
+      </c>
+      <c r="G21" s="7">
+        <v>-2.6518248971156996E-2</v>
+      </c>
+      <c r="H21">
+        <v>8.3656797481545322E-2</v>
+      </c>
+      <c r="I21">
+        <v>3.0484998333334488E-2</v>
+      </c>
+      <c r="J21">
+        <v>3.0500170523544385E-2</v>
+      </c>
+      <c r="K21">
+        <v>3.0481939018188572E-2</v>
+      </c>
+      <c r="L21" s="7">
+        <v>6.3151224897974121</v>
+      </c>
+      <c r="M21" s="7">
+        <v>-0.70459831634086323</v>
+      </c>
+      <c r="N21" s="7">
+        <v>-4.1992248630381104</v>
+      </c>
+      <c r="O21" s="7">
+        <v>-0.86996594787928549</v>
+      </c>
+      <c r="P21">
+        <v>2.6994757741285099E-10</v>
+      </c>
+      <c r="Q21">
+        <v>0.48106024657852048</v>
+      </c>
+      <c r="R21">
+        <v>2.6783024828933174E-5</v>
+      </c>
+      <c r="S21">
+        <v>0.38431901358773124</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <v>6</v>
+      </c>
+      <c r="V21">
+        <v>6</v>
+      </c>
+      <c r="W21" s="5">
+        <v>0.49558769769919309</v>
+      </c>
+      <c r="X21" s="5">
+        <v>16.2233183559797</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>0.75276024579852674</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>0.481445291949819</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>5.6296879930996405E-5</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>0.38560372529575931</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D22" s="7">
+        <v>85.249458305325405</v>
+      </c>
+      <c r="E22" s="7">
+        <v>3.0508107432854814</v>
+      </c>
+      <c r="F22" s="7">
+        <v>3.3889488414774318</v>
+      </c>
+      <c r="G22" s="7">
+        <v>-1.5514407733788973</v>
+      </c>
+      <c r="H22">
+        <v>9.2523348041073881</v>
+      </c>
+      <c r="I22">
+        <v>1.1679900197046487</v>
+      </c>
+      <c r="J22">
+        <v>1.1680441911063706</v>
+      </c>
+      <c r="K22">
+        <v>1.1680057255813983</v>
+      </c>
+      <c r="L22" s="7">
+        <v>9.2138319797377655</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2.6120178184886753</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2.9013875222198759</v>
+      </c>
+      <c r="O22" s="7">
+        <v>-1.3282818220832235</v>
+      </c>
+      <c r="P22">
+        <v>3.1468556869739902E-20</v>
+      </c>
+      <c r="Q22">
+        <v>9.0009562715823079E-3</v>
+      </c>
+      <c r="R22">
+        <v>3.7151412533016348E-3</v>
+      </c>
+      <c r="S22">
+        <v>0.1840850226206095</v>
+      </c>
+      <c r="T22">
+        <v>6</v>
+      </c>
+      <c r="U22">
+        <v>6</v>
+      </c>
+      <c r="V22">
+        <v>6</v>
+      </c>
+      <c r="W22" s="5">
+        <v>6.58827495802052</v>
+      </c>
+      <c r="X22" s="5">
+        <v>8.065565612766477</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>1.7482009512636978</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>1.0265259345581519E-2</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>4.5114390021284952E-3</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>0.18610305777741895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3.2446046832878501</v>
+      </c>
+      <c r="E23" s="7">
+        <v>-1.0632877056636034</v>
+      </c>
+      <c r="F23" s="7">
+        <v>-0.59985761776623225</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.64486578276510553</v>
+      </c>
+      <c r="H23">
+        <v>1.3790392226793085</v>
+      </c>
+      <c r="I23">
+        <v>0.3279910333957391</v>
+      </c>
+      <c r="J23">
+        <v>0.32748794639190748</v>
+      </c>
+      <c r="K23">
+        <v>0.32806382459338967</v>
+      </c>
+      <c r="L23" s="7">
+        <v>2.3528008702928482</v>
+      </c>
+      <c r="M23" s="7">
+        <v>-3.2418194322424929</v>
+      </c>
+      <c r="N23" s="7">
+        <v>-1.8316937291132473</v>
+      </c>
+      <c r="O23" s="7">
+        <v>1.9656717212401214</v>
+      </c>
+      <c r="P23">
+        <v>1.863260921848418E-2</v>
+      </c>
+      <c r="Q23">
+        <v>1.1876924832183464E-3</v>
+      </c>
+      <c r="R23">
+        <v>6.6997063468753254E-2</v>
+      </c>
+      <c r="S23">
+        <v>4.9336543422441474E-2</v>
+      </c>
+      <c r="T23">
+        <v>6</v>
+      </c>
+      <c r="U23">
+        <v>6</v>
+      </c>
+      <c r="V23">
+        <v>6</v>
+      </c>
+      <c r="W23" s="5">
+        <v>9.91930309543568</v>
+      </c>
+      <c r="X23" s="5">
+        <v>3.2821725393603174</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>3.7924703092361369</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>1.6355429879306486E-3</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>7.0036162715816128E-2</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>5.1483613245790309E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2.9576723234707689</v>
+      </c>
+      <c r="E24" s="7">
+        <v>-2.1610121663241534E-2</v>
+      </c>
+      <c r="F24" s="7">
+        <v>-0.24043900021412018</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.11368378552006689</v>
+      </c>
+      <c r="H24">
+        <v>0.77481992837226032</v>
+      </c>
+      <c r="I24">
+        <v>0.15980573789824368</v>
+      </c>
+      <c r="J24">
+        <v>0.15929576332726789</v>
+      </c>
+      <c r="K24">
+        <v>0.15929857010122658</v>
+      </c>
+      <c r="L24" s="7">
+        <v>3.817238322308306</v>
+      </c>
+      <c r="M24" s="7">
+        <v>-0.13522744519349975</v>
+      </c>
+      <c r="N24" s="7">
+        <v>-1.5093872880984676</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0.71365226597970277</v>
+      </c>
+      <c r="P24">
+        <v>1.3495379857208768E-4</v>
+      </c>
+      <c r="Q24">
+        <v>0.89243204826448574</v>
+      </c>
+      <c r="R24">
+        <v>0.13119983969881407</v>
+      </c>
+      <c r="S24">
+        <v>0.47544222990398516</v>
+      </c>
+      <c r="T24">
+        <v>6</v>
+      </c>
+      <c r="U24">
+        <v>6</v>
+      </c>
+      <c r="V24">
+        <v>6</v>
+      </c>
+      <c r="W24" s="5">
+        <v>1.832222182224541E-2</v>
+      </c>
+      <c r="X24" s="5">
+        <v>2.2088288454833673</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0.50596914880497934</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>0.89232756313631312</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>0.13722281100815331</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>0.47688900634781095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="7">
+        <v>11.30185792758618</v>
+      </c>
+      <c r="E25" s="7">
+        <v>-0.6763536717383174</v>
+      </c>
+      <c r="F25" s="7">
+        <v>-2.859906280877428</v>
+      </c>
+      <c r="G25" s="7">
+        <v>8.652819861006289E-2</v>
+      </c>
+      <c r="H25">
+        <v>3.4261637116883352</v>
+      </c>
+      <c r="I25">
+        <v>0.4712919877957279</v>
+      </c>
+      <c r="J25">
+        <v>0.47129140144493498</v>
+      </c>
+      <c r="K25">
+        <v>0.47131186658394914</v>
+      </c>
+      <c r="L25" s="7">
+        <v>3.2986917376510543</v>
+      </c>
+      <c r="M25" s="7">
+        <v>-1.435105389551985</v>
+      </c>
+      <c r="N25" s="7">
+        <v>-6.0682335219976968</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0.18359011250282334</v>
+      </c>
+      <c r="P25">
+        <v>9.7136517093653139E-4</v>
+      </c>
+      <c r="Q25">
+        <v>0.15125706798360158</v>
+      </c>
+      <c r="R25">
+        <v>1.293247734241372E-9</v>
+      </c>
+      <c r="S25">
+        <v>0.85433502035737829</v>
+      </c>
+      <c r="T25">
+        <v>6</v>
+      </c>
+      <c r="U25">
+        <v>6</v>
+      </c>
+      <c r="V25">
+        <v>6</v>
+      </c>
+      <c r="W25" s="5">
+        <v>2.0361387433504206</v>
+      </c>
+      <c r="X25" s="5">
+        <v>31.056709623611596</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>3.3699171706302877E-2</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>0.15359911109418284</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>2.5059855811875866E-8</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>0.85434817808726593</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AE25" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <conditionalFormatting sqref="AC1:AE1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" customWidth="1"/>
+    <col min="23" max="24" width="10.42578125" customWidth="1"/>
+    <col min="25" max="26" width="12.7109375" customWidth="1"/>
+    <col min="27" max="29" width="15.7109375" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" customWidth="1"/>
+    <col min="31" max="31" width="18.85546875" customWidth="1"/>
+    <col min="32" max="32" width="15.7109375" customWidth="1"/>
+    <col min="33" max="33" width="18" customWidth="1"/>
+    <col min="34" max="34" width="18.140625" customWidth="1"/>
+    <col min="35" max="35" width="20.42578125" customWidth="1"/>
+    <col min="36" max="36" width="21" customWidth="1"/>
+    <col min="37" max="37" width="13" customWidth="1"/>
+    <col min="38" max="38" width="45" customWidth="1"/>
+    <col min="39" max="39" width="69.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39">
+      <c r="A1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K1" t="s">
+        <v>312</v>
+      </c>
+      <c r="L1" t="s">
+        <v>313</v>
+      </c>
+      <c r="M1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P1" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>318</v>
+      </c>
+      <c r="R1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V1" t="s">
+        <v>323</v>
+      </c>
+      <c r="W1" t="s">
+        <v>324</v>
+      </c>
+      <c r="X1" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2">
+        <v>3.9985287936107561E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3.0513738109876427</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.4269065158616972E-3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>-2.2971999543345603</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.1747084202210446E-2</v>
+      </c>
+      <c r="G2">
+        <v>110.32962366643117</v>
+      </c>
+      <c r="H2">
+        <v>0.05</v>
+      </c>
+      <c r="I2">
+        <v>-0.28357421855355575</v>
+      </c>
+      <c r="J2">
+        <v>0.28357421855355575</v>
+      </c>
+      <c r="K2">
+        <v>-0.5</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+      <c r="M2">
+        <v>-0.13590752269205794</v>
+      </c>
+      <c r="N2">
+        <v>0.21587809856427306</v>
+      </c>
+      <c r="O2">
+        <v>-0.17014881331559559</v>
+      </c>
+      <c r="P2">
+        <v>0.25011938918781074</v>
+      </c>
+      <c r="Q2">
+        <v>0.37708692832654134</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0.7068333327389289</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>111</v>
+      </c>
+      <c r="U2">
+        <v>0.30169688372029241</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0.58392389607473005</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>0.94122129643685903</v>
+      </c>
+      <c r="Z2">
+        <v>0.85309912946866395</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>1.2558348286809301E-2</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>3.22579172277395E-6</v>
+      </c>
+      <c r="AC2">
+        <v>1757.5</v>
+      </c>
+      <c r="AD2">
+        <v>2273</v>
+      </c>
+      <c r="AE2">
+        <v>1194</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>0.32366567352256698</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>3.7948464882868898E-5</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>1.2016102841776699E-2</v>
+      </c>
+      <c r="AI2">
+        <v>-0.28357421855355602</v>
+      </c>
+      <c r="AJ2">
+        <v>0.28357421855355602</v>
+      </c>
+      <c r="AK2">
+        <v>0.05</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3">
+        <v>-6.9899817850637591E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.9399482558997561</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.7781272875384403E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>-3.0508103333898058</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.50487017982965E-3</v>
+      </c>
+      <c r="G3">
+        <v>88.716782390903546</v>
+      </c>
+      <c r="H3">
+        <v>0.05</v>
+      </c>
+      <c r="I3">
+        <v>-0.31403819015594236</v>
+      </c>
+      <c r="J3">
+        <v>0.31403819015594236</v>
+      </c>
+      <c r="K3">
+        <v>-0.5</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <v>-0.27908556368995024</v>
+      </c>
+      <c r="N3">
+        <v>0.13928592798867506</v>
+      </c>
+      <c r="O3">
+        <v>-0.31996787155261719</v>
+      </c>
+      <c r="P3">
+        <v>0.18016823585134201</v>
+      </c>
+      <c r="Q3">
+        <v>-0.55543103874502486</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0.57999778969208426</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>101</v>
+      </c>
+      <c r="U3">
+        <v>6.3343056471271544E-2</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0.80179945297969812</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>0.85309912946866395</v>
+      </c>
+      <c r="Z3">
+        <v>0.90101077106469596</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>3.22579172277395E-6</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>1.5436141794561999E-3</v>
+      </c>
+      <c r="AC3">
+        <v>1173.5</v>
+      </c>
+      <c r="AD3">
+        <v>1603</v>
+      </c>
+      <c r="AE3">
+        <v>758</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>0.47180356107614901</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>1.5427559830303E-2</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>2.2515890764313601E-4</v>
+      </c>
+      <c r="AI3">
+        <v>-0.31403819015594198</v>
+      </c>
+      <c r="AJ3">
+        <v>0.31403819015594198</v>
+      </c>
+      <c r="AK3">
+        <v>0.05</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4">
+        <v>0.67465321563682146</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5.1739411878690778</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8.2158633134291268E-7</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-0.28604373975390401</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.38778951425917901</v>
+      </c>
+      <c r="G4">
+        <v>80.544496576789797</v>
+      </c>
+      <c r="H4">
+        <v>0.05</v>
+      </c>
+      <c r="I4">
+        <v>-0.75361572697681234</v>
+      </c>
+      <c r="J4">
+        <v>0.75361572697681234</v>
+      </c>
+      <c r="K4">
+        <v>-0.5</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.21530720985346197</v>
+      </c>
+      <c r="N4">
+        <v>1.1339992214201811</v>
+      </c>
+      <c r="O4">
+        <v>0.12535226151820977</v>
+      </c>
+      <c r="P4">
+        <v>1.2239541697554333</v>
+      </c>
+      <c r="Q4">
+        <v>2.443948724057587</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1.6712159234830493E-2</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>111</v>
+      </c>
+      <c r="U4">
+        <v>5.3085941279092905</v>
+      </c>
+      <c r="V4" s="4">
+        <v>2.3081714635647309E-2</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>0.70411085584088395</v>
+      </c>
+      <c r="Z4">
+        <v>0.67433255435148198</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>6.19259815440785E-9</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>2.3520591297111699E-10</v>
+      </c>
+      <c r="AC4">
+        <v>1733</v>
+      </c>
+      <c r="AD4">
+        <v>2384</v>
+      </c>
+      <c r="AE4">
+        <v>1082</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0.33500738960983401</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>1.0791748789722499E-6</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>1.3888333394502901E-3</v>
+      </c>
+      <c r="AI4">
+        <v>-0.75361572697681201</v>
+      </c>
+      <c r="AJ4">
+        <v>0.75361572697681201</v>
+      </c>
+      <c r="AK4">
+        <v>0.05</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5">
+        <v>-0.11787665886026488</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.1916018615241941</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.5638068927044647E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-2.7412782700977738</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3.7633360942204734E-3</v>
+      </c>
+      <c r="G5">
+        <v>81.109227622053027</v>
+      </c>
+      <c r="H5">
+        <v>0.05</v>
+      </c>
+      <c r="I5">
+        <v>-1.0578431590009665</v>
+      </c>
+      <c r="J5">
+        <v>1.0578431590009665</v>
+      </c>
+      <c r="K5">
+        <v>-0.5</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>-0.83149659061840786</v>
+      </c>
+      <c r="N5">
+        <v>0.5957432728978781</v>
+      </c>
+      <c r="O5">
+        <v>-0.9712252269566789</v>
+      </c>
+      <c r="P5">
+        <v>0.73547190923614914</v>
+      </c>
+      <c r="Q5">
+        <v>-0.27483820428678973</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0.78413940564525197</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>101</v>
+      </c>
+      <c r="U5">
+        <v>7.9003343189219477E-2</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0.77922762458431027</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>0.67433255435148198</v>
+      </c>
+      <c r="Z5">
+        <v>0.54745082760812303</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>2.3520591297111699E-10</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>3.4838188850731798E-10</v>
+      </c>
+      <c r="AC5">
+        <v>1242.5</v>
+      </c>
+      <c r="AD5">
+        <v>1968</v>
+      </c>
+      <c r="AE5">
+        <v>376</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0.77245757111241498</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>9.85170757818442E-7</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>1.84195352635416E-10</v>
+      </c>
+      <c r="AI5">
+        <v>-1.05784315900097</v>
+      </c>
+      <c r="AJ5">
+        <v>1.05784315900097</v>
+      </c>
+      <c r="AK5">
+        <v>0.05</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6">
+        <v>0.75</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6.2196404951264466</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.4421853353023683E-8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.73591036590315373</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.76791787650859722</v>
+      </c>
+      <c r="G6">
+        <v>72.357296303619307</v>
+      </c>
+      <c r="H6">
+        <v>0.05</v>
+      </c>
+      <c r="I6">
+        <v>-0.59129717819483674</v>
+      </c>
+      <c r="J6">
+        <v>0.59129717819483674</v>
+      </c>
+      <c r="K6">
+        <v>-0.5</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.39067839757420153</v>
+      </c>
+      <c r="N6">
+        <v>1.1093216024257986</v>
+      </c>
+      <c r="O6">
+        <v>0.32013568497467815</v>
+      </c>
+      <c r="P6">
+        <v>1.1798643150253219</v>
+      </c>
+      <c r="Q6">
+        <v>3.4777754305148005</v>
+      </c>
+      <c r="R6" s="4">
+        <v>8.5946007070138272E-4</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>111</v>
+      </c>
+      <c r="U6">
+        <v>10.574180114523703</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1.5190777944023108E-3</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>0.54916174065912404</v>
+      </c>
+      <c r="Z6">
+        <v>0.68538439277810803</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>2.1332510121436199E-11</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>3.7733242716578402E-10</v>
+      </c>
+      <c r="AC6">
+        <v>1919</v>
+      </c>
+      <c r="AD6">
+        <v>2711</v>
+      </c>
+      <c r="AE6">
+        <v>1127</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>1.9064032072965201E-2</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>6.5340509637019897E-12</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>2.8943661686056002E-3</v>
+      </c>
+      <c r="AI6">
+        <v>-0.59129717819483696</v>
+      </c>
+      <c r="AJ6">
+        <v>0.59129717819483696</v>
+      </c>
+      <c r="AK6">
+        <v>0.05</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7">
+        <v>0.1904761904761898</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.9384507456730842</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.2051162779394245E-3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-1.9364986354770635</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.8334834477521997E-2</v>
+      </c>
+      <c r="G7">
+        <v>73.151775211433673</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7">
+        <v>-0.92675266356200992</v>
+      </c>
+      <c r="J7">
+        <v>0.92675266356200992</v>
+      </c>
+      <c r="K7">
+        <v>-0.5</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>-0.44293562264360631</v>
+      </c>
+      <c r="N7">
+        <v>0.82388800359598591</v>
+      </c>
+      <c r="O7">
+        <v>-0.56725509725854983</v>
+      </c>
+      <c r="P7">
+        <v>0.94820747821092943</v>
+      </c>
+      <c r="Q7">
+        <v>0.50097605509801058</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0.61789212833116269</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>101</v>
+      </c>
+      <c r="U7">
+        <v>0.27580649674043467</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0.60061403559802518</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <v>0.68538439277810803</v>
+      </c>
+      <c r="Z7">
+        <v>0.62898637230571997</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>3.7733242716578402E-10</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>4.5278256704331196E-9</v>
+      </c>
+      <c r="AC7">
+        <v>1344.5</v>
+      </c>
+      <c r="AD7">
+        <v>1822</v>
+      </c>
+      <c r="AE7">
+        <v>867</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>0.633896646506102</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>8.9475752263217098E-5</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>2.0746160916901902E-3</v>
+      </c>
+      <c r="AI7">
+        <v>-0.92675266356201003</v>
+      </c>
+      <c r="AJ7">
+        <v>0.92675266356201003</v>
+      </c>
+      <c r="AK7">
+        <v>0.05</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8">
+        <v>1.1733921815889019</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7.4688617833887063</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8.9609265837363668E-11</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.9767040649763077</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.97397924212901543</v>
+      </c>
+      <c r="G8">
+        <v>69.547078353589626</v>
+      </c>
+      <c r="H8">
+        <v>0.05</v>
+      </c>
+      <c r="I8">
+        <v>-0.68227304010100753</v>
+      </c>
+      <c r="J8">
+        <v>0.68227304010100753</v>
+      </c>
+      <c r="K8">
+        <v>-0.5</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.75920518552765814</v>
+      </c>
+      <c r="N8">
+        <v>1.5875791776501456</v>
+      </c>
+      <c r="O8">
+        <v>0.6778104599908823</v>
+      </c>
+      <c r="P8">
+        <v>1.6689739031869215</v>
+      </c>
+      <c r="Q8">
+        <v>4.722782924182507</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1.1705602127149507E-5</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>111</v>
+      </c>
+      <c r="U8">
+        <v>19.387509805874508</v>
+      </c>
+      <c r="V8" s="4">
+        <v>2.4672502361596197E-5</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <v>0.56893794679207599</v>
+      </c>
+      <c r="Z8">
+        <v>0.77622042561249704</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>4.05271763227773E-11</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>2.99443601824319E-8</v>
+      </c>
+      <c r="AC8">
+        <v>2112.5</v>
+      </c>
+      <c r="AD8">
+        <v>2762</v>
+      </c>
+      <c r="AE8">
+        <v>1463</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>4.9624824748564496E-4</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>1.29710150759436E-12</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>0.232914933695968</v>
+      </c>
+      <c r="AI8">
+        <v>-0.68227304010100798</v>
+      </c>
+      <c r="AJ8">
+        <v>0.68227304010100798</v>
+      </c>
+      <c r="AK8">
+        <v>0.05</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="15" customHeight="1">
+      <c r="A9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9">
+        <v>-6.1670569867290581E-2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.3332273474893346</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0930811402754405E-2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>-2.6690706384376401</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4.5104120794851946E-3</v>
+      </c>
+      <c r="G9">
+        <v>90.124620770799282</v>
+      </c>
+      <c r="H9">
+        <v>0.05</v>
+      </c>
+      <c r="I9">
+        <v>-0.91856700953303139</v>
+      </c>
+      <c r="J9">
+        <v>0.91856700953303139</v>
+      </c>
+      <c r="K9">
+        <v>-0.5</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>-0.67203031740654018</v>
+      </c>
+      <c r="N9">
+        <v>0.54868917767195902</v>
+      </c>
+      <c r="O9">
+        <v>-0.79127896956970833</v>
+      </c>
+      <c r="P9">
+        <v>0.66793782983512717</v>
+      </c>
+      <c r="Q9">
+        <v>-0.16792164547415259</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0.86702116898579051</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>101</v>
+      </c>
+      <c r="U9">
+        <v>0.55167516447148668</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0.45935807652483163</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <v>0.77622042561249704</v>
+      </c>
+      <c r="Z9">
+        <v>0.75769749954746901</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>2.99443601824319E-8</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>6.2263491499700097E-7</v>
+      </c>
+      <c r="AC9">
+        <v>1311</v>
+      </c>
+      <c r="AD9">
+        <v>1652</v>
+      </c>
+      <c r="AE9">
+        <v>970</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>0.83375271606782198</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>5.6963578551337398E-3</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>1.69763680173192E-2</v>
+      </c>
+      <c r="AI9">
+        <v>-0.91856700953303105</v>
+      </c>
+      <c r="AJ9">
+        <v>0.91856700953303105</v>
+      </c>
+      <c r="AK9">
+        <v>0.05</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10">
+        <v>0.65353089533417474</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4.9419429377646154</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.8030019966681728E-6</v>
+      </c>
+      <c r="E10" s="5">
+        <v>-0.4937238076985469</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.31135854475123215</v>
+      </c>
+      <c r="G10">
+        <v>89.0296832455697</v>
+      </c>
+      <c r="H10">
+        <v>0.05</v>
+      </c>
+      <c r="I10">
+        <v>-0.79860637505238585</v>
+      </c>
+      <c r="J10">
+        <v>0.79860637505238585</v>
+      </c>
+      <c r="K10">
+        <v>-0.5</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.16512597778960114</v>
+      </c>
+      <c r="N10">
+        <v>1.1419358128787485</v>
+      </c>
+      <c r="O10">
+        <v>6.968106014948483E-2</v>
+      </c>
+      <c r="P10">
+        <v>1.2373807305188647</v>
+      </c>
+      <c r="Q10">
+        <v>2.224109565033034</v>
+      </c>
+      <c r="R10" s="4">
+        <v>2.8670518668701149E-2</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>111</v>
+      </c>
+      <c r="U10">
+        <v>9.8740099121298215</v>
+      </c>
+      <c r="V10" s="4">
+        <v>2.1497709163132181E-3</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+      <c r="Y10">
+        <v>0.64361187786908403</v>
+      </c>
+      <c r="Z10">
+        <v>0.74224265669484502</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>5.5754604875716204E-10</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>5.1987228032521698E-9</v>
+      </c>
+      <c r="AC10">
+        <v>1774</v>
+      </c>
+      <c r="AD10">
+        <v>2221</v>
+      </c>
+      <c r="AE10">
+        <v>1327</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>0.252084171841025</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>1.0035267630076201E-4</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>6.49124815475383E-2</v>
+      </c>
+      <c r="AI10">
+        <v>-0.79860637505238596</v>
+      </c>
+      <c r="AJ10">
+        <v>0.79860637505238596</v>
+      </c>
+      <c r="AK10">
+        <v>0.05</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11">
+        <v>0.18071818891490921</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.875312385216735</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.5782094020295925E-3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-2.0562157803808447</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2.1492400646834744E-2</v>
+      </c>
+      <c r="G11">
+        <v>80.924696593070991</v>
+      </c>
+      <c r="H11">
+        <v>0.05</v>
+      </c>
+      <c r="I11">
+        <v>-1.0880485078414146</v>
+      </c>
+      <c r="J11">
+        <v>1.0880485078414146</v>
+      </c>
+      <c r="K11">
+        <v>-0.5</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>-0.55349880776772631</v>
+      </c>
+      <c r="N11">
+        <v>0.91493518559754472</v>
+      </c>
+      <c r="O11">
+        <v>-0.69726757995560473</v>
+      </c>
+      <c r="P11">
+        <v>1.0587039577854231</v>
+      </c>
+      <c r="Q11">
+        <v>0.40954830241794504</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0.68321937032496272</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>101</v>
+      </c>
+      <c r="U11">
+        <v>0.68064954312335935</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0.41130745289585058</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+      <c r="Y11">
+        <v>0.74224265669484502</v>
+      </c>
+      <c r="Z11">
+        <v>0.76200523592639102</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>5.1987228032521698E-9</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>7.5301352778970203E-7</v>
+      </c>
+      <c r="AC11">
+        <v>1290.5</v>
+      </c>
+      <c r="AD11">
+        <v>2007</v>
+      </c>
+      <c r="AE11">
+        <v>667</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>0.94982042596923599</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>4.2643228660072002E-7</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>1.5712167873456199E-5</v>
+      </c>
+      <c r="AI11">
+        <v>-1.0880485078414099</v>
+      </c>
+      <c r="AJ11">
+        <v>1.0880485078414099</v>
+      </c>
+      <c r="AK11">
+        <v>0.05</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12">
+        <v>0.76607818411097028</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5.2889869071109521</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3.2751133124263689E-7</v>
+      </c>
+      <c r="E12" s="5">
+        <v>-8.247309071907008E-2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.46721213098530751</v>
+      </c>
+      <c r="G12">
+        <v>107.23600512933311</v>
+      </c>
+      <c r="H12">
+        <v>0.05</v>
+      </c>
+      <c r="I12">
+        <v>-0.79034810360188557</v>
+      </c>
+      <c r="J12">
+        <v>0.79034810360188557</v>
+      </c>
+      <c r="K12">
+        <v>-0.5</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.27781777394855162</v>
+      </c>
+      <c r="N12">
+        <v>1.2543385942733889</v>
+      </c>
+      <c r="O12">
+        <v>0.18272337687390894</v>
+      </c>
+      <c r="P12">
+        <v>1.3494329913480316</v>
+      </c>
+      <c r="Q12">
+        <v>2.6032569081959411</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1.0541549859238886E-2</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>111</v>
+      </c>
+      <c r="U12">
+        <v>5.5602409726112301</v>
+      </c>
+      <c r="V12" s="4">
+        <v>2.0123177450616626E-2</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>0.90911891758954899</v>
+      </c>
+      <c r="Z12">
+        <v>0.91640526138255995</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>7.5933488334995196E-4</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>4.9270776155587695E-4</v>
+      </c>
+      <c r="AC12">
+        <v>1944.5</v>
+      </c>
+      <c r="AD12">
+        <v>2236</v>
+      </c>
+      <c r="AE12">
+        <v>1653</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>3.5157105023810503E-2</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>8.4269507800861394E-5</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>0.65209148442326204</v>
+      </c>
+      <c r="AI12">
+        <v>-0.79034810360188601</v>
+      </c>
+      <c r="AJ12">
+        <v>0.79034810360188601</v>
+      </c>
+      <c r="AK12">
+        <v>0.05</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13">
+        <v>2.146760343481624E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2.542192231636915</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6.4028833936723246E-3</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-2.4278147367231568</v>
+      </c>
+      <c r="F13" s="4">
+        <v>8.6366221065086578E-3</v>
+      </c>
+      <c r="G13">
+        <v>86.075360374295897</v>
+      </c>
+      <c r="H13">
+        <v>0.05</v>
+      </c>
+      <c r="I13">
+        <v>-0.93282458009310176</v>
+      </c>
+      <c r="J13">
+        <v>0.93282458009310176</v>
+      </c>
+      <c r="K13">
+        <v>-0.5</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>-0.60269799799930279</v>
+      </c>
+      <c r="N13">
+        <v>0.64563320486893527</v>
+      </c>
+      <c r="O13">
+        <v>-0.72475699608770494</v>
+      </c>
+      <c r="P13">
+        <v>0.76769220295733742</v>
+      </c>
+      <c r="Q13">
+        <v>5.7188747456879074E-2</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0.95452739119840135</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>101</v>
+      </c>
+      <c r="U13">
+        <v>1.0978425659598178E-3</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0.97363335448838717</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>0.91640526138255995</v>
+      </c>
+      <c r="Z13">
+        <v>0.90575906673836004</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>4.9270776155587695E-4</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>2.15071882164075E-3</v>
+      </c>
+      <c r="AC13">
+        <v>1283</v>
+      </c>
+      <c r="AD13">
+        <v>1491</v>
+      </c>
+      <c r="AE13">
+        <v>1075</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>0.99184639590406398</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>7.9005715823434797E-2</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>8.30513373946275E-2</v>
+      </c>
+      <c r="AI13">
+        <v>-0.93282458009310198</v>
+      </c>
+      <c r="AJ13">
+        <v>0.93282458009310198</v>
+      </c>
+      <c r="AK13">
+        <v>0.05</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14">
+        <v>0.29003783102143776</v>
+      </c>
+      <c r="C14" s="5">
+        <v>4.0587837270804599</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4.6061804875925313E-5</v>
+      </c>
+      <c r="E14" s="5">
+        <v>-1.269813221129108</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.10340377741441072</v>
+      </c>
+      <c r="G14">
+        <v>110.96731694704435</v>
+      </c>
+      <c r="H14">
+        <v>0.05</v>
+      </c>
+      <c r="I14">
+        <v>-0.55414522955629775</v>
+      </c>
+      <c r="J14">
+        <v>0.55414522955629775</v>
+      </c>
+      <c r="K14">
+        <v>-0.5</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>-5.4954092497116469E-2</v>
+      </c>
+      <c r="N14">
+        <v>0.635029754539992</v>
+      </c>
+      <c r="O14">
+        <v>-0.12210793267283138</v>
+      </c>
+      <c r="P14">
+        <v>0.7021835947157069</v>
+      </c>
+      <c r="Q14">
+        <v>1.3944852529756757</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0.16595665416017155</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>111</v>
+      </c>
+      <c r="U14">
+        <v>3.7578647902364399</v>
+      </c>
+      <c r="V14" s="4">
+        <v>5.5098876395085809E-2</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <v>0.79767619369083098</v>
+      </c>
+      <c r="Z14">
+        <v>0.81070967770246305</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>5.2556084419065499E-7</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>2.1183021462031999E-7</v>
+      </c>
+      <c r="AC14">
+        <v>1780.5</v>
+      </c>
+      <c r="AD14">
+        <v>2233</v>
+      </c>
+      <c r="AE14">
+        <v>1328</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>0.23899360247617901</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>8.0313795606102906E-5</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>6.6394643938510897E-2</v>
+      </c>
+      <c r="AI14">
+        <v>-0.55414522955629797</v>
+      </c>
+      <c r="AJ14">
+        <v>0.55414522955629797</v>
+      </c>
+      <c r="AK14">
+        <v>0.05</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15">
+        <v>0.81069476971116317</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6.5693798721304901</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.1299308766763199E-9</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1.4378947598866085</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.9232155555046051</v>
+      </c>
+      <c r="G15">
+        <v>100.55191804512006</v>
+      </c>
+      <c r="H15">
+        <v>0.05</v>
+      </c>
+      <c r="I15">
+        <v>-0.5195360884354806</v>
+      </c>
+      <c r="J15">
+        <v>0.5195360884354806</v>
+      </c>
+      <c r="K15">
+        <v>-0.5</v>
+      </c>
+      <c r="L15">
+        <v>0.5</v>
+      </c>
+      <c r="M15">
+        <v>0.47453190080407165</v>
+      </c>
+      <c r="N15">
+        <v>1.1468576386182547</v>
+      </c>
+      <c r="O15">
+        <v>0.40898824498218012</v>
+      </c>
+      <c r="P15">
+        <v>1.2124012944401463</v>
+      </c>
+      <c r="Q15">
+        <v>4.0036373160085494</v>
+      </c>
+      <c r="R15" s="4">
+        <v>1.1953468713087794E-4</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>101</v>
+      </c>
+      <c r="U15">
+        <v>8.944749650849511</v>
+      </c>
+      <c r="V15" s="4">
+        <v>3.4961256996067073E-3</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+      <c r="Y15">
+        <v>0.81070967770246305</v>
+      </c>
+      <c r="Z15">
+        <v>0.83221839148521204</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>2.1183021462031999E-7</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>2.3246499920329401E-5</v>
+      </c>
+      <c r="AC15">
+        <v>1785.5</v>
+      </c>
+      <c r="AD15">
+        <v>2046</v>
+      </c>
+      <c r="AE15">
+        <v>1525</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>4.7272949174185998E-4</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>9.9852531491331698E-8</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>0.95183613766124897</v>
+      </c>
+      <c r="AI15">
+        <v>-0.51953608843548105</v>
+      </c>
+      <c r="AJ15">
+        <v>0.51953608843548105</v>
+      </c>
+      <c r="AK15">
+        <v>0.05</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16">
+        <v>-0.33890290037831022</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.5677718962071</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.28567781538054349</v>
+      </c>
+      <c r="E16" s="5">
+        <v>-4.7915379275893581</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2.6250144342016247E-6</v>
+      </c>
+      <c r="G16">
+        <v>109.17721096509777</v>
+      </c>
+      <c r="H16">
+        <v>0.05</v>
+      </c>
+      <c r="I16">
+        <v>-0.43001568501089482</v>
+      </c>
+      <c r="J16">
+        <v>0.43001568501089482</v>
+      </c>
+      <c r="K16">
+        <v>-0.5</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>-0.60511855329805631</v>
+      </c>
+      <c r="N16">
+        <v>-7.2687247458564141E-2</v>
+      </c>
+      <c r="O16">
+        <v>-0.65695190648833957</v>
+      </c>
+      <c r="P16">
+        <v>-2.0853894268280881E-2</v>
+      </c>
+      <c r="Q16">
+        <v>-2.111883015691129</v>
+      </c>
+      <c r="R16" s="4">
+        <v>3.6977433512188733E-2</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>111</v>
+      </c>
+      <c r="U16">
+        <v>6.95167239994763</v>
+      </c>
+      <c r="V16" s="4">
+        <v>9.5738283909953901E-3</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>2</v>
+      </c>
+      <c r="Y16">
+        <v>0.68219102462393</v>
+      </c>
+      <c r="Z16">
+        <v>0.78015586288032501</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>2.5010934417763498E-9</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>3.70669061634763E-8</v>
+      </c>
+      <c r="AC16">
+        <v>1298.5</v>
+      </c>
+      <c r="AD16">
+        <v>1933</v>
+      </c>
+      <c r="AE16">
+        <v>664</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>6.5280111033136107E-2</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>2.0310970079014799E-2</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>2.5920609206081699E-8</v>
+      </c>
+      <c r="AI16">
+        <v>-0.43001568501089499</v>
+      </c>
+      <c r="AJ16">
+        <v>0.43001568501089499</v>
+      </c>
+      <c r="AK16">
+        <v>0.05</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17">
+        <v>0.36729117876658862</v>
+      </c>
+      <c r="C17" s="5">
+        <v>4.9111188979944069</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.7532933210375448E-6</v>
+      </c>
+      <c r="E17" s="5">
+        <v>-0.27492170782897291</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.39196980661800213</v>
+      </c>
+      <c r="G17">
+        <v>100.70742655157488</v>
+      </c>
+      <c r="H17">
+        <v>0.05</v>
+      </c>
+      <c r="I17">
+        <v>-0.41085115432208219</v>
+      </c>
+      <c r="J17">
+        <v>0.41085115432208219</v>
+      </c>
+      <c r="K17">
+        <v>-0.5</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.10425259538907522</v>
+      </c>
+      <c r="N17">
+        <v>0.63032976214410197</v>
+      </c>
+      <c r="O17">
+        <v>5.2967809610542038E-2</v>
+      </c>
+      <c r="P17">
+        <v>0.68161454792263521</v>
+      </c>
+      <c r="Q17">
+        <v>2.3180985950827169</v>
+      </c>
+      <c r="R17" s="4">
+        <v>2.2466273860914057E-2</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>101</v>
+      </c>
+      <c r="U17">
+        <v>8.5820323428342675</v>
+      </c>
+      <c r="V17" s="4">
+        <v>4.1972538856665841E-3</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <v>0.78015586288032501</v>
+      </c>
+      <c r="Z17">
+        <v>0.68812166744955405</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>3.70669061634763E-8</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>3.7021831461991001E-8</v>
+      </c>
+      <c r="AC17">
+        <v>1517</v>
+      </c>
+      <c r="AD17">
+        <v>2031</v>
+      </c>
+      <c r="AE17">
+        <v>1003</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>7.9630285155830496E-2</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>1.2671387067975901E-7</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>2.81518203288663E-2</v>
+      </c>
+      <c r="AI17">
+        <v>-0.41085115432208202</v>
+      </c>
+      <c r="AJ17">
+        <v>0.41085115432208202</v>
+      </c>
+      <c r="AK17">
+        <v>0.05</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39">
+      <c r="A18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18">
+        <v>1.7906188986232792</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3.3938257847641742</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5.0381732639982085E-4</v>
+      </c>
+      <c r="E18" s="5">
+        <v>-1.6616693029065472</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4.9941816089292324E-2</v>
+      </c>
+      <c r="G18">
+        <v>94.772384476181031</v>
+      </c>
+      <c r="H18">
+        <v>0.05</v>
+      </c>
+      <c r="I18">
+        <v>-5.2261242795871174</v>
+      </c>
+      <c r="J18">
+        <v>5.2261242795871174</v>
+      </c>
+      <c r="K18">
+        <v>-0.5</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>-1.6436910567482914</v>
+      </c>
+      <c r="N18">
+        <v>5.2249288539948502</v>
+      </c>
+      <c r="O18">
+        <v>-2.3140195964522521</v>
+      </c>
+      <c r="P18">
+        <v>5.8952573936988104</v>
+      </c>
+      <c r="Q18">
+        <v>0.86607824092881336</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0.3886345315943398</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>79</v>
+      </c>
+      <c r="U18">
+        <v>8.1637705884806747E-2</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0.77583803273557872</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <v>0.71737932952885797</v>
+      </c>
+      <c r="Z18">
+        <v>0.851745898767441</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>3.4452099082089898E-8</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>3.0628891515878501E-4</v>
+      </c>
+      <c r="AC18">
+        <v>960</v>
+      </c>
+      <c r="AD18">
+        <v>1228</v>
+      </c>
+      <c r="AE18">
+        <v>573</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>0.124556483777452</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>2.0605084979655101E-5</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>1.54657674277578E-2</v>
+      </c>
+      <c r="AI18">
+        <v>-5.2261242795871201</v>
+      </c>
+      <c r="AJ18">
+        <v>5.2261242795871201</v>
+      </c>
+      <c r="AK18">
+        <v>0.05</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39">
+      <c r="A19" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19">
+        <v>7.4191840958605724</v>
+      </c>
+      <c r="C19" s="5">
+        <v>5.0894580058495631</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1.6785804464421047E-6</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.35698057309447934</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.63886222318085983</v>
+      </c>
+      <c r="G19">
+        <v>64.283995568449484</v>
+      </c>
+      <c r="H19">
+        <v>0.05</v>
+      </c>
+      <c r="I19">
+        <v>-6.4466202627998692</v>
+      </c>
+      <c r="J19">
+        <v>6.4466202627998692</v>
+      </c>
+      <c r="K19">
+        <v>-0.5</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>2.8723921745854311</v>
+      </c>
+      <c r="N19">
+        <v>11.965976017135713</v>
+      </c>
+      <c r="O19">
+        <v>1.9769991153574145</v>
+      </c>
+      <c r="P19">
+        <v>12.861369076363729</v>
+      </c>
+      <c r="Q19">
+        <v>2.7232192894720213</v>
+      </c>
+      <c r="R19" s="4">
+        <v>8.3139034437275262E-3</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>59</v>
+      </c>
+      <c r="U19">
+        <v>4.7469567381074835</v>
+      </c>
+      <c r="V19" s="4">
+        <v>3.3356670725184508E-2</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19">
+        <v>0.851745898767441</v>
+      </c>
+      <c r="Z19">
+        <v>0.91466414864429901</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>3.0628891515878501E-4</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>2.94203074760849E-2</v>
+      </c>
+      <c r="AC19">
+        <v>588</v>
+      </c>
+      <c r="AD19">
+        <v>731</v>
+      </c>
+      <c r="AE19">
+        <v>433</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>6.2048643336102001E-2</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>4.0352973794775498E-5</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>0.35559039740089199</v>
+      </c>
+      <c r="AI19">
+        <v>-6.4466202627998701</v>
+      </c>
+      <c r="AJ19">
+        <v>6.4466202627998701</v>
+      </c>
+      <c r="AK19">
+        <v>0.05</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
+      <c r="A20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20">
+        <v>-0.36218421052631555</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1.8918179029201594</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3.0589726756108201E-2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>-3.4717194368690127</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3.7169092442357403E-4</v>
+      </c>
+      <c r="G20">
+        <v>108.57572415428217</v>
+      </c>
+      <c r="H20">
+        <v>0.05</v>
+      </c>
+      <c r="I20">
+        <v>-1.2295630425679704</v>
+      </c>
+      <c r="J20">
+        <v>1.2295630425679704</v>
+      </c>
+      <c r="K20">
+        <v>-0.5</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>-1.1228225958873654</v>
+      </c>
+      <c r="N20">
+        <v>0.39845417483473433</v>
+      </c>
+      <c r="O20">
+        <v>-1.2709355467993599</v>
+      </c>
+      <c r="P20">
+        <v>0.54656712574672883</v>
+      </c>
+      <c r="Q20">
+        <v>-0.78995076697442679</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0.43127838133033869</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>74</v>
+      </c>
+      <c r="U20">
+        <v>0.33401651865866577</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0.56505811529985117</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <v>0.802422312272843</v>
+      </c>
+      <c r="Z20">
+        <v>0.72428728753212201</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>1.1715766629819701E-5</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>4.1435031563182801E-7</v>
+      </c>
+      <c r="AC20">
+        <v>667</v>
+      </c>
+      <c r="AD20">
+        <v>1060</v>
+      </c>
+      <c r="AE20">
+        <v>386</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>0.57126030514711901</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>2.27264877504174E-4</v>
+      </c>
+      <c r="AH20" s="4">
+        <v>2.45667544947192E-4</v>
+      </c>
+      <c r="AI20">
+        <v>-1.22956304256797</v>
+      </c>
+      <c r="AJ20">
+        <v>1.22956304256797</v>
+      </c>
+      <c r="AK20">
+        <v>0.05</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39">
+      <c r="A21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B21">
+        <v>-1.4908197368421052</v>
+      </c>
+      <c r="C21" s="5">
+        <v>-9.0661422425184504E-2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.53601320530693763</v>
+      </c>
+      <c r="E21" s="5">
+        <v>-5.0565595637678955</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1.2009567178824521E-6</v>
+      </c>
+      <c r="G21">
+        <v>85.538505596308127</v>
+      </c>
+      <c r="H21">
+        <v>0.05</v>
+      </c>
+      <c r="I21">
+        <v>-1.4383021401489779</v>
+      </c>
+      <c r="J21">
+        <v>1.4383021401489779</v>
+      </c>
+      <c r="K21">
+        <v>-0.5</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>-2.4540693051662776</v>
+      </c>
+      <c r="N21">
+        <v>-0.52757016851793259</v>
+      </c>
+      <c r="O21">
+        <v>-2.6424624118762496</v>
+      </c>
+      <c r="P21">
+        <v>-0.33917706180796081</v>
+      </c>
+      <c r="Q21">
+        <v>-2.57361049309654</v>
+      </c>
+      <c r="R21" s="4">
+        <v>1.1787203957279247E-2</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>56</v>
+      </c>
+      <c r="U21">
+        <v>1.8595888019282738</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0.17812909841794908</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <v>3</v>
+      </c>
+      <c r="Y21">
+        <v>0.72428728753212201</v>
+      </c>
+      <c r="Z21">
+        <v>0.86303221105567396</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>4.1435031563182801E-7</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>8.8829581741595408E-3</v>
+      </c>
+      <c r="AC21">
+        <v>246</v>
+      </c>
+      <c r="AD21">
+        <v>419</v>
+      </c>
+      <c r="AE21">
+        <v>142</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>2.8964785892713001E-2</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>0.26440201227045401</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>5.1095108289549702E-5</v>
+      </c>
+      <c r="AI21">
+        <v>-1.4383021401489799</v>
+      </c>
+      <c r="AJ21">
+        <v>1.4383021401489799</v>
+      </c>
+      <c r="AK21">
+        <v>0.05</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39">
+      <c r="A22" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22">
+        <v>-0.14719655521783181</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.155320129106705</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.6783828493192907E-2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>-3.1022418710793791</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1.2522866853671051E-3</v>
+      </c>
+      <c r="G22">
+        <v>98.733027079177845</v>
+      </c>
+      <c r="H22">
+        <v>0.05</v>
+      </c>
+      <c r="I22">
+        <v>-0.81727452329835504</v>
+      </c>
+      <c r="J22">
+        <v>0.81727452329835504</v>
+      </c>
+      <c r="K22">
+        <v>-0.5</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>-0.66341683088290238</v>
+      </c>
+      <c r="N22">
+        <v>0.36902372044723875</v>
+      </c>
+      <c r="O22">
+        <v>-0.7641000590642717</v>
+      </c>
+      <c r="P22">
+        <v>0.46970694862860807</v>
+      </c>
+      <c r="Q22">
+        <v>-0.47346087098633705</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0.63692959798849424</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>87</v>
+      </c>
+      <c r="U22">
+        <v>0.26435723740621719</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0.60844591475329057</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <v>0.85112252492068896</v>
+      </c>
+      <c r="Z22">
+        <v>0.901115796525221</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>6.6647900898716495E-5</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>7.8185605777477004E-4</v>
+      </c>
+      <c r="AC22">
+        <v>885</v>
+      </c>
+      <c r="AD22">
+        <v>1241</v>
+      </c>
+      <c r="AE22">
+        <v>537</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>0.404173325996046</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>1.86063417239077E-2</v>
+      </c>
+      <c r="AH22" s="4">
+        <v>1.10257651789684E-4</v>
+      </c>
+      <c r="AI22">
+        <v>-0.81727452329835504</v>
+      </c>
+      <c r="AJ22">
+        <v>0.81727452329835504</v>
+      </c>
+      <c r="AK22">
+        <v>0.05</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39">
+      <c r="A23" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23">
+        <v>0.37098226950354585</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3.9561949819211879</v>
+      </c>
+      <c r="D23" s="4">
+        <v>7.1950440637591546E-5</v>
+      </c>
+      <c r="E23" s="5">
+        <v>-1.1293947934047639</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.13074060378953725</v>
+      </c>
+      <c r="G23">
+        <v>98.251052253189187</v>
+      </c>
+      <c r="H23">
+        <v>0.05</v>
+      </c>
+      <c r="I23">
+        <v>-0.66742023163816822</v>
+      </c>
+      <c r="J23">
+        <v>0.66742023163816822</v>
+      </c>
+      <c r="K23">
+        <v>-0.5</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>-6.4860376527432095E-2</v>
+      </c>
+      <c r="N23">
+        <v>0.80682491553452373</v>
+      </c>
+      <c r="O23">
+        <v>-0.14987430337295515</v>
+      </c>
+      <c r="P23">
+        <v>0.89183884238004685</v>
+      </c>
+      <c r="Q23">
+        <v>1.4134000942582123</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0.16069857944336002</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>66</v>
+      </c>
+      <c r="U23">
+        <v>0.83932262998114204</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0.36292598752985827</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Y23">
+        <v>0.901115796525221</v>
+      </c>
+      <c r="Z23">
+        <v>0.92863820928837004</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>7.8185605777477004E-4</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>0.12926357916876399</v>
+      </c>
+      <c r="AC23">
+        <v>554</v>
+      </c>
+      <c r="AD23">
+        <v>715</v>
+      </c>
+      <c r="AE23">
+        <v>373</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>0.42576144329431098</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>1.6750172452263501E-3</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>5.5587805711066501E-2</v>
+      </c>
+      <c r="AI23">
+        <v>-0.66742023163816799</v>
+      </c>
+      <c r="AJ23">
+        <v>0.66742023163816799</v>
+      </c>
+      <c r="AK23">
+        <v>0.05</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
+      <c r="A24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24">
+        <v>0.35542992802706763</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3.0986291848299952</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1.2327840762436162E-3</v>
+      </c>
+      <c r="E24" s="5">
+        <v>-2.2469335376852571</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1.3315096337891122E-2</v>
+      </c>
+      <c r="G24">
+        <v>110.55294602092269</v>
+      </c>
+      <c r="H24">
+        <v>0.05</v>
+      </c>
+      <c r="I24">
+        <v>-2.2308121217917742</v>
+      </c>
+      <c r="J24">
+        <v>2.2308121217917742</v>
+      </c>
+      <c r="K24">
+        <v>-0.5</v>
+      </c>
+      <c r="L24">
+        <v>0.5</v>
+      </c>
+      <c r="M24">
+        <v>-1.0290334477451843</v>
+      </c>
+      <c r="N24">
+        <v>1.7398933037993196</v>
+      </c>
+      <c r="O24">
+        <v>-1.2985400497215955</v>
+      </c>
+      <c r="P24">
+        <v>2.009399905775731</v>
+      </c>
+      <c r="Q24">
+        <v>0.42584782357236917</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0.67104665335375113</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>104</v>
+      </c>
+      <c r="U24">
+        <v>1.0301262763366721</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0.31248443398030834</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <v>0.96172043478341995</v>
+      </c>
+      <c r="Z24">
+        <v>0.923493831716655</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>9.2937255660152401E-2</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>2.0312192180491902E-3</v>
+      </c>
+      <c r="AC24">
+        <v>1535</v>
+      </c>
+      <c r="AD24">
+        <v>1917</v>
+      </c>
+      <c r="AE24">
+        <v>1115</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>0.40952136110397003</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>5.9994423582432495E-4</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>3.4131447696963399E-2</v>
+      </c>
+      <c r="AI24">
+        <v>-2.2308121217917698</v>
+      </c>
+      <c r="AJ24">
+        <v>2.2308121217917698</v>
+      </c>
+      <c r="AK24">
+        <v>0.05</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
+      <c r="A25" t="s">
+        <v>302</v>
+      </c>
+      <c r="B25">
+        <v>-1.757010582010583</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.80375972101463178</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.21192819871761931</v>
+      </c>
+      <c r="E25" s="5">
+        <v>-4.1365227238924831</v>
+      </c>
+      <c r="F25" s="4">
+        <v>4.2365377429382891E-5</v>
+      </c>
+      <c r="G25">
+        <v>82.11622474553954</v>
+      </c>
+      <c r="H25">
+        <v>0.05</v>
+      </c>
+      <c r="I25">
+        <v>-2.6044841851423572</v>
+      </c>
+      <c r="J25">
+        <v>2.6044841851423572</v>
+      </c>
+      <c r="K25">
+        <v>-0.5</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>-3.5111118751481607</v>
+      </c>
+      <c r="N25">
+        <v>-2.9092888730051225E-3</v>
+      </c>
+      <c r="O25">
+        <v>-3.8544772711869011</v>
+      </c>
+      <c r="P25">
+        <v>0.34045610716573504</v>
+      </c>
+      <c r="Q25">
+        <v>-1.6663815014389254</v>
+      </c>
+      <c r="R25" s="4">
+        <v>9.9447730327728315E-2</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>87</v>
+      </c>
+      <c r="U25">
+        <v>2.4331349335041699</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0.12242555353377407</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="X25">
+        <v>3</v>
+      </c>
+      <c r="Y25">
+        <v>0.923493831716655</v>
+      </c>
+      <c r="Z25">
+        <v>0.930065698449839</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>2.0312192180491902E-3</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>2.8101122377919601E-2</v>
+      </c>
+      <c r="AC25">
+        <v>766</v>
+      </c>
+      <c r="AD25">
+        <v>1044</v>
+      </c>
+      <c r="AE25">
+        <v>504</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>0.13378657753026499</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>0.20402123620285101</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>1.0782237044499101E-4</v>
+      </c>
+      <c r="AI25">
+        <v>-2.6044841851423599</v>
+      </c>
+      <c r="AJ25">
+        <v>2.6044841851423599</v>
+      </c>
+      <c r="AK25">
+        <v>0.05</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AM25" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <conditionalFormatting sqref="D1:D1048576 F1:F1048576 R1:R1048576 AA1:AB1048576 V1:V1048576 AF1:AH1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AD3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA35" sqref="AA35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" customWidth="1"/>
+    <col min="30" max="30" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="A1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J1" t="s">
+        <v>371</v>
+      </c>
+      <c r="K1" t="s">
+        <v>372</v>
+      </c>
+      <c r="L1" t="s">
+        <v>373</v>
+      </c>
+      <c r="M1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N1" t="s">
+        <v>375</v>
+      </c>
+      <c r="O1" t="s">
+        <v>376</v>
+      </c>
+      <c r="P1" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>378</v>
+      </c>
+      <c r="R1" t="s">
+        <v>379</v>
+      </c>
+      <c r="S1" t="s">
+        <v>380</v>
+      </c>
+      <c r="T1" t="s">
+        <v>381</v>
+      </c>
+      <c r="U1" t="s">
+        <v>382</v>
+      </c>
+      <c r="V1" t="s">
+        <v>383</v>
+      </c>
+      <c r="W1" t="s">
+        <v>384</v>
+      </c>
+      <c r="X1" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2">
+        <v>-2.3785806158855234</v>
+      </c>
+      <c r="D2">
+        <v>-0.29508286953796514</v>
+      </c>
+      <c r="E2">
+        <v>6.7427165795956534E-2</v>
+      </c>
+      <c r="F2">
+        <v>-0.19296771632792517</v>
+      </c>
+      <c r="G2">
+        <v>0.19948338482349337</v>
+      </c>
+      <c r="H2">
+        <v>0.15415485473465337</v>
+      </c>
+      <c r="I2">
+        <v>0.154337454571668</v>
+      </c>
+      <c r="J2">
+        <v>0.15399897242007185</v>
+      </c>
+      <c r="K2">
+        <v>-11.923702908841937</v>
+      </c>
+      <c r="L2">
+        <v>-1.9141977075317611</v>
+      </c>
+      <c r="M2">
+        <v>0.43688141665344177</v>
+      </c>
+      <c r="N2">
+        <v>-1.2530454800799322</v>
+      </c>
+      <c r="O2">
+        <v>8.9060330376520404E-33</v>
+      </c>
+      <c r="P2">
+        <v>5.5594898576328121E-2</v>
+      </c>
+      <c r="Q2">
+        <v>0.66219734965701726</v>
+      </c>
+      <c r="R2">
+        <v>0.21018915563783622</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>3.6984119830412965</v>
+      </c>
+      <c r="W2">
+        <v>0.19158024283206032</v>
+      </c>
+      <c r="X2">
+        <v>1.5742611707754577</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>5.4464280973746976E-2</v>
+      </c>
+      <c r="AC2">
+        <v>0.66160463675983749</v>
+      </c>
+      <c r="AD2">
+        <v>0.20958926597094416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3">
+        <v>-2.3774128245933941</v>
+      </c>
+      <c r="D3">
+        <v>0.35472245454961659</v>
+      </c>
+      <c r="E3">
+        <v>0.3406479356675719</v>
+      </c>
+      <c r="F3">
+        <v>-8.9077783096677687E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.20593040932848128</v>
+      </c>
+      <c r="H3">
+        <v>0.16529666582738872</v>
+      </c>
+      <c r="I3">
+        <v>0.16589950795763542</v>
+      </c>
+      <c r="J3">
+        <v>0.16521358793493982</v>
+      </c>
+      <c r="K3">
+        <v>-11.544738984134993</v>
+      </c>
+      <c r="L3">
+        <v>2.1459746497248529</v>
+      </c>
+      <c r="M3">
+        <v>2.053339035547717</v>
+      </c>
+      <c r="N3">
+        <v>-0.53916741479978036</v>
+      </c>
+      <c r="O3">
+        <v>7.8479349479493783E-31</v>
+      </c>
+      <c r="P3">
+        <v>3.1875001262564213E-2</v>
+      </c>
+      <c r="Q3">
+        <v>4.0039707484069542E-2</v>
+      </c>
+      <c r="R3">
+        <v>0.58977134218860028</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>4.7714993663947212</v>
+      </c>
+      <c r="W3">
+        <v>4.4072015578105379</v>
+      </c>
+      <c r="X3">
+        <v>0.29327477173512762</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>2.8934615892927548E-2</v>
+      </c>
+      <c r="AC3">
+        <v>3.5787503627399894E-2</v>
+      </c>
+      <c r="AD3">
+        <v>0.58812958175891217</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AB1:AD1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/results/00_inferentialResults.xlsx
+++ b/data/results/00_inferentialResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga84kuj\Documents\R\Multilab_Analysis\data\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9E369E-4619-4D9E-90BB-88AE2AEA7F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F714A6C-9616-4F05-B3E0-CDE0C70A3FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANOVA_UsabQ" sheetId="2" r:id="rId1"/>
@@ -22,8 +22,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CLM_UsabQ!$A$1:$Z$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MM_SI_ER_ET_DB!$A$1:$AE$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TOST_ER_SI_ET_DB!$A$1:$AM$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MM_SI_ER_ET_DB!$A$1:$AE$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TOST_ER_SI_ET_DB!$A$1:$AM$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TOST_UsabQ!$A$1:$AM$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="396">
   <si>
     <t>Test</t>
   </si>
@@ -745,6 +745,9 @@
     <t>FirstGlanceDuration_ic</t>
   </si>
   <si>
+    <t>FirstGlanceDuration_ic_excl_ic_start</t>
+  </si>
+  <si>
     <t>TimeToL0_max25</t>
   </si>
   <si>
@@ -781,6 +784,9 @@
     <t>FirstGlanceDuration_ic</t>
   </si>
   <si>
+    <t>FirstGlanceDuration_ic_excl_ic_start</t>
+  </si>
+  <si>
     <t>TimeToL0_max25</t>
   </si>
   <si>
@@ -962,6 +968,12 @@
   </si>
   <si>
     <t>FirstGlanceDuration_ic_23</t>
+  </si>
+  <si>
+    <t>FirstGlanceDuration_ic_12_excl_ic_start</t>
+  </si>
+  <si>
+    <t>FirstGlanceDuration_ic_23_excl_ic_start</t>
   </si>
   <si>
     <t>TimeToL0_max25_12</t>
@@ -1262,7 +1274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1675,11 +1687,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="3" width="15.7109375" customWidth="1"/>
@@ -1720,7 +1732,7 @@
     <col min="39" max="39" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1839,7 +1851,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1958,7 +1970,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2077,7 +2089,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2196,7 +2208,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2315,7 +2327,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2434,7 +2446,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2553,7 +2565,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2672,7 +2684,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2791,7 +2803,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2910,7 +2922,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3029,7 +3041,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3148,7 +3160,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3267,7 +3279,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3386,7 +3398,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3505,7 +3517,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3624,7 +3636,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3743,7 +3755,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3862,7 +3874,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3981,7 +3993,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4100,7 +4112,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4233,7 +4245,7 @@
       <selection pane="topRight" activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
@@ -4249,7 +4261,7 @@
     <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -4329,7 +4341,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -4409,7 +4421,7 @@
         <v>0.24140584739732973</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -4489,7 +4501,7 @@
         <v>0.10600604393035024</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,7 +4581,7 @@
         <v>0.28482375677620936</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
@@ -4649,7 +4661,7 @@
         <v>0.139339170359566</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>90</v>
       </c>
@@ -4729,7 +4741,7 @@
         <v>0.18505020426630001</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>91</v>
       </c>
@@ -4809,7 +4821,7 @@
         <v>0.70278852352610754</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
@@ -4889,7 +4901,7 @@
         <v>0.4598425705471792</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>93</v>
       </c>
@@ -4969,7 +4981,7 @@
         <v>0.42566525572618197</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
@@ -5049,7 +5061,7 @@
         <v>0.56579330560641372</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>95</v>
       </c>
@@ -5129,7 +5141,7 @@
         <v>0.38231295667591675</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>96</v>
       </c>
@@ -5209,7 +5221,7 @@
         <v>0.62036753621135488</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -5289,7 +5301,7 @@
         <v>0.86732734517865906</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -5369,7 +5381,7 @@
         <v>0.54412103144338919</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
@@ -5449,7 +5461,7 @@
         <v>0.20701763513514654</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>100</v>
       </c>
@@ -5529,7 +5541,7 @@
         <v>0.62870308052996038</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>101</v>
       </c>
@@ -5609,7 +5621,7 @@
         <v>0.67671334747374823</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>102</v>
       </c>
@@ -5689,7 +5701,7 @@
         <v>0.89654259678610637</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>103</v>
       </c>
@@ -5769,7 +5781,7 @@
         <v>0.77262301101199893</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>104</v>
       </c>
@@ -5849,7 +5861,7 @@
         <v>0.47539930406218078</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>105</v>
       </c>
@@ -5948,7 +5960,7 @@
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="1" hidden="1" customWidth="1"/>
@@ -5989,7 +6001,7 @@
     <col min="40" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
@@ -6108,7 +6120,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
@@ -6227,7 +6239,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>136</v>
       </c>
@@ -6346,7 +6358,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>137</v>
       </c>
@@ -6465,7 +6477,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>138</v>
       </c>
@@ -6584,7 +6596,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>139</v>
       </c>
@@ -6703,7 +6715,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>140</v>
       </c>
@@ -6822,7 +6834,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>141</v>
       </c>
@@ -6941,7 +6953,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>142</v>
       </c>
@@ -7060,7 +7072,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>143</v>
       </c>
@@ -7179,7 +7191,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>144</v>
       </c>
@@ -7298,7 +7310,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>145</v>
       </c>
@@ -7417,7 +7429,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>146</v>
       </c>
@@ -7536,7 +7548,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>147</v>
       </c>
@@ -7655,7 +7667,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>148</v>
       </c>
@@ -7774,7 +7786,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>149</v>
       </c>
@@ -7893,7 +7905,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>150</v>
       </c>
@@ -8012,7 +8024,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>151</v>
       </c>
@@ -8131,7 +8143,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>152</v>
       </c>
@@ -8250,7 +8262,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>153</v>
       </c>
@@ -8369,7 +8381,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>154</v>
       </c>
@@ -8488,7 +8500,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>155</v>
       </c>
@@ -8607,7 +8619,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>156</v>
       </c>
@@ -8726,7 +8738,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>157</v>
       </c>
@@ -8845,7 +8857,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>158</v>
       </c>
@@ -8977,43 +8989,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AE25"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AE27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB40" sqref="AB40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="3" max="3" width="76.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="6" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="10" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="13.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="6" customWidth="1"/>
     <col min="16" max="18" width="15.7109375" customWidth="1"/>
     <col min="19" max="19" width="14.7109375" customWidth="1"/>
     <col min="20" max="20" width="7.28515625" customWidth="1"/>
     <col min="21" max="21" width="7.7109375" customWidth="1"/>
     <col min="22" max="22" width="11.85546875" customWidth="1"/>
-    <col min="23" max="23" width="13.7109375" style="6" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="6" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="6" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" style="6" customWidth="1"/>
     <col min="25" max="25" width="14.85546875" style="6" customWidth="1"/>
     <col min="26" max="26" width="13.28515625" customWidth="1"/>
     <col min="27" max="27" width="13.7109375" customWidth="1"/>
     <col min="28" max="28" width="17.85546875" customWidth="1"/>
-    <col min="29" max="29" width="12.42578125" customWidth="1"/>
-    <col min="30" max="30" width="12.85546875" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" customWidth="1"/>
+    <col min="30" max="30" width="13.7109375" customWidth="1"/>
     <col min="31" max="31" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>215</v>
       </c>
@@ -9021,94 +9036,94 @@
         <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="R1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="S1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="T1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="U1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="V1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Z1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AA1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AB1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AC1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AD1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AE1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12</v>
       </c>
@@ -9116,7 +9131,7 @@
         <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D2" s="7">
         <v>3.8971391611403772</v>
@@ -9203,7 +9218,7 @@
         <v>0.21668407509347146</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -9211,7 +9226,7 @@
         <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D3" s="7">
         <v>-1.2211923494721153</v>
@@ -9298,7 +9313,7 @@
         <v>0.24155975797928708</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
@@ -9306,7 +9321,7 @@
         <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D4" s="7">
         <v>-0.94680241187376679</v>
@@ -9393,7 +9408,7 @@
         <v>0.49323765569352096</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
@@ -9401,7 +9416,7 @@
         <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D5" s="7">
         <v>3.2084566253339664</v>
@@ -9488,7 +9503,7 @@
         <v>0.10666082698473171</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -9496,7 +9511,7 @@
         <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D6" s="7">
         <v>2.2137268088539641</v>
@@ -9583,7 +9598,7 @@
         <v>0.19209833230031767</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12</v>
       </c>
@@ -9591,7 +9606,7 @@
         <v>222</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D7" s="7">
         <v>0.95658582152305394</v>
@@ -9678,7 +9693,7 @@
         <v>0.16198456173614206</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -9686,7 +9701,7 @@
         <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D8" s="7">
         <v>-2.3785806158855234</v>
@@ -9773,7 +9788,7 @@
         <v>0.20958926597094416</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
@@ -9781,7 +9796,7 @@
         <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D9" s="7">
         <v>0.51430644608230369</v>
@@ -9868,7 +9883,7 @@
         <v>2.4495180892109825E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -9876,55 +9891,55 @@
         <v>225</v>
       </c>
       <c r="C10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D10" s="7">
-        <v>89.975535657523778</v>
+        <v>89.975527220793708</v>
       </c>
       <c r="E10" s="7">
-        <v>1.1109278462319458</v>
+        <v>1.1109297322711074</v>
       </c>
       <c r="F10" s="7">
-        <v>1.4555282916396644</v>
+        <v>1.4555291748251953</v>
       </c>
       <c r="G10" s="7">
-        <v>0.13767819382666271</v>
+        <v>0.13767952680805251</v>
       </c>
       <c r="H10">
-        <v>7.1178858700174636</v>
+        <v>7.106910730058555</v>
       </c>
       <c r="I10">
-        <v>0.97583956127128535</v>
+        <v>0.97584038676498408</v>
       </c>
       <c r="J10">
-        <v>0.97584013319144436</v>
+        <v>0.97583996499382264</v>
       </c>
       <c r="K10">
-        <v>0.9758430397831579</v>
+        <v>0.97584317673714394</v>
       </c>
       <c r="L10" s="7">
-        <v>12.640766837316967</v>
+        <v>12.660286675649912</v>
       </c>
       <c r="M10" s="7">
-        <v>1.1384328841768547</v>
+        <v>1.1384338538743606</v>
       </c>
       <c r="N10" s="7">
-        <v>1.4915642861289378</v>
+        <v>1.4915654482693883</v>
       </c>
       <c r="O10" s="7">
-        <v>0.141086412685032</v>
+        <v>0.1410877588634698</v>
       </c>
       <c r="P10">
-        <v>1.2582081288323103E-36</v>
+        <v>9.8140314820947473E-37</v>
       </c>
       <c r="Q10">
-        <v>0.2549397692665285</v>
+        <v>0.2549393645537798</v>
       </c>
       <c r="R10">
-        <v>0.13581340658231938</v>
+        <v>0.13581310172478395</v>
       </c>
       <c r="S10">
-        <v>0.88780167738746751</v>
+        <v>0.88780061392968734</v>
       </c>
       <c r="T10">
         <v>6</v>
@@ -9936,13 +9951,13 @@
         <v>6</v>
       </c>
       <c r="W10" s="5">
-        <v>1.2878872129658703</v>
+        <v>1.2878872129504089</v>
       </c>
       <c r="X10" s="5">
-        <v>2.2008344890773515</v>
+        <v>2.200834489076442</v>
       </c>
       <c r="Y10" s="5">
-        <v>1.9904091435364535E-2</v>
+        <v>1.9904091427179083E-2</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -9954,16 +9969,16 @@
         <v>1</v>
       </c>
       <c r="AC10" s="4">
-        <v>0.2564376757521612</v>
+        <v>0.25643767575501591</v>
       </c>
       <c r="AD10" s="4">
-        <v>0.13793604735928988</v>
+        <v>0.13793604735937254</v>
       </c>
       <c r="AE10" s="4">
-        <v>0.88780527333172976</v>
+        <v>0.88780527335464687</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -9971,55 +9986,55 @@
         <v>226</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D11" s="7">
-        <v>2.1182426707084332</v>
+        <v>2.1182426712006062</v>
       </c>
       <c r="E11" s="7">
-        <v>-0.16492105625619585</v>
+        <v>-0.16492105622259254</v>
       </c>
       <c r="F11" s="7">
-        <v>1.9580895324289516E-2</v>
+        <v>1.9580895402799614E-2</v>
       </c>
       <c r="G11" s="7">
-        <v>0.11027927778357136</v>
+        <v>0.11027927775021898</v>
       </c>
       <c r="H11">
-        <v>0.96391484303229524</v>
+        <v>0.96391142536924057</v>
       </c>
       <c r="I11">
-        <v>0.23731086173964841</v>
+        <v>0.23731070374135704</v>
       </c>
       <c r="J11">
-        <v>0.23765381638908978</v>
+        <v>0.2376536028198715</v>
       </c>
       <c r="K11">
-        <v>0.23744608655638497</v>
+        <v>0.23744608845689785</v>
       </c>
       <c r="L11" s="7">
-        <v>2.1975412932171885</v>
+        <v>2.1975490853728412</v>
       </c>
       <c r="M11" s="7">
-        <v>-0.69495789213866344</v>
+        <v>-0.69495835469072909</v>
       </c>
       <c r="N11" s="7">
-        <v>8.2392513706707873E-2</v>
+        <v>8.2392588079722356E-2</v>
       </c>
       <c r="O11" s="7">
-        <v>0.46443923074463461</v>
+        <v>0.464439226886811</v>
       </c>
       <c r="P11">
-        <v>2.7981810741710352E-2</v>
+        <v>2.7981254902513047E-2</v>
       </c>
       <c r="Q11">
-        <v>0.48708169050627753</v>
+        <v>0.48708140062125344</v>
       </c>
       <c r="R11">
-        <v>0.93433458900707234</v>
+        <v>0.93433452986707033</v>
       </c>
       <c r="S11">
-        <v>0.64233308849044257</v>
+        <v>0.64233309125383753</v>
       </c>
       <c r="T11">
         <v>6</v>
@@ -10031,13 +10046,13 @@
         <v>6</v>
       </c>
       <c r="W11" s="5">
-        <v>0.48134757441403053</v>
+        <v>0.48134757441130205</v>
       </c>
       <c r="X11" s="5">
-        <v>6.7897438323143433E-3</v>
+        <v>6.7897438520958531E-3</v>
       </c>
       <c r="Y11" s="5">
-        <v>0.21520261617706637</v>
+        <v>0.21520261617183678</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -10049,16 +10064,16 @@
         <v>1</v>
       </c>
       <c r="AC11" s="4">
-        <v>0.48781255404796875</v>
+        <v>0.48781255404920204</v>
       </c>
       <c r="AD11" s="4">
-        <v>0.93432871406244289</v>
+        <v>0.93432871396699457</v>
       </c>
       <c r="AE11" s="4">
-        <v>0.64271985140528221</v>
+        <v>0.64271985140932086</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -10066,55 +10081,55 @@
         <v>227</v>
       </c>
       <c r="C12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D12" s="7">
-        <v>2.8482621270278043</v>
+        <v>2.8482599048537365</v>
       </c>
       <c r="E12" s="7">
-        <v>-8.3071034433747415E-2</v>
+        <v>-8.3070482456599537E-2</v>
       </c>
       <c r="F12" s="7">
-        <v>-0.19295755395813052</v>
+        <v>-0.19295686879185242</v>
       </c>
       <c r="G12" s="7">
-        <v>-7.0410978564846127E-2</v>
+        <v>-7.0410683254367182E-2</v>
       </c>
       <c r="H12">
-        <v>0.80988710196383928</v>
+        <v>0.80988707796752246</v>
       </c>
       <c r="I12">
-        <v>0.15256323356482554</v>
+        <v>0.15256319093890855</v>
       </c>
       <c r="J12">
-        <v>0.1525723797779768</v>
+        <v>0.15257233550973762</v>
       </c>
       <c r="K12">
-        <v>0.15256897812283024</v>
+        <v>0.15256892473077704</v>
       </c>
       <c r="L12" s="7">
-        <v>3.5168631777457011</v>
+        <v>3.5168605381403002</v>
       </c>
       <c r="M12" s="7">
-        <v>-0.54450231876115651</v>
+        <v>-0.54449885287116051</v>
       </c>
       <c r="N12" s="7">
-        <v>-1.26469518427203</v>
+        <v>-1.264691060454648</v>
       </c>
       <c r="O12" s="7">
-        <v>-0.46150259004920158</v>
+        <v>-0.46150081596638237</v>
       </c>
       <c r="P12">
-        <v>4.3667881392756513E-4</v>
+        <v>4.3668315636016954E-4</v>
       </c>
       <c r="Q12">
-        <v>0.586095853202795</v>
+        <v>0.58609823757927471</v>
       </c>
       <c r="R12">
-        <v>0.20598061693562567</v>
+        <v>0.20598209578388832</v>
       </c>
       <c r="S12">
-        <v>0.6444380635956739</v>
+        <v>0.64443933611709636</v>
       </c>
       <c r="T12">
         <v>6</v>
@@ -10126,13 +10141,13 @@
         <v>6</v>
       </c>
       <c r="W12" s="5">
-        <v>0.29598002235218246</v>
+        <v>0.29598002211093899</v>
       </c>
       <c r="X12" s="5">
-        <v>1.5838982309833227</v>
+        <v>1.5838982307496963</v>
       </c>
       <c r="Y12" s="5">
-        <v>0.21273664294983519</v>
+        <v>0.21273664272348469</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -10144,16 +10159,16 @@
         <v>1</v>
       </c>
       <c r="AC12" s="4">
-        <v>0.58641363076019704</v>
+        <v>0.58641363091276488</v>
       </c>
       <c r="AD12" s="4">
-        <v>0.20820007718063355</v>
+        <v>0.20820007721417866</v>
       </c>
       <c r="AE12" s="4">
-        <v>0.64463085510661433</v>
+        <v>0.64463085528263975</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10161,55 +10176,55 @@
         <v>228</v>
       </c>
       <c r="C13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D13" s="7">
-        <v>10.479743047440287</v>
+        <v>2.9322625759878189</v>
       </c>
       <c r="E13" s="7">
-        <v>-0.14556088410201878</v>
+        <v>-6.5504799286113191E-2</v>
       </c>
       <c r="F13" s="7">
-        <v>-1.6971748526642632</v>
+        <v>-0.26786505861381876</v>
       </c>
       <c r="G13" s="7">
-        <v>1.0816307112751884</v>
+        <v>-7.1451919447143589E-2</v>
       </c>
       <c r="H13">
-        <v>3.281533199636455</v>
+        <v>0.79352323198407559</v>
       </c>
       <c r="I13">
-        <v>0.39582230486271142</v>
+        <v>0.16424692215360528</v>
       </c>
       <c r="J13">
-        <v>0.39582452000403678</v>
+        <v>0.16452520395587145</v>
       </c>
       <c r="K13">
-        <v>0.3958249434031616</v>
+        <v>0.16433486948347639</v>
       </c>
       <c r="L13" s="7">
-        <v>3.1935508220978193</v>
+        <v>3.6952447739383434</v>
       </c>
       <c r="M13" s="7">
-        <v>-0.36774300567146084</v>
+        <v>-0.39881903677228409</v>
       </c>
       <c r="N13" s="7">
-        <v>-4.2876950943992922</v>
+        <v>-1.628109567247003</v>
       </c>
       <c r="O13" s="7">
-        <v>2.7325986633780923</v>
+        <v>-0.43479463410124269</v>
       </c>
       <c r="P13">
-        <v>1.4053459793351853E-3</v>
+        <v>2.1967505256481973E-4</v>
       </c>
       <c r="Q13">
-        <v>0.71306487022835807</v>
+        <v>0.69002654904331173</v>
       </c>
       <c r="R13">
-        <v>1.805366732485785E-5</v>
+        <v>0.10350165527315965</v>
       </c>
       <c r="S13">
-        <v>6.2836848188723695E-3</v>
+        <v>0.66371150013229308</v>
       </c>
       <c r="T13">
         <v>6</v>
@@ -10221,13 +10236,13 @@
         <v>6</v>
       </c>
       <c r="W13" s="5">
-        <v>0.13515686799519244</v>
+        <v>0.15903862795209989</v>
       </c>
       <c r="X13" s="5">
-        <v>16.983403657628287</v>
+        <v>2.612575535022529</v>
       </c>
       <c r="Y13" s="5">
-        <v>7.2222569015593763</v>
+        <v>0.18873794357409679</v>
       </c>
       <c r="Z13">
         <v>1</v>
@@ -10239,90 +10254,90 @@
         <v>1</v>
       </c>
       <c r="AC13" s="4">
-        <v>0.71314401916160597</v>
+        <v>0.69004317509312219</v>
       </c>
       <c r="AD13" s="4">
-        <v>3.7707992459113918E-5</v>
+        <v>0.10601945008837989</v>
       </c>
       <c r="AE13" s="4">
-        <v>7.2005119358129858E-3</v>
+        <v>0.66396909827285089</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>229</v>
       </c>
       <c r="C14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D14" s="7">
-        <v>3.7611411438944193</v>
+        <v>10.479743047440287</v>
       </c>
       <c r="E14" s="7">
-        <v>-0.1129752115875321</v>
+        <v>-0.14556088410201878</v>
       </c>
       <c r="F14" s="7">
-        <v>0.70450027572894158</v>
+        <v>-1.6971748526642632</v>
       </c>
       <c r="G14" s="7">
-        <v>7.3767388180422527E-2</v>
+        <v>1.0816307112751884</v>
       </c>
       <c r="H14">
-        <v>0.40665219928702517</v>
+        <v>3.281533199636455</v>
       </c>
       <c r="I14">
-        <v>0.27285223701919437</v>
+        <v>0.39582230486271142</v>
       </c>
       <c r="J14">
-        <v>0.27643875385929439</v>
+        <v>0.39582452000403678</v>
       </c>
       <c r="K14">
-        <v>0.27299502815887811</v>
+        <v>0.3958249434031616</v>
       </c>
       <c r="L14" s="7">
-        <v>9.2490367702148166</v>
+        <v>3.1935508220978193</v>
       </c>
       <c r="M14" s="7">
-        <v>-0.41405272253488845</v>
+        <v>-0.36774300567146084</v>
       </c>
       <c r="N14" s="7">
-        <v>2.5484859336601113</v>
+        <v>-4.2876950943992922</v>
       </c>
       <c r="O14" s="7">
-        <v>0.27021513423860327</v>
+        <v>2.7325986633780923</v>
       </c>
       <c r="P14">
-        <v>2.2652477280584467E-20</v>
+        <v>1.4053459793351853E-3</v>
       </c>
       <c r="Q14">
-        <v>0.67883549562095236</v>
+        <v>0.71306487022835807</v>
       </c>
       <c r="R14">
-        <v>1.0819164990374545E-2</v>
+        <v>1.805366732485785E-5</v>
       </c>
       <c r="S14">
-        <v>0.78699475019446474</v>
+        <v>6.2836848188723695E-3</v>
       </c>
       <c r="T14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W14" s="5">
-        <v>0.17026890746319623</v>
+        <v>0.13515686799519244</v>
       </c>
       <c r="X14" s="5">
-        <v>6.4946267209514872</v>
+        <v>16.983403657628287</v>
       </c>
       <c r="Y14" s="5">
-        <v>7.2823462994847432E-2</v>
+        <v>7.2222569015593763</v>
       </c>
       <c r="Z14">
         <v>1</v>
@@ -10334,16 +10349,16 @@
         <v>1</v>
       </c>
       <c r="AC14" s="4">
-        <v>0.67987293163597773</v>
+        <v>0.71314401916160597</v>
       </c>
       <c r="AD14" s="4">
-        <v>1.082010120031226E-2</v>
+        <v>3.7707992459113918E-5</v>
       </c>
       <c r="AE14" s="4">
-        <v>0.7872693248006617</v>
+        <v>7.2005119358129858E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>23</v>
       </c>
@@ -10351,55 +10366,55 @@
         <v>230</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>-0.99673675781661852</v>
+        <v>3.7611410642388075</v>
       </c>
       <c r="E15" s="7">
-        <v>4.9309464074002631E-3</v>
+        <v>-0.11297521150256332</v>
       </c>
       <c r="F15" s="7">
-        <v>-0.17141237519340741</v>
+        <v>0.70450026047173309</v>
       </c>
       <c r="G15" s="7">
-        <v>2.3590119286712792E-2</v>
+        <v>7.3767385388649825E-2</v>
       </c>
       <c r="H15">
-        <v>0.65008881550824249</v>
+        <v>0.40664728382233584</v>
       </c>
       <c r="I15">
-        <v>0.13736928182524424</v>
+        <v>0.27284944429206315</v>
       </c>
       <c r="J15">
-        <v>0.1375471956940463</v>
+        <v>0.27643944135764964</v>
       </c>
       <c r="K15">
-        <v>0.13735521195955111</v>
+        <v>0.27299464239216176</v>
       </c>
       <c r="L15" s="7">
-        <v>-1.53323166625681</v>
+        <v>9.2491483746933127</v>
       </c>
       <c r="M15" s="7">
-        <v>3.5895553517366549E-2</v>
+        <v>-0.41405696022467442</v>
       </c>
       <c r="N15" s="7">
-        <v>-1.2462077058603889</v>
+        <v>2.5484795404439784</v>
       </c>
       <c r="O15" s="7">
-        <v>0.17174535243453085</v>
+        <v>0.27021550585114279</v>
       </c>
       <c r="P15">
-        <v>0.12521878458045718</v>
+        <v>2.2628839534676018E-20</v>
       </c>
       <c r="Q15">
-        <v>0.97136564136345982</v>
+        <v>0.67883239219638636</v>
       </c>
       <c r="R15">
-        <v>0.21268815076667191</v>
+        <v>1.0819363297951587E-2</v>
       </c>
       <c r="S15">
-        <v>0.86363772943126271</v>
+        <v>0.78699446432015474</v>
       </c>
       <c r="T15">
         <v>5</v>
@@ -10411,13 +10426,13 @@
         <v>5</v>
       </c>
       <c r="W15" s="5">
-        <v>1.2232125598075072E-3</v>
+        <v>0.17026889749718066</v>
       </c>
       <c r="X15" s="5">
-        <v>1.4713143662703487</v>
+        <v>6.4946267284541364</v>
       </c>
       <c r="Y15" s="5">
-        <v>2.8338589848772244E-2</v>
+        <v>7.2823454875219795E-2</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -10429,16 +10444,16 @@
         <v>1</v>
       </c>
       <c r="AC15" s="4">
-        <v>0.97210010971181171</v>
+        <v>0.67987294048490332</v>
       </c>
       <c r="AD15" s="4">
-        <v>0.22513843077481621</v>
+        <v>1.0820101154649984E-2</v>
       </c>
       <c r="AE15" s="4">
-        <v>0.86631526007503556</v>
+        <v>0.78726933637502505</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -10446,55 +10461,55 @@
         <v>231</v>
       </c>
       <c r="C16" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D16" s="7">
-        <v>-0.65828438436390802</v>
+        <v>-0.99674580241856314</v>
       </c>
       <c r="E16" s="7">
-        <v>7.256835499888975E-2</v>
+        <v>4.9326700178233505E-3</v>
       </c>
       <c r="F16" s="7">
-        <v>-6.1098889835294753E-2</v>
+        <v>-0.17141191468036518</v>
       </c>
       <c r="G16" s="7">
-        <v>-5.1750016776591801E-2</v>
+        <v>2.3588141115704911E-2</v>
       </c>
       <c r="H16">
-        <v>0.61473534107077998</v>
+        <v>0.6500764299231383</v>
       </c>
       <c r="I16">
-        <v>0.12972535173218688</v>
+        <v>0.13736922597396259</v>
       </c>
       <c r="J16">
-        <v>0.12970099010615527</v>
+        <v>0.13754685930339777</v>
       </c>
       <c r="K16">
-        <v>0.12971231084512114</v>
+        <v>0.13735520493365158</v>
       </c>
       <c r="L16" s="7">
-        <v>-1.0708419386093402</v>
+        <v>-1.5332747912986373</v>
       </c>
       <c r="M16" s="7">
-        <v>0.55939994788917125</v>
+        <v>3.5908115393751328E-2</v>
       </c>
       <c r="N16" s="7">
-        <v>-0.47107496855103159</v>
+        <v>-1.2462074055959986</v>
       </c>
       <c r="O16" s="7">
-        <v>-0.39895994789871769</v>
+        <v>0.17173095935533705</v>
       </c>
       <c r="P16">
-        <v>0.28424050611116203</v>
+        <v>0.12520816308563876</v>
       </c>
       <c r="Q16">
-        <v>0.57588879693867767</v>
+        <v>0.97135562489364125</v>
       </c>
       <c r="R16">
-        <v>0.63758719971315025</v>
+        <v>0.21268826097311905</v>
       </c>
       <c r="S16">
-        <v>0.68992271627418411</v>
+        <v>0.86364904533480913</v>
       </c>
       <c r="T16">
         <v>5</v>
@@ -10506,13 +10521,13 @@
         <v>5</v>
       </c>
       <c r="W16" s="5">
-        <v>0.3030343709006047</v>
+        <v>1.2232119064492508E-3</v>
       </c>
       <c r="X16" s="5">
-        <v>0.21449379804198543</v>
+        <v>1.4713143636730592</v>
       </c>
       <c r="Y16" s="5">
-        <v>0.15410081246977825</v>
+        <v>2.8338589351847077E-2</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -10524,16 +10539,16 @@
         <v>1</v>
       </c>
       <c r="AC16" s="4">
-        <v>0.58198636650397362</v>
+        <v>0.97210011715990186</v>
       </c>
       <c r="AD16" s="4">
-        <v>0.64326778192974221</v>
+        <v>0.22513843118415777</v>
       </c>
       <c r="AE16" s="4">
-        <v>0.69464687887223098</v>
+        <v>0.86631526123610525</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -10541,55 +10556,55 @@
         <v>232</v>
       </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D17" s="7">
-        <v>2.9599977494189513</v>
+        <v>-0.65829064404255244</v>
       </c>
       <c r="E17" s="7">
-        <v>6.2480808566639859E-2</v>
+        <v>7.2573374377803312E-2</v>
       </c>
       <c r="F17" s="7">
-        <v>0.62760474952841339</v>
+        <v>-6.1103354334183596E-2</v>
       </c>
       <c r="G17" s="7">
-        <v>0.20010604853815356</v>
+        <v>-5.1748831446450885E-2</v>
       </c>
       <c r="H17">
-        <v>0.40248478850252212</v>
+        <v>0.6147502634148978</v>
       </c>
       <c r="I17">
-        <v>0.20446593231214055</v>
+        <v>0.12972572807134092</v>
       </c>
       <c r="J17">
-        <v>0.20600379087231127</v>
+        <v>0.1297012559104857</v>
       </c>
       <c r="K17">
-        <v>0.20560294165889156</v>
+        <v>0.12971258937203803</v>
       </c>
       <c r="L17" s="7">
-        <v>7.354309613617616</v>
+        <v>-1.0708261276470068</v>
       </c>
       <c r="M17" s="7">
-        <v>0.30558053295282356</v>
+        <v>0.55943701728844841</v>
       </c>
       <c r="N17" s="7">
-        <v>3.0465689338572703</v>
+        <v>-0.47110842455029528</v>
       </c>
       <c r="O17" s="7">
-        <v>0.97326452104047367</v>
+        <v>-0.398949953099975</v>
       </c>
       <c r="P17">
-        <v>1.9191642820273124E-13</v>
+        <v>0.28424761658867359</v>
       </c>
       <c r="Q17">
-        <v>0.75992404435021943</v>
+        <v>0.57586350398262898</v>
       </c>
       <c r="R17">
-        <v>2.3146939707331332E-3</v>
+        <v>0.63756330932819849</v>
       </c>
       <c r="S17">
-        <v>0.33042185082448627</v>
+        <v>0.68993008091995933</v>
       </c>
       <c r="T17">
         <v>5</v>
@@ -10601,13 +10616,13 @@
         <v>5</v>
       </c>
       <c r="W17" s="5">
-        <v>9.309399608878266E-2</v>
+        <v>0.3030343686220931</v>
       </c>
       <c r="X17" s="5">
-        <v>8.9590410575000305</v>
+        <v>0.21449379317982675</v>
       </c>
       <c r="Y17" s="5">
-        <v>0.95824866901148198</v>
+        <v>0.15410080951460259</v>
       </c>
       <c r="Z17">
         <v>1</v>
@@ -10619,16 +10634,16 @@
         <v>1</v>
       </c>
       <c r="AC17" s="4">
-        <v>0.76028002387988503</v>
+        <v>0.58198636792307135</v>
       </c>
       <c r="AD17" s="4">
-        <v>2.760997790858353E-3</v>
+        <v>0.64326778569205678</v>
       </c>
       <c r="AE17" s="4">
-        <v>0.32762851913978663</v>
+        <v>0.69464688165276589</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>23</v>
       </c>
@@ -10636,55 +10651,55 @@
         <v>233</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D18" s="7">
-        <v>1.8125766734489019</v>
+        <v>2.9600031759076737</v>
       </c>
       <c r="E18" s="7">
-        <v>-2.0906643129859015E-2</v>
+        <v>6.2477250669538048E-2</v>
       </c>
       <c r="F18" s="7">
-        <v>0.39168391024995453</v>
+        <v>0.62760775098976407</v>
       </c>
       <c r="G18" s="7">
-        <v>-0.13195342644931671</v>
+        <v>0.20010135051178796</v>
       </c>
       <c r="H18">
-        <v>0.38473826412204959</v>
+        <v>0.40248466863680993</v>
       </c>
       <c r="I18">
-        <v>0.10834499493440281</v>
+        <v>0.20446458833708123</v>
       </c>
       <c r="J18">
-        <v>0.10883439066049881</v>
+        <v>0.20600187342883536</v>
       </c>
       <c r="K18">
-        <v>0.10841386389513182</v>
+        <v>0.20560099122581921</v>
       </c>
       <c r="L18" s="7">
-        <v>4.7111941870016407</v>
+        <v>7.3543252863097042</v>
       </c>
       <c r="M18" s="7">
-        <v>-0.19296362644639825</v>
+        <v>0.30556514053444683</v>
       </c>
       <c r="N18" s="7">
-        <v>3.5988983617483998</v>
+        <v>3.0466118610643371</v>
       </c>
       <c r="O18" s="7">
-        <v>-1.2171268665136277</v>
+        <v>0.97325090369826672</v>
       </c>
       <c r="P18">
-        <v>2.4626943538420667E-6</v>
+        <v>1.9189391375944992E-13</v>
       </c>
       <c r="Q18">
-        <v>0.84698745456983271</v>
+        <v>0.75993576551710795</v>
       </c>
       <c r="R18">
-        <v>3.195680461141984E-4</v>
+        <v>2.314363468563391E-3</v>
       </c>
       <c r="S18">
-        <v>0.22355595009885421</v>
+        <v>0.33042861701009602</v>
       </c>
       <c r="T18">
         <v>5</v>
@@ -10696,13 +10711,13 @@
         <v>5</v>
       </c>
       <c r="W18" s="5">
-        <v>3.6786696975013911E-2</v>
+        <v>9.3093995573894972E-2</v>
       </c>
       <c r="X18" s="5">
-        <v>12.141210391529967</v>
+        <v>8.9590410585606151</v>
       </c>
       <c r="Y18" s="5">
-        <v>1.4476666623850178</v>
+        <v>0.9582486632338032</v>
       </c>
       <c r="Z18">
         <v>1</v>
@@ -10714,16 +10729,16 @@
         <v>1</v>
       </c>
       <c r="AC18" s="4">
-        <v>0.84789997986978005</v>
+        <v>0.76028002452249377</v>
       </c>
       <c r="AD18" s="4">
-        <v>4.9319756487160166E-4</v>
+        <v>2.7609977892555006E-3</v>
       </c>
       <c r="AE18" s="4">
-        <v>0.22890272557044761</v>
+        <v>0.32762852059807457</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>23</v>
       </c>
@@ -10731,73 +10746,73 @@
         <v>234</v>
       </c>
       <c r="C19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D19" s="7">
-        <v>-0.25264853090355222</v>
+        <v>1.812576638438586</v>
       </c>
       <c r="E19" s="7">
-        <v>0.79915184376489568</v>
+        <v>-2.0906256427654729E-2</v>
       </c>
       <c r="F19" s="7">
-        <v>0.39321771189726823</v>
+        <v>0.39168252360672362</v>
       </c>
       <c r="G19" s="7">
-        <v>-0.20107407062109678</v>
+        <v>-0.1319529391042063</v>
       </c>
       <c r="H19">
-        <v>0.20550733111084848</v>
+        <v>0.38473694119175894</v>
       </c>
       <c r="I19">
-        <v>0.21888145692002969</v>
+        <v>0.10834487732855674</v>
       </c>
       <c r="J19">
-        <v>0.20900498664182679</v>
+        <v>0.10883407362150475</v>
       </c>
       <c r="K19">
-        <v>0.20632005958340016</v>
+        <v>0.10841361076564482</v>
       </c>
       <c r="L19" s="7">
-        <v>-1.2293893825484807</v>
+        <v>4.7112102955956319</v>
       </c>
       <c r="M19" s="7">
-        <v>3.6510714749896471</v>
+        <v>-0.19296026672545238</v>
       </c>
       <c r="N19" s="7">
-        <v>1.8813795700058009</v>
+        <v>3.5988961046233432</v>
       </c>
       <c r="O19" s="7">
-        <v>-0.97457353893316989</v>
+        <v>-1.217125213082755</v>
       </c>
       <c r="P19">
-        <v>0.21892584915446126</v>
+        <v>2.4624996735190501E-6</v>
       </c>
       <c r="Q19">
-        <v>2.6114854441727016E-4</v>
+        <v>0.84699008579454971</v>
       </c>
       <c r="R19">
-        <v>5.9920303951993603E-2</v>
+        <v>3.1957081937880193E-4</v>
       </c>
       <c r="S19">
-        <v>0.32977184459934</v>
+        <v>0.22355657909081381</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W19" s="5">
-        <v>15.294740581977976</v>
+        <v>3.6786698790820083E-2</v>
       </c>
       <c r="X19" s="5">
-        <v>3.7127281422364149</v>
+        <v>12.141210395441703</v>
       </c>
       <c r="Y19" s="5">
-        <v>0.96950269749754625</v>
+        <v>1.4476666776067759</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -10809,16 +10824,16 @@
         <v>1</v>
       </c>
       <c r="AC19" s="4">
-        <v>9.1972227191175601E-5</v>
+        <v>0.8478999761617263</v>
       </c>
       <c r="AD19" s="4">
-        <v>5.3999063107217478E-2</v>
+        <v>4.9319756383712945E-4</v>
       </c>
       <c r="AE19" s="4">
-        <v>0.32480423601749847</v>
+        <v>0.22890272312316692</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>23</v>
       </c>
@@ -10826,55 +10841,55 @@
         <v>235</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D20" s="7">
-        <v>-2.3774128245933941</v>
+        <v>-0.25264853090355222</v>
       </c>
       <c r="E20" s="7">
-        <v>0.35472245454961659</v>
+        <v>0.79915184376489568</v>
       </c>
       <c r="F20" s="7">
-        <v>0.3406479356675719</v>
+        <v>0.39321771189726823</v>
       </c>
       <c r="G20" s="7">
-        <v>-8.9077783096677687E-2</v>
+        <v>-0.20107407062109678</v>
       </c>
       <c r="H20">
-        <v>0.20593040932848128</v>
+        <v>0.20550733111084848</v>
       </c>
       <c r="I20">
-        <v>0.16529666582738872</v>
+        <v>0.21888145692002969</v>
       </c>
       <c r="J20">
-        <v>0.16589950795763542</v>
+        <v>0.20900498664182679</v>
       </c>
       <c r="K20">
-        <v>0.16521358793493982</v>
+        <v>0.20632005958340016</v>
       </c>
       <c r="L20" s="7">
-        <v>-11.544738984134993</v>
+        <v>-1.2293893825484807</v>
       </c>
       <c r="M20" s="7">
-        <v>2.1459746497248529</v>
+        <v>3.6510714749896471</v>
       </c>
       <c r="N20" s="7">
-        <v>2.053339035547717</v>
+        <v>1.8813795700058009</v>
       </c>
       <c r="O20" s="7">
-        <v>-0.53916741479978036</v>
+        <v>-0.97457353893316989</v>
       </c>
       <c r="P20">
-        <v>7.8479349479493783E-31</v>
+        <v>0.21892584915446126</v>
       </c>
       <c r="Q20">
-        <v>3.1875001262564213E-2</v>
+        <v>2.6114854441727016E-4</v>
       </c>
       <c r="R20">
-        <v>4.0039707484069542E-2</v>
+        <v>5.9920303951993603E-2</v>
       </c>
       <c r="S20">
-        <v>0.58977134218860028</v>
+        <v>0.32977184459934</v>
       </c>
       <c r="T20">
         <v>4</v>
@@ -10886,13 +10901,13 @@
         <v>4</v>
       </c>
       <c r="W20" s="5">
-        <v>4.7714993663947212</v>
+        <v>15.294740581977976</v>
       </c>
       <c r="X20" s="5">
-        <v>4.4072015578105379</v>
+        <v>3.7127281422364149</v>
       </c>
       <c r="Y20" s="5">
-        <v>0.29327477173512762</v>
+        <v>0.96950269749754625</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -10904,16 +10919,16 @@
         <v>1</v>
       </c>
       <c r="AC20" s="4">
-        <v>2.8934615892927548E-2</v>
+        <v>9.1972227191175601E-5</v>
       </c>
       <c r="AD20" s="4">
-        <v>3.5787503627399894E-2</v>
+        <v>5.3999063107217478E-2</v>
       </c>
       <c r="AE20" s="4">
-        <v>0.58812958175891217</v>
+        <v>0.32480423601749847</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>23</v>
       </c>
@@ -10921,73 +10936,73 @@
         <v>236</v>
       </c>
       <c r="C21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D21" s="7">
-        <v>0.52830292320013439</v>
+        <v>-2.3774128245933941</v>
       </c>
       <c r="E21" s="7">
-        <v>-2.1479678499321503E-2</v>
+        <v>0.35472245454961659</v>
       </c>
       <c r="F21" s="7">
-        <v>-0.12807707438936969</v>
+        <v>0.3406479356675719</v>
       </c>
       <c r="G21" s="7">
-        <v>-2.6518248971156996E-2</v>
+        <v>-8.9077783096677687E-2</v>
       </c>
       <c r="H21">
-        <v>8.3656797481545322E-2</v>
+        <v>0.20593040932848128</v>
       </c>
       <c r="I21">
-        <v>3.0484998333334488E-2</v>
+        <v>0.16529666582738872</v>
       </c>
       <c r="J21">
-        <v>3.0500170523544385E-2</v>
+        <v>0.16589950795763542</v>
       </c>
       <c r="K21">
-        <v>3.0481939018188572E-2</v>
+        <v>0.16521358793493982</v>
       </c>
       <c r="L21" s="7">
-        <v>6.3151224897974121</v>
+        <v>-11.544738984134993</v>
       </c>
       <c r="M21" s="7">
-        <v>-0.70459831634086323</v>
+        <v>2.1459746497248529</v>
       </c>
       <c r="N21" s="7">
-        <v>-4.1992248630381104</v>
+        <v>2.053339035547717</v>
       </c>
       <c r="O21" s="7">
-        <v>-0.86996594787928549</v>
+        <v>-0.53916741479978036</v>
       </c>
       <c r="P21">
-        <v>2.6994757741285099E-10</v>
+        <v>7.8479349479493783E-31</v>
       </c>
       <c r="Q21">
-        <v>0.48106024657852048</v>
+        <v>3.1875001262564213E-2</v>
       </c>
       <c r="R21">
-        <v>2.6783024828933174E-5</v>
+        <v>4.0039707484069542E-2</v>
       </c>
       <c r="S21">
-        <v>0.38431901358773124</v>
+        <v>0.58977134218860028</v>
       </c>
       <c r="T21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W21" s="5">
-        <v>0.49558769769919309</v>
+        <v>4.7714993663947212</v>
       </c>
       <c r="X21" s="5">
-        <v>16.2233183559797</v>
+        <v>4.4072015578105379</v>
       </c>
       <c r="Y21" s="5">
-        <v>0.75276024579852674</v>
+        <v>0.29327477173512762</v>
       </c>
       <c r="Z21">
         <v>1</v>
@@ -10999,16 +11014,16 @@
         <v>1</v>
       </c>
       <c r="AC21" s="4">
-        <v>0.481445291949819</v>
+        <v>2.8934615892927548E-2</v>
       </c>
       <c r="AD21" s="4">
-        <v>5.6296879930996405E-5</v>
+        <v>3.5787503627399894E-2</v>
       </c>
       <c r="AE21" s="4">
-        <v>0.38560372529575931</v>
+        <v>0.58812958175891217</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
@@ -11016,55 +11031,55 @@
         <v>237</v>
       </c>
       <c r="C22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D22" s="7">
-        <v>85.249458305325405</v>
+        <v>0.52830292284938674</v>
       </c>
       <c r="E22" s="7">
-        <v>3.0508107432854814</v>
+        <v>-2.1479678476640181E-2</v>
       </c>
       <c r="F22" s="7">
-        <v>3.3889488414774318</v>
+        <v>-0.12807707439372423</v>
       </c>
       <c r="G22" s="7">
-        <v>-1.5514407733788973</v>
+        <v>-2.6518248939103348E-2</v>
       </c>
       <c r="H22">
-        <v>9.2523348041073881</v>
+        <v>8.3656707987158213E-2</v>
       </c>
       <c r="I22">
-        <v>1.1679900197046487</v>
+        <v>3.0484996797956625E-2</v>
       </c>
       <c r="J22">
-        <v>1.1680441911063706</v>
+        <v>3.0500168273563888E-2</v>
       </c>
       <c r="K22">
-        <v>1.1680057255813983</v>
+        <v>3.0481937199719249E-2</v>
       </c>
       <c r="L22" s="7">
-        <v>9.2138319797377655</v>
+        <v>6.3151292414050557</v>
       </c>
       <c r="M22" s="7">
-        <v>2.6120178184886753</v>
+        <v>-0.70459835108396462</v>
       </c>
       <c r="N22" s="7">
-        <v>2.9013875222198759</v>
+        <v>-4.1992251729553711</v>
       </c>
       <c r="O22" s="7">
-        <v>-1.3282818220832235</v>
+        <v>-0.86996599872752156</v>
       </c>
       <c r="P22">
-        <v>3.1468556869739902E-20</v>
+        <v>2.6993579217426421E-10</v>
       </c>
       <c r="Q22">
-        <v>9.0009562715823079E-3</v>
+        <v>0.48106022495113676</v>
       </c>
       <c r="R22">
-        <v>3.7151412533016348E-3</v>
+        <v>2.6782988174883743E-5</v>
       </c>
       <c r="S22">
-        <v>0.1840850226206095</v>
+        <v>0.38431898579891399</v>
       </c>
       <c r="T22">
         <v>6</v>
@@ -11076,13 +11091,13 @@
         <v>6</v>
       </c>
       <c r="W22" s="5">
-        <v>6.58827495802052</v>
+        <v>0.49558768097494976</v>
       </c>
       <c r="X22" s="5">
-        <v>8.065565612766477</v>
+        <v>16.223318398165702</v>
       </c>
       <c r="Y22" s="5">
-        <v>1.7482009512636978</v>
+        <v>0.75276024996173874</v>
       </c>
       <c r="Z22">
         <v>1</v>
@@ -11094,16 +11109,16 @@
         <v>1</v>
       </c>
       <c r="AC22" s="4">
-        <v>1.0265259345581519E-2</v>
+        <v>0.48144529934724778</v>
       </c>
       <c r="AD22" s="4">
-        <v>4.5114390021284952E-3</v>
+        <v>5.6296878677394087E-5</v>
       </c>
       <c r="AE22" s="4">
-        <v>0.18610305777741895</v>
+        <v>0.38560372398189519</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -11111,55 +11126,55 @@
         <v>238</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D23" s="7">
-        <v>3.2446046832878501</v>
+        <v>85.249466959508212</v>
       </c>
       <c r="E23" s="7">
-        <v>-1.0632877056636034</v>
+        <v>3.0508108479765079</v>
       </c>
       <c r="F23" s="7">
-        <v>-0.59985761776623225</v>
+        <v>3.3889472029700016</v>
       </c>
       <c r="G23" s="7">
-        <v>0.64486578276510553</v>
+        <v>-1.5514398137175984</v>
       </c>
       <c r="H23">
-        <v>1.3790392226793085</v>
+        <v>9.2584113140630304</v>
       </c>
       <c r="I23">
-        <v>0.3279910333957391</v>
+        <v>1.1680041822502811</v>
       </c>
       <c r="J23">
-        <v>0.32748794639190748</v>
+        <v>1.1680659444896953</v>
       </c>
       <c r="K23">
-        <v>0.32806382459338967</v>
+        <v>1.1679923330408264</v>
       </c>
       <c r="L23" s="7">
-        <v>2.3528008702928482</v>
+        <v>9.2077856629699362</v>
       </c>
       <c r="M23" s="7">
-        <v>-3.2418194322424929</v>
+        <v>2.6119862362982338</v>
       </c>
       <c r="N23" s="7">
-        <v>-1.8316937291132473</v>
+        <v>2.9013320857073399</v>
       </c>
       <c r="O23" s="7">
-        <v>1.9656717212401214</v>
+        <v>-1.3282962309165851</v>
       </c>
       <c r="P23">
-        <v>1.863260921848418E-2</v>
+        <v>3.3292166301681657E-20</v>
       </c>
       <c r="Q23">
-        <v>1.1876924832183464E-3</v>
+        <v>9.0017878120777477E-3</v>
       </c>
       <c r="R23">
-        <v>6.6997063468753254E-2</v>
+        <v>3.7157986305282071E-3</v>
       </c>
       <c r="S23">
-        <v>4.9336543422441474E-2</v>
+        <v>0.1840802643978684</v>
       </c>
       <c r="T23">
         <v>6</v>
@@ -11171,13 +11186,13 @@
         <v>6</v>
       </c>
       <c r="W23" s="5">
-        <v>9.91930309543568</v>
+        <v>6.5882749580196105</v>
       </c>
       <c r="X23" s="5">
-        <v>3.2821725393603174</v>
+        <v>8.065565612764658</v>
       </c>
       <c r="Y23" s="5">
-        <v>3.7924703092361369</v>
+        <v>1.7482009512623335</v>
       </c>
       <c r="Z23">
         <v>1</v>
@@ -11189,16 +11204,16 @@
         <v>1</v>
       </c>
       <c r="AC23" s="4">
-        <v>1.6355429879306486E-3</v>
+        <v>1.0265259345586752E-2</v>
       </c>
       <c r="AD23" s="4">
-        <v>7.0036162715816128E-2</v>
+        <v>4.5114390021330176E-3</v>
       </c>
       <c r="AE23" s="4">
-        <v>5.1483613245790309E-2</v>
+        <v>0.18610305777759073</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11206,55 +11221,55 @@
         <v>239</v>
       </c>
       <c r="C24" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D24" s="7">
-        <v>2.9576723234707689</v>
+        <v>3.2446046805899655</v>
       </c>
       <c r="E24" s="7">
-        <v>-2.1610121663241534E-2</v>
+        <v>-1.0632877047852669</v>
       </c>
       <c r="F24" s="7">
-        <v>-0.24043900021412018</v>
+        <v>-0.59985761813832772</v>
       </c>
       <c r="G24" s="7">
-        <v>0.11368378552006689</v>
+        <v>0.64486578182358623</v>
       </c>
       <c r="H24">
-        <v>0.77481992837226032</v>
+        <v>1.3790189180397163</v>
       </c>
       <c r="I24">
-        <v>0.15980573789824368</v>
+        <v>0.32799054711065179</v>
       </c>
       <c r="J24">
-        <v>0.15929576332726789</v>
+        <v>0.32748719525534842</v>
       </c>
       <c r="K24">
-        <v>0.15929857010122658</v>
+        <v>0.32806321512491832</v>
       </c>
       <c r="L24" s="7">
-        <v>3.817238322308306</v>
+        <v>2.3528355109168411</v>
       </c>
       <c r="M24" s="7">
-        <v>-0.13522744519349975</v>
+        <v>-3.2418242359483407</v>
       </c>
       <c r="N24" s="7">
-        <v>-1.5093872880984676</v>
+        <v>-1.8316979314889137</v>
       </c>
       <c r="O24" s="7">
-        <v>0.71365226597970277</v>
+        <v>1.9656753701509551</v>
       </c>
       <c r="P24">
-        <v>1.3495379857208768E-4</v>
+        <v>1.8630873608329501E-2</v>
       </c>
       <c r="Q24">
-        <v>0.89243204826448574</v>
+        <v>1.1876724649115245E-3</v>
       </c>
       <c r="R24">
-        <v>0.13119983969881407</v>
+        <v>6.6996437024919697E-2</v>
       </c>
       <c r="S24">
-        <v>0.47544222990398516</v>
+        <v>4.9336121654018128E-2</v>
       </c>
       <c r="T24">
         <v>6</v>
@@ -11266,13 +11281,13 @@
         <v>6</v>
       </c>
       <c r="W24" s="5">
-        <v>1.832222182224541E-2</v>
+        <v>9.9193030961525892</v>
       </c>
       <c r="X24" s="5">
-        <v>2.2088288454833673</v>
+        <v>3.2821725390349457</v>
       </c>
       <c r="Y24" s="5">
-        <v>0.50596914880497934</v>
+        <v>3.7924703092446634</v>
       </c>
       <c r="Z24">
         <v>1</v>
@@ -11284,16 +11299,16 @@
         <v>1</v>
       </c>
       <c r="AC24" s="4">
-        <v>0.89232756313631312</v>
+        <v>1.6355429872935792E-3</v>
       </c>
       <c r="AD24" s="4">
-        <v>0.13722281100815331</v>
+        <v>7.0036162729699272E-2</v>
       </c>
       <c r="AE24" s="4">
-        <v>0.47688900634781095</v>
+        <v>5.1483613245528484E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -11301,55 +11316,55 @@
         <v>240</v>
       </c>
       <c r="C25" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D25" s="7">
-        <v>11.30185792758618</v>
+        <v>2.9576723238262175</v>
       </c>
       <c r="E25" s="7">
-        <v>-0.6763536717383174</v>
+        <v>-2.1610122330673873E-2</v>
       </c>
       <c r="F25" s="7">
-        <v>-2.859906280877428</v>
+        <v>-0.24043900001595669</v>
       </c>
       <c r="G25" s="7">
-        <v>8.652819861006289E-2</v>
+        <v>0.11368378550689695</v>
       </c>
       <c r="H25">
-        <v>3.4261637116883352</v>
+        <v>0.77481989171119692</v>
       </c>
       <c r="I25">
-        <v>0.4712919877957279</v>
+        <v>0.15980576926649032</v>
       </c>
       <c r="J25">
-        <v>0.47129140144493498</v>
+        <v>0.1592958074966222</v>
       </c>
       <c r="K25">
-        <v>0.47131186658394914</v>
+        <v>0.1592985939738876</v>
       </c>
       <c r="L25" s="7">
-        <v>3.2986917376510543</v>
+        <v>3.8172385033819545</v>
       </c>
       <c r="M25" s="7">
-        <v>-1.435105389551985</v>
+        <v>-0.13522742282625025</v>
       </c>
       <c r="N25" s="7">
-        <v>-6.0682335219976968</v>
+        <v>-1.5093868683333371</v>
       </c>
       <c r="O25" s="7">
-        <v>0.18359011250282334</v>
+        <v>0.71365215894832146</v>
       </c>
       <c r="P25">
-        <v>9.7136517093653139E-4</v>
+        <v>1.3495369956284341E-4</v>
       </c>
       <c r="Q25">
-        <v>0.15125706798360158</v>
+        <v>0.89243206594853808</v>
       </c>
       <c r="R25">
-        <v>1.293247734241372E-9</v>
+        <v>0.13119994690771894</v>
       </c>
       <c r="S25">
-        <v>0.85433502035737829</v>
+        <v>0.4754422961040195</v>
       </c>
       <c r="T25">
         <v>6</v>
@@ -11361,13 +11376,13 @@
         <v>6</v>
       </c>
       <c r="W25" s="5">
-        <v>2.0361387433504206</v>
+        <v>1.8322221890684887E-2</v>
       </c>
       <c r="X25" s="5">
-        <v>31.056709623611596</v>
+        <v>2.2088288454849589</v>
       </c>
       <c r="Y25" s="5">
-        <v>3.3699171706302877E-2</v>
+        <v>0.50596914880475197</v>
       </c>
       <c r="Z25">
         <v>1</v>
@@ -11379,17 +11394,218 @@
         <v>1</v>
       </c>
       <c r="AC25" s="4">
-        <v>0.15359911109418284</v>
+        <v>0.89232756293644255</v>
       </c>
       <c r="AD25" s="4">
-        <v>2.5059855811875866E-8</v>
+        <v>0.13722281100801159</v>
       </c>
       <c r="AE25" s="4">
-        <v>0.85434817808726593</v>
+        <v>0.47688900634791004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" t="s">
+        <v>251</v>
+      </c>
+      <c r="D26" s="6">
+        <v>3.0768405379198907</v>
+      </c>
+      <c r="E26" s="6">
+        <v>-7.0385078877254453E-2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>-0.33754094876990443</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.12657743930290632</v>
+      </c>
+      <c r="H26">
+        <v>0.74090617597843877</v>
+      </c>
+      <c r="I26">
+        <v>0.1801120868860879</v>
+      </c>
+      <c r="J26">
+        <v>0.17969634162859338</v>
+      </c>
+      <c r="K26">
+        <v>0.18007932430870691</v>
+      </c>
+      <c r="L26" s="6">
+        <v>4.1528072483086307</v>
+      </c>
+      <c r="M26" s="6">
+        <v>-0.39078487232103182</v>
+      </c>
+      <c r="N26" s="6">
+        <v>-1.8783963307809195</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0.70289823547936459</v>
+      </c>
+      <c r="P26">
+        <v>3.2842135960213711E-5</v>
+      </c>
+      <c r="Q26">
+        <v>0.69595625775431058</v>
+      </c>
+      <c r="R26">
+        <v>6.0326967106011972E-2</v>
+      </c>
+      <c r="S26">
+        <v>0.48211917088130773</v>
+      </c>
+      <c r="T26">
+        <v>6</v>
+      </c>
+      <c r="U26">
+        <v>6</v>
+      </c>
+      <c r="V26">
+        <v>6</v>
+      </c>
+      <c r="W26" s="6">
+        <v>0.15281872330945134</v>
+      </c>
+      <c r="X26" s="6">
+        <v>3.4377532995865749</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>0.49141786132190646</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>0.69585610831264033</v>
+      </c>
+      <c r="AD26">
+        <v>6.3722290019178382E-2</v>
+      </c>
+      <c r="AE26">
+        <v>0.48329550984654229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="6">
+        <v>11.301856369573468</v>
+      </c>
+      <c r="E27" s="6">
+        <v>-0.67635344996491176</v>
+      </c>
+      <c r="F27" s="6">
+        <v>-2.8599062720473452</v>
+      </c>
+      <c r="G27" s="6">
+        <v>8.652909477895411E-2</v>
+      </c>
+      <c r="H27">
+        <v>3.4258563590267856</v>
+      </c>
+      <c r="I27">
+        <v>0.47129280034911758</v>
+      </c>
+      <c r="J27">
+        <v>0.47129198309662557</v>
+      </c>
+      <c r="K27">
+        <v>0.4713125824375104</v>
+      </c>
+      <c r="L27" s="6">
+        <v>3.2989872268853939</v>
+      </c>
+      <c r="M27" s="6">
+        <v>-1.4351024447305205</v>
+      </c>
+      <c r="N27" s="6">
+        <v>-6.068226014065254</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0.18359173508894533</v>
+      </c>
+      <c r="P27">
+        <v>9.7034326431157927E-4</v>
+      </c>
+      <c r="Q27">
+        <v>0.15125790701698213</v>
+      </c>
+      <c r="R27">
+        <v>1.2933081789080545E-9</v>
+      </c>
+      <c r="S27">
+        <v>0.8543337473564081</v>
+      </c>
+      <c r="T27">
+        <v>6</v>
+      </c>
+      <c r="U27">
+        <v>6</v>
+      </c>
+      <c r="V27">
+        <v>6</v>
+      </c>
+      <c r="W27" s="6">
+        <v>2.0361387433563323</v>
+      </c>
+      <c r="X27" s="6">
+        <v>31.056709623582719</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>3.3699171715852572E-2</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>0.15359911109358709</v>
+      </c>
+      <c r="AD27">
+        <v>2.5059855812248686E-8</v>
+      </c>
+      <c r="AE27">
+        <v>0.85434817806685925</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE25" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A1:AE27" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="12"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="FirstGlanceDuration_ic_excl_ic_start"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="AC1:AE1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.05</formula>
@@ -11401,19 +11617,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AM25"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+      <selection sqref="A1:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="3" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" hidden="1" customWidth="1"/>
@@ -11424,16 +11642,19 @@
     <col min="15" max="15" width="13.7109375" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
     <col min="20" max="20" width="6.85546875" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" customWidth="1"/>
     <col min="23" max="24" width="10.42578125" customWidth="1"/>
     <col min="25" max="26" width="12.7109375" customWidth="1"/>
-    <col min="27" max="29" width="15.7109375" customWidth="1"/>
+    <col min="27" max="27" width="13.7109375" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" customWidth="1"/>
     <col min="30" max="30" width="18.7109375" customWidth="1"/>
     <col min="31" max="31" width="18.85546875" customWidth="1"/>
-    <col min="32" max="32" width="15.7109375" customWidth="1"/>
+    <col min="32" max="32" width="15" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
     <col min="34" max="34" width="18.140625" customWidth="1"/>
     <col min="35" max="35" width="20.42578125" customWidth="1"/>
@@ -11443,128 +11664,128 @@
     <col min="39" max="39" width="69.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="I1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="N1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="R1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="S1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="T1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="U1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="V1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="W1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="X1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Y1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Z1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AA1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AB1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AC1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AD1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AE1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AF1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AG1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AH1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AI1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AJ1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AK1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AL1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AM1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B2">
         <v>3.9985287936107561E-2</v>
@@ -11675,15 +11896,15 @@
         <v>0.05</v>
       </c>
       <c r="AL2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B3">
         <v>-6.9899817850637591E-2</v>
@@ -11794,15 +12015,15 @@
         <v>0.05</v>
       </c>
       <c r="AL3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B4">
         <v>0.67465321563682146</v>
@@ -11913,15 +12134,15 @@
         <v>0.05</v>
       </c>
       <c r="AL4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B5">
         <v>-0.11787665886026488</v>
@@ -12032,15 +12253,15 @@
         <v>0.05</v>
       </c>
       <c r="AL5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B6">
         <v>0.75</v>
@@ -12151,15 +12372,15 @@
         <v>0.05</v>
       </c>
       <c r="AL6" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM6" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B7">
         <v>0.1904761904761898</v>
@@ -12270,15 +12491,15 @@
         <v>0.05</v>
       </c>
       <c r="AL7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B8">
         <v>1.1733921815889019</v>
@@ -12389,15 +12610,15 @@
         <v>0.05</v>
       </c>
       <c r="AL8" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM8" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="15" customHeight="1">
+    <row r="9" spans="1:39" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B9">
         <v>-6.1670569867290581E-2</v>
@@ -12508,15 +12729,15 @@
         <v>0.05</v>
       </c>
       <c r="AL9" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM9" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B10">
         <v>0.65353089533417474</v>
@@ -12627,15 +12848,15 @@
         <v>0.05</v>
       </c>
       <c r="AL10" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM10" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B11">
         <v>0.18071818891490921</v>
@@ -12746,15 +12967,15 @@
         <v>0.05</v>
       </c>
       <c r="AL11" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM11" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B12">
         <v>0.76607818411097028</v>
@@ -12865,15 +13086,15 @@
         <v>0.05</v>
       </c>
       <c r="AL12" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM12" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B13">
         <v>2.146760343481624E-2</v>
@@ -12984,15 +13205,15 @@
         <v>0.05</v>
       </c>
       <c r="AL13" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM13" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B14">
         <v>0.29003783102143776</v>
@@ -13103,15 +13324,15 @@
         <v>0.05</v>
       </c>
       <c r="AL14" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM14" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B15">
         <v>0.81069476971116317</v>
@@ -13222,15 +13443,15 @@
         <v>0.05</v>
       </c>
       <c r="AL15" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM15" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B16">
         <v>-0.33890290037831022</v>
@@ -13341,15 +13562,15 @@
         <v>0.05</v>
       </c>
       <c r="AL16" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM16" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B17">
         <v>0.36729117876658862</v>
@@ -13460,15 +13681,15 @@
         <v>0.05</v>
       </c>
       <c r="AL17" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM17" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B18">
         <v>1.7906188986232792</v>
@@ -13579,15 +13800,15 @@
         <v>0.05</v>
       </c>
       <c r="AL18" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM18" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B19">
         <v>7.4191840958605724</v>
@@ -13698,15 +13919,15 @@
         <v>0.05</v>
       </c>
       <c r="AL19" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B20">
         <v>-0.36218421052631555</v>
@@ -13817,15 +14038,15 @@
         <v>0.05</v>
       </c>
       <c r="AL20" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM20" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B21">
         <v>-1.4908197368421052</v>
@@ -13936,15 +14157,15 @@
         <v>0.05</v>
       </c>
       <c r="AL21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM21" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B22">
         <v>-0.14719655521783181</v>
@@ -14055,15 +14276,15 @@
         <v>0.05</v>
       </c>
       <c r="AL22" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM22" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B23">
         <v>0.37098226950354585</v>
@@ -14174,42 +14395,42 @@
         <v>0.05</v>
       </c>
       <c r="AL23" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM23" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B24">
-        <v>0.35542992802706763</v>
+        <v>5.8592105263157723E-2</v>
       </c>
       <c r="C24" s="5">
-        <v>3.0986291848299952</v>
+        <v>2.8094183834252289</v>
       </c>
       <c r="D24" s="4">
-        <v>1.2327840762436162E-3</v>
+        <v>3.0043800860456863E-3</v>
       </c>
       <c r="E24" s="5">
-        <v>-2.2469335376852571</v>
+        <v>-2.440627617699509</v>
       </c>
       <c r="F24" s="4">
-        <v>1.3315096337891122E-2</v>
+        <v>8.2428206799516086E-3</v>
       </c>
       <c r="G24">
-        <v>110.55294602092269</v>
+        <v>96.495719357579901</v>
       </c>
       <c r="H24">
         <v>0.05</v>
       </c>
       <c r="I24">
-        <v>-2.2308121217917742</v>
+        <v>-0.8341077828480663</v>
       </c>
       <c r="J24">
-        <v>2.2308121217917742</v>
+        <v>0.8341077828480663</v>
       </c>
       <c r="K24">
         <v>-0.5</v>
@@ -14218,34 +14439,34 @@
         <v>0.5</v>
       </c>
       <c r="M24">
-        <v>-1.0290334477451843</v>
+        <v>-0.46913080991464251</v>
       </c>
       <c r="N24">
-        <v>1.7398933037993196</v>
+        <v>0.58631502044095796</v>
       </c>
       <c r="O24">
-        <v>-1.2985400497215955</v>
+        <v>-0.57210039549974268</v>
       </c>
       <c r="P24">
-        <v>2.009399905775731</v>
+        <v>0.68928460602605812</v>
       </c>
       <c r="Q24">
-        <v>0.42584782357236917</v>
+        <v>0.18439538286285997</v>
       </c>
       <c r="R24" s="4">
-        <v>0.67104665335375113</v>
+        <v>0.85409026059826154</v>
       </c>
       <c r="S24">
         <v>1</v>
       </c>
       <c r="T24">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="U24">
-        <v>1.0301262763366721</v>
+        <v>0.69891922206027213</v>
       </c>
       <c r="V24" s="4">
-        <v>0.31248443398030834</v>
+        <v>0.40583849440752284</v>
       </c>
       <c r="W24">
         <v>1</v>
@@ -14254,81 +14475,81 @@
         <v>2</v>
       </c>
       <c r="Y24">
-        <v>0.96172043478341995</v>
+        <v>0.85827133091520602</v>
       </c>
       <c r="Z24">
-        <v>0.923493831716655</v>
+        <v>0.86352893874016401</v>
       </c>
       <c r="AA24" s="4">
-        <v>9.2937255660152401E-2</v>
+        <v>2.0587554932559399E-4</v>
       </c>
       <c r="AB24" s="4">
-        <v>2.0312192180491902E-3</v>
+        <v>2.7706093075103699E-4</v>
       </c>
       <c r="AC24">
-        <v>1535</v>
+        <v>695</v>
       </c>
       <c r="AD24">
-        <v>1917</v>
+        <v>969</v>
       </c>
       <c r="AE24">
-        <v>1115</v>
+        <v>433</v>
       </c>
       <c r="AF24" s="4">
-        <v>0.40952136110397003</v>
+        <v>0.78308367295909198</v>
       </c>
       <c r="AG24" s="4">
-        <v>5.9994423582432495E-4</v>
+        <v>5.2210504386537102E-3</v>
       </c>
       <c r="AH24" s="4">
-        <v>3.4131447696963399E-2</v>
+        <v>1.3625221340409601E-3</v>
       </c>
       <c r="AI24">
-        <v>-2.2308121217917698</v>
+        <v>-0.83410778284806597</v>
       </c>
       <c r="AJ24">
-        <v>2.2308121217917698</v>
+        <v>0.83410778284806597</v>
       </c>
       <c r="AK24">
         <v>0.05</v>
       </c>
       <c r="AL24" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM24" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B25">
-        <v>-1.757010582010583</v>
+        <v>0.23193859649122794</v>
       </c>
       <c r="C25" s="5">
-        <v>0.80375972101463178</v>
+        <v>3.427072911849526</v>
       </c>
       <c r="D25" s="4">
-        <v>0.21192819871761931</v>
+        <v>4.4636182654581599E-4</v>
       </c>
       <c r="E25" s="5">
-        <v>-4.1365227238924831</v>
+        <v>-1.6571964216008812</v>
       </c>
       <c r="F25" s="4">
-        <v>4.2365377429382891E-5</v>
+        <v>5.0336370364717033E-2</v>
       </c>
       <c r="G25">
-        <v>82.11622474553954</v>
+        <v>98.158311026036628</v>
       </c>
       <c r="H25">
         <v>0.05</v>
       </c>
       <c r="I25">
-        <v>-2.6044841851423572</v>
+        <v>-0.66628281684119706</v>
       </c>
       <c r="J25">
-        <v>2.6044841851423572</v>
+        <v>0.66628281684119706</v>
       </c>
       <c r="K25">
         <v>-0.5</v>
@@ -14337,34 +14558,34 @@
         <v>0.5</v>
       </c>
       <c r="M25">
-        <v>-3.5111118751481607</v>
+        <v>-0.20327820280871639</v>
       </c>
       <c r="N25">
-        <v>-2.9092888730051225E-3</v>
+        <v>0.66715539579117222</v>
       </c>
       <c r="O25">
-        <v>-3.8544772711869011</v>
+        <v>-0.28817150250187584</v>
       </c>
       <c r="P25">
-        <v>0.34045610716573504</v>
+        <v>0.75204869548433173</v>
       </c>
       <c r="Q25">
-        <v>-1.6663815014389254</v>
+        <v>0.8849382451243224</v>
       </c>
       <c r="R25" s="4">
-        <v>9.9447730327728315E-2</v>
+        <v>0.37835255925625133</v>
       </c>
       <c r="S25">
         <v>1</v>
       </c>
       <c r="T25">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="U25">
-        <v>2.4331349335041699</v>
+        <v>0.26992566744736479</v>
       </c>
       <c r="V25" s="4">
-        <v>0.12242555353377407</v>
+        <v>0.60546632646660481</v>
       </c>
       <c r="W25">
         <v>2</v>
@@ -14373,53 +14594,297 @@
         <v>3</v>
       </c>
       <c r="Y25">
-        <v>0.923493831716655</v>
+        <v>0.86352893874016401</v>
       </c>
       <c r="Z25">
-        <v>0.930065698449839</v>
+        <v>0.92113260100784999</v>
       </c>
       <c r="AA25" s="4">
-        <v>2.0312192180491902E-3</v>
+        <v>2.7706093075103699E-4</v>
       </c>
       <c r="AB25" s="4">
-        <v>2.8101122377919601E-2</v>
+        <v>0.118759823403944</v>
       </c>
       <c r="AC25">
-        <v>766</v>
+        <v>395</v>
       </c>
       <c r="AD25">
-        <v>1044</v>
+        <v>520</v>
       </c>
       <c r="AE25">
-        <v>504</v>
+        <v>257</v>
       </c>
       <c r="AF25" s="4">
-        <v>0.13378657753026499</v>
+        <v>0.57064604351507497</v>
       </c>
       <c r="AG25" s="4">
-        <v>0.20402123620285101</v>
+        <v>3.64665534363284E-3</v>
       </c>
       <c r="AH25" s="4">
-        <v>1.0782237044499101E-4</v>
+        <v>3.9879512205687397E-2</v>
       </c>
       <c r="AI25">
-        <v>-2.6044841851423599</v>
+        <v>-0.66628281684119695</v>
       </c>
       <c r="AJ25">
-        <v>2.6044841851423599</v>
+        <v>0.66628281684119695</v>
       </c>
       <c r="AK25">
         <v>0.05</v>
       </c>
       <c r="AL25" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM25" t="s">
-        <v>359</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26">
+        <v>0.35542992802706763</v>
+      </c>
+      <c r="C26">
+        <v>3.0986291848299952</v>
+      </c>
+      <c r="D26">
+        <v>1.2327840762436162E-3</v>
+      </c>
+      <c r="E26">
+        <v>-2.2469335376852571</v>
+      </c>
+      <c r="F26">
+        <v>1.3315096337891122E-2</v>
+      </c>
+      <c r="G26">
+        <v>110.55294602092269</v>
+      </c>
+      <c r="H26">
+        <v>0.05</v>
+      </c>
+      <c r="I26">
+        <v>-2.2308121217917742</v>
+      </c>
+      <c r="J26">
+        <v>2.2308121217917742</v>
+      </c>
+      <c r="K26">
+        <v>-0.5</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>-1.0290334477451843</v>
+      </c>
+      <c r="N26">
+        <v>1.7398933037993196</v>
+      </c>
+      <c r="O26">
+        <v>-1.2985400497215955</v>
+      </c>
+      <c r="P26">
+        <v>2.009399905775731</v>
+      </c>
+      <c r="Q26">
+        <v>0.42584782357236917</v>
+      </c>
+      <c r="R26">
+        <v>0.67104665335375113</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>104</v>
+      </c>
+      <c r="U26">
+        <v>1.0301262763366721</v>
+      </c>
+      <c r="V26">
+        <v>0.31248443398030834</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <v>0.96172043478341995</v>
+      </c>
+      <c r="Z26">
+        <v>0.923493831716655</v>
+      </c>
+      <c r="AA26">
+        <v>9.2937255660152401E-2</v>
+      </c>
+      <c r="AB26">
+        <v>2.0312192180491902E-3</v>
+      </c>
+      <c r="AC26">
+        <v>1535</v>
+      </c>
+      <c r="AD26">
+        <v>1917</v>
+      </c>
+      <c r="AE26">
+        <v>1115</v>
+      </c>
+      <c r="AF26">
+        <v>0.40952136110397003</v>
+      </c>
+      <c r="AG26">
+        <v>5.9994423582432495E-4</v>
+      </c>
+      <c r="AH26">
+        <v>3.4131447696963399E-2</v>
+      </c>
+      <c r="AI26">
+        <v>-2.2308121217917698</v>
+      </c>
+      <c r="AJ26">
+        <v>2.2308121217917698</v>
+      </c>
+      <c r="AK26">
+        <v>0.05</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>306</v>
+      </c>
+      <c r="B27">
+        <v>-1.757010582010583</v>
+      </c>
+      <c r="C27">
+        <v>0.80375972101463178</v>
+      </c>
+      <c r="D27">
+        <v>0.21192819871761931</v>
+      </c>
+      <c r="E27">
+        <v>-4.1365227238924831</v>
+      </c>
+      <c r="F27">
+        <v>4.2365377429382891E-5</v>
+      </c>
+      <c r="G27">
+        <v>82.11622474553954</v>
+      </c>
+      <c r="H27">
+        <v>0.05</v>
+      </c>
+      <c r="I27">
+        <v>-2.6044841851423572</v>
+      </c>
+      <c r="J27">
+        <v>2.6044841851423572</v>
+      </c>
+      <c r="K27">
+        <v>-0.5</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <v>-3.5111118751481607</v>
+      </c>
+      <c r="N27">
+        <v>-2.9092888730051225E-3</v>
+      </c>
+      <c r="O27">
+        <v>-3.8544772711869011</v>
+      </c>
+      <c r="P27">
+        <v>0.34045610716573504</v>
+      </c>
+      <c r="Q27">
+        <v>-1.6663815014389254</v>
+      </c>
+      <c r="R27">
+        <v>9.9447730327728315E-2</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>87</v>
+      </c>
+      <c r="U27">
+        <v>2.4331349335041699</v>
+      </c>
+      <c r="V27">
+        <v>0.12242555353377407</v>
+      </c>
+      <c r="W27">
+        <v>2</v>
+      </c>
+      <c r="X27">
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <v>0.923493831716655</v>
+      </c>
+      <c r="Z27">
+        <v>0.930065698449839</v>
+      </c>
+      <c r="AA27">
+        <v>2.0312192180491902E-3</v>
+      </c>
+      <c r="AB27">
+        <v>2.8101122377919601E-2</v>
+      </c>
+      <c r="AC27">
+        <v>766</v>
+      </c>
+      <c r="AD27">
+        <v>1044</v>
+      </c>
+      <c r="AE27">
+        <v>504</v>
+      </c>
+      <c r="AF27">
+        <v>0.13378657753026499</v>
+      </c>
+      <c r="AG27">
+        <v>0.20402123620285101</v>
+      </c>
+      <c r="AH27">
+        <v>1.0782237044499101E-4</v>
+      </c>
+      <c r="AI27">
+        <v>-2.6044841851423599</v>
+      </c>
+      <c r="AJ27">
+        <v>2.6044841851423599</v>
+      </c>
+      <c r="AK27">
+        <v>0.05</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM25" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <autoFilter ref="A1:AM27" xr:uid="{00000000-0001-0000-0400-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FirstGlanceDuration_ic_12_excl_ic_start"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="D1:D1048576 F1:F1048576 R1:R1048576 AA1:AB1048576 V1:V1048576 AF1:AH1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.05</formula>
@@ -14437,7 +14902,7 @@
       <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
@@ -14468,104 +14933,104 @@
     <col min="30" max="30" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L1" t="s">
+        <v>377</v>
+      </c>
+      <c r="M1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N1" t="s">
+        <v>379</v>
+      </c>
+      <c r="O1" t="s">
+        <v>380</v>
+      </c>
+      <c r="P1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>382</v>
+      </c>
+      <c r="R1" t="s">
+        <v>383</v>
+      </c>
+      <c r="S1" t="s">
+        <v>384</v>
+      </c>
+      <c r="T1" t="s">
+        <v>385</v>
+      </c>
+      <c r="U1" t="s">
+        <v>386</v>
+      </c>
+      <c r="V1" t="s">
+        <v>387</v>
+      </c>
+      <c r="W1" t="s">
+        <v>388</v>
+      </c>
+      <c r="X1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>365</v>
       </c>
-      <c r="E1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>367</v>
-      </c>
-      <c r="G1" t="s">
-        <v>368</v>
-      </c>
-      <c r="H1" t="s">
-        <v>369</v>
-      </c>
-      <c r="I1" t="s">
-        <v>370</v>
-      </c>
-      <c r="J1" t="s">
-        <v>371</v>
-      </c>
-      <c r="K1" t="s">
-        <v>372</v>
-      </c>
-      <c r="L1" t="s">
-        <v>373</v>
-      </c>
-      <c r="M1" t="s">
-        <v>374</v>
-      </c>
-      <c r="N1" t="s">
-        <v>375</v>
-      </c>
-      <c r="O1" t="s">
-        <v>376</v>
-      </c>
-      <c r="P1" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>378</v>
-      </c>
-      <c r="R1" t="s">
-        <v>379</v>
-      </c>
-      <c r="S1" t="s">
-        <v>380</v>
-      </c>
-      <c r="T1" t="s">
-        <v>381</v>
-      </c>
-      <c r="U1" t="s">
-        <v>382</v>
-      </c>
-      <c r="V1" t="s">
-        <v>383</v>
-      </c>
-      <c r="W1" t="s">
-        <v>384</v>
-      </c>
-      <c r="X1" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
-      <c r="A2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B2" t="s">
-        <v>363</v>
       </c>
       <c r="C2">
         <v>-2.3785806158855234</v>
@@ -14652,12 +15117,12 @@
         <v>0.20958926597094416</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C3">
         <v>-2.3774128245933941</v>
